--- a/lib/PHPExcel/templates/Prestart.xlsx
+++ b/lib/PHPExcel/templates/Prestart.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17668"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17927"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -927,7 +927,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
@@ -950,10 +950,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -961,20 +957,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="centerContinuous"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="centerContinuous"/>
@@ -995,9 +981,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1019,28 +1002,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="centerContinuous"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="centerContinuous"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1060,18 +1028,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
@@ -1089,116 +1045,132 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1620,7 +1592,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="1">
       <selection activeCell="D49" sqref="D49"/>
     </sheetView>
@@ -1653,8 +1627,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="35" t="s">
+    <row r="3" spans="1:17" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A3" s="30" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="7"/>
@@ -1672,8 +1646,8 @@
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
     </row>
-    <row r="4" spans="1:17" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A4" s="35" t="s">
+    <row r="4" spans="1:17" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="A4" s="30" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="7"/>
@@ -1692,921 +1666,999 @@
       <c r="O4" s="8"/>
     </row>
     <row r="5" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N5" s="10"/>
-    </row>
-    <row r="6" spans="1:17" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+      <c r="N5" s="83"/>
+    </row>
+    <row r="6" spans="1:17" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="16"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="13" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="84"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="M6" s="67"/>
-      <c r="N6" s="67"/>
-      <c r="O6" s="67"/>
-    </row>
-    <row r="7" spans="1:17" s="11" customFormat="1" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="16"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-    </row>
-    <row r="8" spans="1:17" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
-      <c r="B8" s="30" t="s">
+      <c r="M6" s="85"/>
+      <c r="N6" s="85"/>
+      <c r="O6" s="85"/>
+    </row>
+    <row r="7" spans="1:17" s="10" customFormat="1" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="84"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="84"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+    </row>
+    <row r="8" spans="1:17" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A8" s="13"/>
+      <c r="B8" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="30" t="s">
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="70"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="30" t="s">
+      <c r="G8" s="56"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="70"/>
-      <c r="L8" s="64"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="40" t="s">
+      <c r="K8" s="56"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="35" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="11" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" s="10" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="18"/>
-    </row>
-    <row r="10" spans="1:17" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="34"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="43" t="s">
+      <c r="B9" s="11"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="84"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="15"/>
+    </row>
+    <row r="10" spans="1:17" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A10" s="29"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="44"/>
-      <c r="E10" s="45" t="s">
+      <c r="D10" s="88"/>
+      <c r="E10" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="46" t="s">
+      <c r="F10" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="47" t="s">
+      <c r="G10" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="46" t="s">
+      <c r="H10" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="63"/>
-      <c r="J10" s="36" t="s">
+      <c r="I10" s="51"/>
+      <c r="J10" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="K10" s="19"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="27" t="s">
+      <c r="K10" s="16"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="O10" s="29"/>
-    </row>
-    <row r="11" spans="1:17" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="60" t="s">
+      <c r="O10" s="25"/>
+    </row>
+    <row r="11" spans="1:17" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A11" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="57"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="33" t="s">
+      <c r="B11" s="45"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="12"/>
-      <c r="L11" s="27" t="s">
+      <c r="K11" s="11"/>
+      <c r="L11" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="M11" s="33" t="s">
+      <c r="M11" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="N11" s="12"/>
-      <c r="O11" s="29" t="s">
+      <c r="N11" s="11"/>
+      <c r="O11" s="25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="61" t="s">
+    <row r="12" spans="1:17" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A12" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="58"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="75"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="33" t="s">
+      <c r="B12" s="46"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="K12" s="12"/>
-      <c r="L12" s="27" t="s">
+      <c r="K12" s="11"/>
+      <c r="L12" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="M12" s="33" t="s">
+      <c r="M12" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="N12" s="12"/>
-      <c r="O12" s="29" t="s">
+      <c r="N12" s="11"/>
+      <c r="O12" s="25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:17" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="62" t="s">
+    <row r="13" spans="1:17" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A13" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="59"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="33" t="s">
+      <c r="B13" s="47"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="K13" s="33" t="s">
+      <c r="K13" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="L13" s="27" t="s">
+      <c r="L13" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="M13" s="33" t="s">
+      <c r="M13" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="N13" s="66"/>
-      <c r="O13" s="69" t="s">
+      <c r="N13" s="54"/>
+      <c r="O13" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="Q13" s="28"/>
-    </row>
-    <row r="14" spans="1:17" s="11" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q13" s="24"/>
+    </row>
+    <row r="14" spans="1:17" s="10" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="22"/>
-    </row>
-    <row r="15" spans="1:17" s="11" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="34" t="s">
+      <c r="B14" s="11"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="18"/>
+    </row>
+    <row r="15" spans="1:17" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A15" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28" t="s">
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="I15" s="28"/>
-      <c r="J15" s="42" t="s">
+      <c r="I15" s="24"/>
+      <c r="J15" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="K15" s="28" t="s">
+      <c r="K15" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="L15" s="33" t="s">
+      <c r="L15" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="M15" s="17"/>
-      <c r="N15" s="33" t="s">
+      <c r="M15" s="11"/>
+      <c r="N15" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="O15" s="29" t="s">
+      <c r="O15" s="25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:17" s="11" customFormat="1" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="23"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="25"/>
-    </row>
-    <row r="17" spans="1:15" s="11" customFormat="1" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-    </row>
-    <row r="18" spans="1:15" s="11" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="37" t="s">
+    <row r="16" spans="1:17" s="10" customFormat="1" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="19"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="21"/>
+    </row>
+    <row r="17" spans="1:15" s="10" customFormat="1" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+    </row>
+    <row r="18" spans="1:15" s="10" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38" t="s">
+      <c r="C18" s="33"/>
+      <c r="D18" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38" t="s">
+      <c r="E18" s="33"/>
+      <c r="F18" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="G18" s="38" t="s">
+      <c r="G18" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38" t="s">
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="38" t="s">
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="O18" s="65" t="s">
+      <c r="O18" s="53" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="87"/>
-      <c r="B19" s="101"/>
-      <c r="C19" s="80"/>
-      <c r="D19" s="101"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="89"/>
-      <c r="G19" s="88"/>
-      <c r="H19" s="78"/>
-      <c r="I19" s="79"/>
-      <c r="J19" s="80"/>
-      <c r="K19" s="101"/>
-      <c r="L19" s="79"/>
-      <c r="M19" s="80"/>
-      <c r="N19" s="89"/>
-      <c r="O19" s="90"/>
+      <c r="A19" s="60"/>
+      <c r="B19" s="78"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="80"/>
+      <c r="J19" s="79"/>
+      <c r="K19" s="78"/>
+      <c r="L19" s="80"/>
+      <c r="M19" s="79"/>
+      <c r="N19" s="61"/>
+      <c r="O19" s="62"/>
     </row>
     <row r="20" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="91"/>
-      <c r="B20" s="99"/>
-      <c r="C20" s="83"/>
-      <c r="D20" s="99"/>
-      <c r="E20" s="83"/>
-      <c r="F20" s="93"/>
-      <c r="G20" s="92"/>
-      <c r="H20" s="81"/>
-      <c r="I20" s="82"/>
-      <c r="J20" s="83"/>
-      <c r="K20" s="99"/>
-      <c r="L20" s="82"/>
-      <c r="M20" s="83"/>
-      <c r="N20" s="93"/>
-      <c r="O20" s="94"/>
+      <c r="A20" s="63"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="73"/>
+      <c r="K20" s="72"/>
+      <c r="L20" s="76"/>
+      <c r="M20" s="73"/>
+      <c r="N20" s="64"/>
+      <c r="O20" s="65"/>
     </row>
     <row r="21" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="91"/>
-      <c r="B21" s="99"/>
-      <c r="C21" s="83"/>
-      <c r="D21" s="99"/>
-      <c r="E21" s="83"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="81"/>
-      <c r="I21" s="82"/>
-      <c r="J21" s="83"/>
-      <c r="K21" s="99"/>
-      <c r="L21" s="82"/>
-      <c r="M21" s="83"/>
-      <c r="N21" s="93"/>
-      <c r="O21" s="94"/>
+      <c r="A21" s="63"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="76"/>
+      <c r="J21" s="73"/>
+      <c r="K21" s="72"/>
+      <c r="L21" s="76"/>
+      <c r="M21" s="73"/>
+      <c r="N21" s="64"/>
+      <c r="O21" s="65"/>
     </row>
     <row r="22" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="91"/>
-      <c r="B22" s="99"/>
-      <c r="C22" s="83"/>
-      <c r="D22" s="99"/>
-      <c r="E22" s="83"/>
-      <c r="F22" s="93"/>
-      <c r="G22" s="92"/>
-      <c r="H22" s="81"/>
-      <c r="I22" s="82"/>
-      <c r="J22" s="83"/>
-      <c r="K22" s="99"/>
-      <c r="L22" s="82"/>
-      <c r="M22" s="83"/>
-      <c r="N22" s="93"/>
-      <c r="O22" s="94"/>
+      <c r="A22" s="63"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="69"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="76"/>
+      <c r="J22" s="73"/>
+      <c r="K22" s="72"/>
+      <c r="L22" s="76"/>
+      <c r="M22" s="73"/>
+      <c r="N22" s="64"/>
+      <c r="O22" s="65"/>
     </row>
     <row r="23" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="91"/>
-      <c r="B23" s="99"/>
-      <c r="C23" s="83"/>
-      <c r="D23" s="99"/>
-      <c r="E23" s="83"/>
-      <c r="F23" s="93"/>
-      <c r="G23" s="92"/>
-      <c r="H23" s="81"/>
-      <c r="I23" s="82"/>
-      <c r="J23" s="83"/>
-      <c r="K23" s="99"/>
-      <c r="L23" s="82"/>
-      <c r="M23" s="83"/>
-      <c r="N23" s="93"/>
-      <c r="O23" s="94"/>
+      <c r="A23" s="63"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="76"/>
+      <c r="J23" s="73"/>
+      <c r="K23" s="72"/>
+      <c r="L23" s="76"/>
+      <c r="M23" s="73"/>
+      <c r="N23" s="64"/>
+      <c r="O23" s="65"/>
     </row>
     <row r="24" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="91"/>
-      <c r="B24" s="99"/>
-      <c r="C24" s="83"/>
-      <c r="D24" s="99"/>
-      <c r="E24" s="83"/>
-      <c r="F24" s="93"/>
-      <c r="G24" s="92"/>
-      <c r="H24" s="81"/>
-      <c r="I24" s="82"/>
-      <c r="J24" s="83"/>
-      <c r="K24" s="99"/>
-      <c r="L24" s="82"/>
-      <c r="M24" s="83"/>
-      <c r="N24" s="93"/>
-      <c r="O24" s="94"/>
+      <c r="A24" s="63"/>
+      <c r="B24" s="72"/>
+      <c r="C24" s="73"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="73"/>
+      <c r="K24" s="72"/>
+      <c r="L24" s="76"/>
+      <c r="M24" s="73"/>
+      <c r="N24" s="64"/>
+      <c r="O24" s="65"/>
     </row>
     <row r="25" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="91"/>
-      <c r="B25" s="99"/>
-      <c r="C25" s="83"/>
-      <c r="D25" s="99"/>
-      <c r="E25" s="83"/>
-      <c r="F25" s="93"/>
-      <c r="G25" s="92"/>
-      <c r="H25" s="81"/>
-      <c r="I25" s="82"/>
-      <c r="J25" s="83"/>
-      <c r="K25" s="99"/>
-      <c r="L25" s="82"/>
-      <c r="M25" s="83"/>
-      <c r="N25" s="93"/>
-      <c r="O25" s="94"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="76"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="72"/>
+      <c r="L25" s="76"/>
+      <c r="M25" s="73"/>
+      <c r="N25" s="64"/>
+      <c r="O25" s="65"/>
     </row>
     <row r="26" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="91"/>
-      <c r="B26" s="99"/>
-      <c r="C26" s="83"/>
-      <c r="D26" s="99"/>
-      <c r="E26" s="83"/>
-      <c r="F26" s="93"/>
-      <c r="G26" s="92"/>
-      <c r="H26" s="81"/>
-      <c r="I26" s="82"/>
-      <c r="J26" s="83"/>
-      <c r="K26" s="99"/>
-      <c r="L26" s="82"/>
-      <c r="M26" s="83"/>
-      <c r="N26" s="93"/>
-      <c r="O26" s="94"/>
+      <c r="A26" s="63"/>
+      <c r="B26" s="72"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="76"/>
+      <c r="J26" s="73"/>
+      <c r="K26" s="72"/>
+      <c r="L26" s="76"/>
+      <c r="M26" s="73"/>
+      <c r="N26" s="64"/>
+      <c r="O26" s="65"/>
     </row>
     <row r="27" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="91"/>
-      <c r="B27" s="99"/>
-      <c r="C27" s="83"/>
-      <c r="D27" s="99"/>
-      <c r="E27" s="83"/>
-      <c r="F27" s="93"/>
-      <c r="G27" s="92"/>
-      <c r="H27" s="81"/>
-      <c r="I27" s="82"/>
-      <c r="J27" s="83"/>
-      <c r="K27" s="99"/>
-      <c r="L27" s="82"/>
-      <c r="M27" s="83"/>
-      <c r="N27" s="93"/>
-      <c r="O27" s="94"/>
+      <c r="A27" s="63"/>
+      <c r="B27" s="72"/>
+      <c r="C27" s="73"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="76"/>
+      <c r="J27" s="73"/>
+      <c r="K27" s="72"/>
+      <c r="L27" s="76"/>
+      <c r="M27" s="73"/>
+      <c r="N27" s="64"/>
+      <c r="O27" s="65"/>
     </row>
     <row r="28" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="91"/>
-      <c r="B28" s="99"/>
-      <c r="C28" s="83"/>
-      <c r="D28" s="99"/>
-      <c r="E28" s="83"/>
-      <c r="F28" s="93"/>
-      <c r="G28" s="92"/>
-      <c r="H28" s="81"/>
-      <c r="I28" s="82"/>
-      <c r="J28" s="83"/>
-      <c r="K28" s="99"/>
-      <c r="L28" s="82"/>
-      <c r="M28" s="83"/>
-      <c r="N28" s="93"/>
-      <c r="O28" s="94"/>
+      <c r="A28" s="63"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="76"/>
+      <c r="J28" s="73"/>
+      <c r="K28" s="72"/>
+      <c r="L28" s="76"/>
+      <c r="M28" s="73"/>
+      <c r="N28" s="64"/>
+      <c r="O28" s="65"/>
     </row>
     <row r="29" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="91"/>
-      <c r="B29" s="99"/>
-      <c r="C29" s="83"/>
-      <c r="D29" s="99"/>
-      <c r="E29" s="83"/>
-      <c r="F29" s="93"/>
-      <c r="G29" s="92"/>
-      <c r="H29" s="81"/>
-      <c r="I29" s="82"/>
-      <c r="J29" s="83"/>
-      <c r="K29" s="99"/>
-      <c r="L29" s="82"/>
-      <c r="M29" s="83"/>
-      <c r="N29" s="93"/>
-      <c r="O29" s="94"/>
+      <c r="A29" s="63"/>
+      <c r="B29" s="72"/>
+      <c r="C29" s="73"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="69"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="76"/>
+      <c r="J29" s="73"/>
+      <c r="K29" s="72"/>
+      <c r="L29" s="76"/>
+      <c r="M29" s="73"/>
+      <c r="N29" s="64"/>
+      <c r="O29" s="65"/>
     </row>
     <row r="30" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="91"/>
-      <c r="B30" s="99"/>
-      <c r="C30" s="83"/>
-      <c r="D30" s="99"/>
-      <c r="E30" s="83"/>
-      <c r="F30" s="93"/>
-      <c r="G30" s="92"/>
-      <c r="H30" s="81"/>
-      <c r="I30" s="82"/>
-      <c r="J30" s="83"/>
-      <c r="K30" s="99"/>
-      <c r="L30" s="82"/>
-      <c r="M30" s="83"/>
-      <c r="N30" s="93"/>
-      <c r="O30" s="94"/>
+      <c r="A30" s="63"/>
+      <c r="B30" s="72"/>
+      <c r="C30" s="73"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="69"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="76"/>
+      <c r="J30" s="73"/>
+      <c r="K30" s="72"/>
+      <c r="L30" s="76"/>
+      <c r="M30" s="73"/>
+      <c r="N30" s="64"/>
+      <c r="O30" s="65"/>
     </row>
     <row r="31" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="91"/>
-      <c r="B31" s="99"/>
-      <c r="C31" s="83"/>
-      <c r="D31" s="99"/>
-      <c r="E31" s="83"/>
-      <c r="F31" s="93"/>
-      <c r="G31" s="92"/>
-      <c r="H31" s="81"/>
-      <c r="I31" s="82"/>
-      <c r="J31" s="83"/>
-      <c r="K31" s="99"/>
-      <c r="L31" s="82"/>
-      <c r="M31" s="83"/>
-      <c r="N31" s="93"/>
-      <c r="O31" s="94"/>
+      <c r="A31" s="63"/>
+      <c r="B31" s="72"/>
+      <c r="C31" s="73"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="73"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="69"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="76"/>
+      <c r="J31" s="73"/>
+      <c r="K31" s="72"/>
+      <c r="L31" s="76"/>
+      <c r="M31" s="73"/>
+      <c r="N31" s="64"/>
+      <c r="O31" s="65"/>
     </row>
     <row r="32" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="91"/>
-      <c r="B32" s="99"/>
-      <c r="C32" s="83"/>
-      <c r="D32" s="99"/>
-      <c r="E32" s="83"/>
-      <c r="F32" s="93"/>
-      <c r="G32" s="92"/>
-      <c r="H32" s="81"/>
-      <c r="I32" s="82"/>
-      <c r="J32" s="83"/>
-      <c r="K32" s="99"/>
-      <c r="L32" s="82"/>
-      <c r="M32" s="83"/>
-      <c r="N32" s="93"/>
-      <c r="O32" s="94"/>
+      <c r="A32" s="63"/>
+      <c r="B32" s="72"/>
+      <c r="C32" s="73"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="73"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="69"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="76"/>
+      <c r="J32" s="73"/>
+      <c r="K32" s="72"/>
+      <c r="L32" s="76"/>
+      <c r="M32" s="73"/>
+      <c r="N32" s="64"/>
+      <c r="O32" s="65"/>
     </row>
     <row r="33" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="91"/>
-      <c r="B33" s="99"/>
-      <c r="C33" s="83"/>
-      <c r="D33" s="99"/>
-      <c r="E33" s="83"/>
-      <c r="F33" s="93"/>
-      <c r="G33" s="92"/>
-      <c r="H33" s="81"/>
-      <c r="I33" s="82"/>
-      <c r="J33" s="83"/>
-      <c r="K33" s="99"/>
-      <c r="L33" s="82"/>
-      <c r="M33" s="83"/>
-      <c r="N33" s="93"/>
-      <c r="O33" s="94"/>
+      <c r="A33" s="63"/>
+      <c r="B33" s="72"/>
+      <c r="C33" s="73"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="73"/>
+      <c r="F33" s="64"/>
+      <c r="G33" s="69"/>
+      <c r="H33" s="58"/>
+      <c r="I33" s="76"/>
+      <c r="J33" s="73"/>
+      <c r="K33" s="72"/>
+      <c r="L33" s="76"/>
+      <c r="M33" s="73"/>
+      <c r="N33" s="64"/>
+      <c r="O33" s="65"/>
     </row>
     <row r="34" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="91"/>
-      <c r="B34" s="99"/>
-      <c r="C34" s="83"/>
-      <c r="D34" s="99"/>
-      <c r="E34" s="83"/>
-      <c r="F34" s="93"/>
-      <c r="G34" s="92"/>
-      <c r="H34" s="81"/>
-      <c r="I34" s="82"/>
-      <c r="J34" s="83"/>
-      <c r="K34" s="99"/>
-      <c r="L34" s="82"/>
-      <c r="M34" s="83"/>
-      <c r="N34" s="93"/>
-      <c r="O34" s="94"/>
+      <c r="A34" s="63"/>
+      <c r="B34" s="72"/>
+      <c r="C34" s="73"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="73"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="69"/>
+      <c r="H34" s="58"/>
+      <c r="I34" s="76"/>
+      <c r="J34" s="73"/>
+      <c r="K34" s="72"/>
+      <c r="L34" s="76"/>
+      <c r="M34" s="73"/>
+      <c r="N34" s="64"/>
+      <c r="O34" s="65"/>
     </row>
     <row r="35" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="91"/>
-      <c r="B35" s="99"/>
-      <c r="C35" s="83"/>
-      <c r="D35" s="99"/>
-      <c r="E35" s="83"/>
-      <c r="F35" s="93"/>
-      <c r="G35" s="92"/>
-      <c r="H35" s="81"/>
-      <c r="I35" s="82"/>
-      <c r="J35" s="83"/>
-      <c r="K35" s="99"/>
-      <c r="L35" s="82"/>
-      <c r="M35" s="83"/>
-      <c r="N35" s="93"/>
-      <c r="O35" s="94"/>
+      <c r="A35" s="63"/>
+      <c r="B35" s="72"/>
+      <c r="C35" s="73"/>
+      <c r="D35" s="72"/>
+      <c r="E35" s="73"/>
+      <c r="F35" s="64"/>
+      <c r="G35" s="69"/>
+      <c r="H35" s="58"/>
+      <c r="I35" s="76"/>
+      <c r="J35" s="73"/>
+      <c r="K35" s="72"/>
+      <c r="L35" s="76"/>
+      <c r="M35" s="73"/>
+      <c r="N35" s="64"/>
+      <c r="O35" s="65"/>
     </row>
     <row r="36" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="91"/>
-      <c r="B36" s="99"/>
-      <c r="C36" s="83"/>
-      <c r="D36" s="99"/>
-      <c r="E36" s="83"/>
-      <c r="F36" s="93"/>
-      <c r="G36" s="92"/>
-      <c r="H36" s="81"/>
-      <c r="I36" s="82"/>
-      <c r="J36" s="83"/>
-      <c r="K36" s="99"/>
-      <c r="L36" s="82"/>
-      <c r="M36" s="83"/>
-      <c r="N36" s="93"/>
-      <c r="O36" s="94"/>
+      <c r="A36" s="63"/>
+      <c r="B36" s="72"/>
+      <c r="C36" s="73"/>
+      <c r="D36" s="72"/>
+      <c r="E36" s="73"/>
+      <c r="F36" s="64"/>
+      <c r="G36" s="69"/>
+      <c r="H36" s="58"/>
+      <c r="I36" s="76"/>
+      <c r="J36" s="73"/>
+      <c r="K36" s="72"/>
+      <c r="L36" s="76"/>
+      <c r="M36" s="73"/>
+      <c r="N36" s="64"/>
+      <c r="O36" s="65"/>
     </row>
     <row r="37" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="91"/>
-      <c r="B37" s="99"/>
-      <c r="C37" s="83"/>
-      <c r="D37" s="99"/>
-      <c r="E37" s="83"/>
-      <c r="F37" s="93"/>
-      <c r="G37" s="92"/>
-      <c r="H37" s="81"/>
-      <c r="I37" s="82"/>
-      <c r="J37" s="83"/>
-      <c r="K37" s="99"/>
-      <c r="L37" s="82"/>
-      <c r="M37" s="83"/>
-      <c r="N37" s="93"/>
-      <c r="O37" s="94"/>
+      <c r="A37" s="63"/>
+      <c r="B37" s="72"/>
+      <c r="C37" s="73"/>
+      <c r="D37" s="72"/>
+      <c r="E37" s="73"/>
+      <c r="F37" s="64"/>
+      <c r="G37" s="69"/>
+      <c r="H37" s="58"/>
+      <c r="I37" s="76"/>
+      <c r="J37" s="73"/>
+      <c r="K37" s="72"/>
+      <c r="L37" s="76"/>
+      <c r="M37" s="73"/>
+      <c r="N37" s="64"/>
+      <c r="O37" s="65"/>
     </row>
     <row r="38" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="91"/>
-      <c r="B38" s="99"/>
-      <c r="C38" s="83"/>
-      <c r="D38" s="99"/>
-      <c r="E38" s="83"/>
-      <c r="F38" s="93"/>
-      <c r="G38" s="92"/>
-      <c r="H38" s="81"/>
-      <c r="I38" s="82"/>
-      <c r="J38" s="83"/>
-      <c r="K38" s="99"/>
-      <c r="L38" s="82"/>
-      <c r="M38" s="83"/>
-      <c r="N38" s="93"/>
-      <c r="O38" s="94"/>
+      <c r="A38" s="63"/>
+      <c r="B38" s="72"/>
+      <c r="C38" s="73"/>
+      <c r="D38" s="72"/>
+      <c r="E38" s="73"/>
+      <c r="F38" s="64"/>
+      <c r="G38" s="69"/>
+      <c r="H38" s="58"/>
+      <c r="I38" s="76"/>
+      <c r="J38" s="73"/>
+      <c r="K38" s="72"/>
+      <c r="L38" s="76"/>
+      <c r="M38" s="73"/>
+      <c r="N38" s="64"/>
+      <c r="O38" s="65"/>
     </row>
     <row r="39" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="91"/>
-      <c r="B39" s="99"/>
-      <c r="C39" s="83"/>
-      <c r="D39" s="99"/>
-      <c r="E39" s="83"/>
-      <c r="F39" s="93"/>
-      <c r="G39" s="92"/>
-      <c r="H39" s="81"/>
-      <c r="I39" s="82"/>
-      <c r="J39" s="83"/>
-      <c r="K39" s="99"/>
-      <c r="L39" s="82"/>
-      <c r="M39" s="83"/>
-      <c r="N39" s="93"/>
-      <c r="O39" s="94"/>
+      <c r="A39" s="63"/>
+      <c r="B39" s="72"/>
+      <c r="C39" s="73"/>
+      <c r="D39" s="72"/>
+      <c r="E39" s="73"/>
+      <c r="F39" s="64"/>
+      <c r="G39" s="69"/>
+      <c r="H39" s="58"/>
+      <c r="I39" s="76"/>
+      <c r="J39" s="73"/>
+      <c r="K39" s="72"/>
+      <c r="L39" s="76"/>
+      <c r="M39" s="73"/>
+      <c r="N39" s="64"/>
+      <c r="O39" s="65"/>
     </row>
     <row r="40" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="91"/>
-      <c r="B40" s="99"/>
-      <c r="C40" s="83"/>
-      <c r="D40" s="99"/>
-      <c r="E40" s="83"/>
-      <c r="F40" s="93"/>
-      <c r="G40" s="92"/>
-      <c r="H40" s="81"/>
-      <c r="I40" s="82"/>
-      <c r="J40" s="83"/>
-      <c r="K40" s="99"/>
-      <c r="L40" s="82"/>
-      <c r="M40" s="83"/>
-      <c r="N40" s="93"/>
-      <c r="O40" s="94"/>
+      <c r="A40" s="63"/>
+      <c r="B40" s="72"/>
+      <c r="C40" s="73"/>
+      <c r="D40" s="72"/>
+      <c r="E40" s="73"/>
+      <c r="F40" s="64"/>
+      <c r="G40" s="69"/>
+      <c r="H40" s="58"/>
+      <c r="I40" s="76"/>
+      <c r="J40" s="73"/>
+      <c r="K40" s="72"/>
+      <c r="L40" s="76"/>
+      <c r="M40" s="73"/>
+      <c r="N40" s="64"/>
+      <c r="O40" s="65"/>
     </row>
     <row r="41" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="91"/>
-      <c r="B41" s="99"/>
-      <c r="C41" s="83"/>
-      <c r="D41" s="99"/>
-      <c r="E41" s="83"/>
-      <c r="F41" s="93"/>
-      <c r="G41" s="92"/>
-      <c r="H41" s="81"/>
-      <c r="I41" s="82"/>
-      <c r="J41" s="83"/>
-      <c r="K41" s="99"/>
-      <c r="L41" s="82"/>
-      <c r="M41" s="83"/>
-      <c r="N41" s="93"/>
-      <c r="O41" s="94"/>
+      <c r="A41" s="63"/>
+      <c r="B41" s="72"/>
+      <c r="C41" s="73"/>
+      <c r="D41" s="72"/>
+      <c r="E41" s="73"/>
+      <c r="F41" s="64"/>
+      <c r="G41" s="69"/>
+      <c r="H41" s="58"/>
+      <c r="I41" s="76"/>
+      <c r="J41" s="73"/>
+      <c r="K41" s="72"/>
+      <c r="L41" s="76"/>
+      <c r="M41" s="73"/>
+      <c r="N41" s="64"/>
+      <c r="O41" s="65"/>
     </row>
     <row r="42" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="91"/>
-      <c r="B42" s="99"/>
-      <c r="C42" s="83"/>
-      <c r="D42" s="99"/>
-      <c r="E42" s="83"/>
-      <c r="F42" s="93"/>
-      <c r="G42" s="92"/>
-      <c r="H42" s="81"/>
-      <c r="I42" s="82"/>
-      <c r="J42" s="83"/>
-      <c r="K42" s="99"/>
-      <c r="L42" s="82"/>
-      <c r="M42" s="83"/>
-      <c r="N42" s="93"/>
-      <c r="O42" s="94"/>
+      <c r="A42" s="63"/>
+      <c r="B42" s="72"/>
+      <c r="C42" s="73"/>
+      <c r="D42" s="72"/>
+      <c r="E42" s="73"/>
+      <c r="F42" s="64"/>
+      <c r="G42" s="69"/>
+      <c r="H42" s="58"/>
+      <c r="I42" s="76"/>
+      <c r="J42" s="73"/>
+      <c r="K42" s="72"/>
+      <c r="L42" s="76"/>
+      <c r="M42" s="73"/>
+      <c r="N42" s="64"/>
+      <c r="O42" s="65"/>
     </row>
     <row r="43" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="91"/>
-      <c r="B43" s="99"/>
-      <c r="C43" s="83"/>
-      <c r="D43" s="99"/>
-      <c r="E43" s="83"/>
-      <c r="F43" s="93"/>
-      <c r="G43" s="92"/>
-      <c r="H43" s="81"/>
-      <c r="I43" s="82"/>
-      <c r="J43" s="83"/>
-      <c r="K43" s="99"/>
-      <c r="L43" s="82"/>
-      <c r="M43" s="83"/>
-      <c r="N43" s="93"/>
-      <c r="O43" s="94"/>
+      <c r="A43" s="63"/>
+      <c r="B43" s="72"/>
+      <c r="C43" s="73"/>
+      <c r="D43" s="72"/>
+      <c r="E43" s="73"/>
+      <c r="F43" s="64"/>
+      <c r="G43" s="69"/>
+      <c r="H43" s="58"/>
+      <c r="I43" s="76"/>
+      <c r="J43" s="73"/>
+      <c r="K43" s="72"/>
+      <c r="L43" s="76"/>
+      <c r="M43" s="73"/>
+      <c r="N43" s="64"/>
+      <c r="O43" s="65"/>
     </row>
     <row r="44" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="91"/>
-      <c r="B44" s="99"/>
-      <c r="C44" s="83"/>
-      <c r="D44" s="99"/>
-      <c r="E44" s="83"/>
-      <c r="F44" s="93"/>
-      <c r="G44" s="92"/>
-      <c r="H44" s="81"/>
-      <c r="I44" s="82"/>
-      <c r="J44" s="83"/>
-      <c r="K44" s="99"/>
-      <c r="L44" s="82"/>
-      <c r="M44" s="83"/>
-      <c r="N44" s="93"/>
-      <c r="O44" s="94"/>
+      <c r="A44" s="63"/>
+      <c r="B44" s="72"/>
+      <c r="C44" s="73"/>
+      <c r="D44" s="72"/>
+      <c r="E44" s="73"/>
+      <c r="F44" s="64"/>
+      <c r="G44" s="69"/>
+      <c r="H44" s="58"/>
+      <c r="I44" s="76"/>
+      <c r="J44" s="73"/>
+      <c r="K44" s="72"/>
+      <c r="L44" s="76"/>
+      <c r="M44" s="73"/>
+      <c r="N44" s="64"/>
+      <c r="O44" s="65"/>
     </row>
     <row r="45" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="91"/>
-      <c r="B45" s="99"/>
-      <c r="C45" s="83"/>
-      <c r="D45" s="99"/>
-      <c r="E45" s="83"/>
-      <c r="F45" s="93"/>
-      <c r="G45" s="92"/>
-      <c r="H45" s="81"/>
-      <c r="I45" s="82"/>
-      <c r="J45" s="83"/>
-      <c r="K45" s="99"/>
-      <c r="L45" s="82"/>
-      <c r="M45" s="83"/>
-      <c r="N45" s="93"/>
-      <c r="O45" s="94"/>
+      <c r="A45" s="63"/>
+      <c r="B45" s="72"/>
+      <c r="C45" s="73"/>
+      <c r="D45" s="72"/>
+      <c r="E45" s="73"/>
+      <c r="F45" s="64"/>
+      <c r="G45" s="69"/>
+      <c r="H45" s="58"/>
+      <c r="I45" s="76"/>
+      <c r="J45" s="73"/>
+      <c r="K45" s="72"/>
+      <c r="L45" s="76"/>
+      <c r="M45" s="73"/>
+      <c r="N45" s="64"/>
+      <c r="O45" s="65"/>
     </row>
     <row r="46" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="91"/>
-      <c r="B46" s="99"/>
-      <c r="C46" s="83"/>
-      <c r="D46" s="99"/>
-      <c r="E46" s="83"/>
-      <c r="F46" s="93"/>
-      <c r="G46" s="92"/>
-      <c r="H46" s="81"/>
-      <c r="I46" s="82"/>
-      <c r="J46" s="83"/>
-      <c r="K46" s="99"/>
-      <c r="L46" s="82"/>
-      <c r="M46" s="83"/>
-      <c r="N46" s="93"/>
-      <c r="O46" s="94"/>
+      <c r="A46" s="63"/>
+      <c r="B46" s="72"/>
+      <c r="C46" s="73"/>
+      <c r="D46" s="72"/>
+      <c r="E46" s="73"/>
+      <c r="F46" s="64"/>
+      <c r="G46" s="69"/>
+      <c r="H46" s="58"/>
+      <c r="I46" s="76"/>
+      <c r="J46" s="73"/>
+      <c r="K46" s="72"/>
+      <c r="L46" s="76"/>
+      <c r="M46" s="73"/>
+      <c r="N46" s="64"/>
+      <c r="O46" s="65"/>
     </row>
     <row r="47" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="91"/>
-      <c r="B47" s="99"/>
-      <c r="C47" s="83"/>
-      <c r="D47" s="99"/>
-      <c r="E47" s="83"/>
-      <c r="F47" s="93"/>
-      <c r="G47" s="92"/>
-      <c r="H47" s="81"/>
-      <c r="I47" s="82"/>
-      <c r="J47" s="83"/>
-      <c r="K47" s="99"/>
-      <c r="L47" s="82"/>
-      <c r="M47" s="83"/>
-      <c r="N47" s="93"/>
-      <c r="O47" s="94"/>
+      <c r="A47" s="63"/>
+      <c r="B47" s="72"/>
+      <c r="C47" s="73"/>
+      <c r="D47" s="72"/>
+      <c r="E47" s="73"/>
+      <c r="F47" s="64"/>
+      <c r="G47" s="69"/>
+      <c r="H47" s="58"/>
+      <c r="I47" s="76"/>
+      <c r="J47" s="73"/>
+      <c r="K47" s="72"/>
+      <c r="L47" s="76"/>
+      <c r="M47" s="73"/>
+      <c r="N47" s="64"/>
+      <c r="O47" s="65"/>
     </row>
     <row r="48" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="91"/>
-      <c r="B48" s="99"/>
-      <c r="C48" s="83"/>
-      <c r="D48" s="99"/>
-      <c r="E48" s="83"/>
-      <c r="F48" s="93"/>
-      <c r="G48" s="92"/>
-      <c r="H48" s="81"/>
-      <c r="I48" s="82"/>
-      <c r="J48" s="83"/>
-      <c r="K48" s="99"/>
-      <c r="L48" s="82"/>
-      <c r="M48" s="83"/>
-      <c r="N48" s="93"/>
-      <c r="O48" s="94"/>
+      <c r="A48" s="63"/>
+      <c r="B48" s="72"/>
+      <c r="C48" s="73"/>
+      <c r="D48" s="72"/>
+      <c r="E48" s="73"/>
+      <c r="F48" s="64"/>
+      <c r="G48" s="69"/>
+      <c r="H48" s="58"/>
+      <c r="I48" s="76"/>
+      <c r="J48" s="73"/>
+      <c r="K48" s="72"/>
+      <c r="L48" s="76"/>
+      <c r="M48" s="73"/>
+      <c r="N48" s="64"/>
+      <c r="O48" s="65"/>
     </row>
     <row r="49" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="91"/>
-      <c r="B49" s="99"/>
-      <c r="C49" s="83"/>
-      <c r="D49" s="99"/>
-      <c r="E49" s="83"/>
-      <c r="F49" s="93"/>
-      <c r="G49" s="92"/>
-      <c r="H49" s="81"/>
-      <c r="I49" s="82"/>
-      <c r="J49" s="83"/>
-      <c r="K49" s="99"/>
-      <c r="L49" s="82"/>
-      <c r="M49" s="83"/>
-      <c r="N49" s="93"/>
-      <c r="O49" s="94"/>
+      <c r="A49" s="63"/>
+      <c r="B49" s="72"/>
+      <c r="C49" s="73"/>
+      <c r="D49" s="72"/>
+      <c r="E49" s="73"/>
+      <c r="F49" s="64"/>
+      <c r="G49" s="69"/>
+      <c r="H49" s="58"/>
+      <c r="I49" s="76"/>
+      <c r="J49" s="73"/>
+      <c r="K49" s="72"/>
+      <c r="L49" s="76"/>
+      <c r="M49" s="73"/>
+      <c r="N49" s="64"/>
+      <c r="O49" s="65"/>
     </row>
     <row r="50" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="91"/>
-      <c r="B50" s="99"/>
-      <c r="C50" s="83"/>
-      <c r="D50" s="99"/>
-      <c r="E50" s="83"/>
-      <c r="F50" s="93"/>
-      <c r="G50" s="92"/>
-      <c r="H50" s="81"/>
-      <c r="I50" s="82"/>
-      <c r="J50" s="83"/>
-      <c r="K50" s="99"/>
-      <c r="L50" s="82"/>
-      <c r="M50" s="83"/>
-      <c r="N50" s="93"/>
-      <c r="O50" s="94"/>
+      <c r="A50" s="63"/>
+      <c r="B50" s="72"/>
+      <c r="C50" s="73"/>
+      <c r="D50" s="72"/>
+      <c r="E50" s="73"/>
+      <c r="F50" s="64"/>
+      <c r="G50" s="69"/>
+      <c r="H50" s="58"/>
+      <c r="I50" s="76"/>
+      <c r="J50" s="73"/>
+      <c r="K50" s="72"/>
+      <c r="L50" s="76"/>
+      <c r="M50" s="73"/>
+      <c r="N50" s="64"/>
+      <c r="O50" s="65"/>
     </row>
     <row r="51" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="91"/>
-      <c r="B51" s="99"/>
-      <c r="C51" s="83"/>
-      <c r="D51" s="99"/>
-      <c r="E51" s="83"/>
-      <c r="F51" s="93"/>
-      <c r="G51" s="92"/>
-      <c r="H51" s="81"/>
-      <c r="I51" s="82"/>
-      <c r="J51" s="83"/>
-      <c r="K51" s="99"/>
-      <c r="L51" s="82"/>
-      <c r="M51" s="83"/>
-      <c r="N51" s="93"/>
-      <c r="O51" s="94"/>
+      <c r="A51" s="63"/>
+      <c r="B51" s="72"/>
+      <c r="C51" s="73"/>
+      <c r="D51" s="72"/>
+      <c r="E51" s="73"/>
+      <c r="F51" s="64"/>
+      <c r="G51" s="69"/>
+      <c r="H51" s="58"/>
+      <c r="I51" s="76"/>
+      <c r="J51" s="73"/>
+      <c r="K51" s="72"/>
+      <c r="L51" s="76"/>
+      <c r="M51" s="73"/>
+      <c r="N51" s="64"/>
+      <c r="O51" s="65"/>
     </row>
     <row r="52" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="91"/>
-      <c r="B52" s="99"/>
-      <c r="C52" s="83"/>
-      <c r="D52" s="99"/>
-      <c r="E52" s="83"/>
-      <c r="F52" s="93"/>
-      <c r="G52" s="92"/>
-      <c r="H52" s="81"/>
-      <c r="I52" s="82"/>
-      <c r="J52" s="83"/>
-      <c r="K52" s="99"/>
-      <c r="L52" s="82"/>
-      <c r="M52" s="83"/>
-      <c r="N52" s="93"/>
-      <c r="O52" s="94"/>
+      <c r="A52" s="63"/>
+      <c r="B52" s="72"/>
+      <c r="C52" s="73"/>
+      <c r="D52" s="72"/>
+      <c r="E52" s="73"/>
+      <c r="F52" s="64"/>
+      <c r="G52" s="69"/>
+      <c r="H52" s="58"/>
+      <c r="I52" s="76"/>
+      <c r="J52" s="73"/>
+      <c r="K52" s="72"/>
+      <c r="L52" s="76"/>
+      <c r="M52" s="73"/>
+      <c r="N52" s="64"/>
+      <c r="O52" s="65"/>
     </row>
     <row r="53" spans="1:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="95"/>
-      <c r="B53" s="100"/>
-      <c r="C53" s="86"/>
-      <c r="D53" s="100"/>
-      <c r="E53" s="86"/>
-      <c r="F53" s="97"/>
-      <c r="G53" s="96"/>
-      <c r="H53" s="84"/>
-      <c r="I53" s="85"/>
-      <c r="J53" s="86"/>
-      <c r="K53" s="100"/>
-      <c r="L53" s="85"/>
-      <c r="M53" s="86"/>
-      <c r="N53" s="97"/>
-      <c r="O53" s="98"/>
+      <c r="A53" s="66"/>
+      <c r="B53" s="74"/>
+      <c r="C53" s="75"/>
+      <c r="D53" s="74"/>
+      <c r="E53" s="75"/>
+      <c r="F53" s="67"/>
+      <c r="G53" s="70"/>
+      <c r="H53" s="59"/>
+      <c r="I53" s="77"/>
+      <c r="J53" s="75"/>
+      <c r="K53" s="74"/>
+      <c r="L53" s="77"/>
+      <c r="M53" s="75"/>
+      <c r="N53" s="67"/>
+      <c r="O53" s="68"/>
     </row>
   </sheetData>
   <sheetProtection password="CDCA"/>
   <mergeCells count="146">
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="K44:M44"/>
+    <mergeCell ref="K45:M45"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="K37:M37"/>
+    <mergeCell ref="K38:M38"/>
+    <mergeCell ref="K39:M39"/>
+    <mergeCell ref="K40:M40"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="K35:M35"/>
     <mergeCell ref="K51:M51"/>
     <mergeCell ref="K52:M52"/>
     <mergeCell ref="K53:M53"/>
@@ -2631,106 +2683,28 @@
     <mergeCell ref="K41:M41"/>
     <mergeCell ref="K42:M42"/>
     <mergeCell ref="K43:M43"/>
-    <mergeCell ref="K44:M44"/>
-    <mergeCell ref="K45:M45"/>
-    <mergeCell ref="K36:M36"/>
-    <mergeCell ref="K37:M37"/>
-    <mergeCell ref="K38:M38"/>
-    <mergeCell ref="K39:M39"/>
-    <mergeCell ref="K40:M40"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="K35:M35"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="K25:M25"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions verticalCentered="1"/>

--- a/lib/PHPExcel/templates/Prestart.xlsx
+++ b/lib/PHPExcel/templates/Prestart.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">' '!$A$1:$O$53</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -133,9 +133,6 @@
     <t>Instructions Clients disponible</t>
   </si>
   <si>
-    <t>Doc Revision : 15Feb2017</t>
-  </si>
-  <si>
     <t>¡</t>
   </si>
   <si>
@@ -146,6 +143,9 @@
   </si>
   <si>
     <t>Cond. Identique</t>
+  </si>
+  <si>
+    <t>Doc Revision : 12Jul2017</t>
   </si>
 </sst>
 </file>
@@ -1096,46 +1096,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="centerContinuous"/>
@@ -1146,31 +1110,67 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1592,9 +1592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="1">
       <selection activeCell="D49" sqref="D49"/>
     </sheetView>
@@ -1624,7 +1622,7 @@
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M2" s="5"/>
       <c r="O2" s="5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="21.75" x14ac:dyDescent="0.4">
@@ -1666,7 +1664,7 @@
       <c r="O4" s="8"/>
     </row>
     <row r="5" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N5" s="83"/>
+      <c r="N5" s="72"/>
     </row>
     <row r="6" spans="1:17" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
@@ -1674,30 +1672,30 @@
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="84"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="73"/>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
-      <c r="J6" s="84"/>
-      <c r="K6" s="84"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
       <c r="L6" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="M6" s="85"/>
-      <c r="N6" s="85"/>
-      <c r="O6" s="85"/>
+      <c r="M6" s="81"/>
+      <c r="N6" s="81"/>
+      <c r="O6" s="81"/>
     </row>
     <row r="7" spans="1:17" s="10" customFormat="1" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
-      <c r="F7" s="84"/>
+      <c r="F7" s="73"/>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
-      <c r="J7" s="84"/>
-      <c r="K7" s="84"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
     </row>
@@ -1706,8 +1704,8 @@
       <c r="B8" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="82"/>
-      <c r="D8" s="82"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="83"/>
       <c r="E8" s="14"/>
       <c r="F8" s="26" t="s">
         <v>11</v>
@@ -1729,15 +1727,15 @@
     <row r="9" spans="1:17" s="10" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="11"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="84"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="73"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
-      <c r="J9" s="84"/>
-      <c r="K9" s="84"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="73"/>
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
       <c r="N9" s="11"/>
@@ -1746,11 +1744,11 @@
     <row r="10" spans="1:17" s="10" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A10" s="29"/>
       <c r="B10" s="28"/>
-      <c r="C10" s="87" t="s">
+      <c r="C10" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="88"/>
-      <c r="E10" s="89" t="s">
+      <c r="D10" s="76"/>
+      <c r="E10" s="77" t="s">
         <v>20</v>
       </c>
       <c r="F10" s="37" t="s">
@@ -1779,9 +1777,9 @@
         <v>12</v>
       </c>
       <c r="B11" s="45"/>
-      <c r="C11" s="90"/>
-      <c r="D11" s="91"/>
-      <c r="E11" s="92"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="78"/>
       <c r="F11" s="40"/>
       <c r="G11" s="39"/>
       <c r="H11" s="40"/>
@@ -1806,9 +1804,9 @@
         <v>13</v>
       </c>
       <c r="B12" s="46"/>
-      <c r="C12" s="93"/>
-      <c r="D12" s="94"/>
-      <c r="E12" s="95"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="79"/>
       <c r="F12" s="42"/>
       <c r="G12" s="41"/>
       <c r="H12" s="42"/>
@@ -1833,36 +1831,36 @@
         <v>14</v>
       </c>
       <c r="B13" s="47"/>
-      <c r="C13" s="96"/>
-      <c r="D13" s="97"/>
-      <c r="E13" s="98"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="80"/>
       <c r="F13" s="44"/>
       <c r="G13" s="43"/>
       <c r="H13" s="44"/>
       <c r="I13" s="51"/>
       <c r="J13" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="K13" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="L13" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="M13" s="28" t="s">
         <v>38</v>
-      </c>
-      <c r="K13" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="L13" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="M13" s="28" t="s">
-        <v>39</v>
       </c>
       <c r="N13" s="54"/>
       <c r="O13" s="55" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q13" s="24"/>
     </row>
     <row r="14" spans="1:17" s="10" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="11"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="84"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
@@ -1963,665 +1961,656 @@
     </row>
     <row r="19" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="60"/>
-      <c r="B19" s="78"/>
-      <c r="C19" s="79"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="79"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="93"/>
       <c r="F19" s="61"/>
       <c r="G19" s="71"/>
       <c r="H19" s="57"/>
-      <c r="I19" s="80"/>
-      <c r="J19" s="79"/>
-      <c r="K19" s="78"/>
-      <c r="L19" s="80"/>
-      <c r="M19" s="79"/>
+      <c r="I19" s="92"/>
+      <c r="J19" s="93"/>
+      <c r="K19" s="98"/>
+      <c r="L19" s="92"/>
+      <c r="M19" s="93"/>
       <c r="N19" s="61"/>
       <c r="O19" s="62"/>
     </row>
     <row r="20" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="63"/>
-      <c r="B20" s="72"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="73"/>
+      <c r="B20" s="96"/>
+      <c r="C20" s="91"/>
+      <c r="D20" s="96"/>
+      <c r="E20" s="91"/>
       <c r="F20" s="64"/>
       <c r="G20" s="69"/>
       <c r="H20" s="58"/>
-      <c r="I20" s="76"/>
-      <c r="J20" s="73"/>
-      <c r="K20" s="72"/>
-      <c r="L20" s="76"/>
-      <c r="M20" s="73"/>
+      <c r="I20" s="90"/>
+      <c r="J20" s="91"/>
+      <c r="K20" s="96"/>
+      <c r="L20" s="90"/>
+      <c r="M20" s="91"/>
       <c r="N20" s="64"/>
       <c r="O20" s="65"/>
     </row>
     <row r="21" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="63"/>
-      <c r="B21" s="72"/>
-      <c r="C21" s="73"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="73"/>
+      <c r="B21" s="96"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="91"/>
       <c r="F21" s="64"/>
       <c r="G21" s="69"/>
       <c r="H21" s="58"/>
-      <c r="I21" s="76"/>
-      <c r="J21" s="73"/>
-      <c r="K21" s="72"/>
-      <c r="L21" s="76"/>
-      <c r="M21" s="73"/>
+      <c r="I21" s="90"/>
+      <c r="J21" s="91"/>
+      <c r="K21" s="96"/>
+      <c r="L21" s="90"/>
+      <c r="M21" s="91"/>
       <c r="N21" s="64"/>
       <c r="O21" s="65"/>
     </row>
     <row r="22" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="63"/>
-      <c r="B22" s="72"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="73"/>
+      <c r="B22" s="96"/>
+      <c r="C22" s="91"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="91"/>
       <c r="F22" s="64"/>
       <c r="G22" s="69"/>
       <c r="H22" s="58"/>
-      <c r="I22" s="76"/>
-      <c r="J22" s="73"/>
-      <c r="K22" s="72"/>
-      <c r="L22" s="76"/>
-      <c r="M22" s="73"/>
+      <c r="I22" s="90"/>
+      <c r="J22" s="91"/>
+      <c r="K22" s="96"/>
+      <c r="L22" s="90"/>
+      <c r="M22" s="91"/>
       <c r="N22" s="64"/>
       <c r="O22" s="65"/>
     </row>
     <row r="23" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="63"/>
-      <c r="B23" s="72"/>
-      <c r="C23" s="73"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="73"/>
+      <c r="B23" s="96"/>
+      <c r="C23" s="91"/>
+      <c r="D23" s="96"/>
+      <c r="E23" s="91"/>
       <c r="F23" s="64"/>
       <c r="G23" s="69"/>
       <c r="H23" s="58"/>
-      <c r="I23" s="76"/>
-      <c r="J23" s="73"/>
-      <c r="K23" s="72"/>
-      <c r="L23" s="76"/>
-      <c r="M23" s="73"/>
+      <c r="I23" s="90"/>
+      <c r="J23" s="91"/>
+      <c r="K23" s="96"/>
+      <c r="L23" s="90"/>
+      <c r="M23" s="91"/>
       <c r="N23" s="64"/>
       <c r="O23" s="65"/>
     </row>
     <row r="24" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="63"/>
-      <c r="B24" s="72"/>
-      <c r="C24" s="73"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="73"/>
+      <c r="B24" s="96"/>
+      <c r="C24" s="91"/>
+      <c r="D24" s="96"/>
+      <c r="E24" s="91"/>
       <c r="F24" s="64"/>
       <c r="G24" s="69"/>
       <c r="H24" s="58"/>
-      <c r="I24" s="76"/>
-      <c r="J24" s="73"/>
-      <c r="K24" s="72"/>
-      <c r="L24" s="76"/>
-      <c r="M24" s="73"/>
+      <c r="I24" s="90"/>
+      <c r="J24" s="91"/>
+      <c r="K24" s="96"/>
+      <c r="L24" s="90"/>
+      <c r="M24" s="91"/>
       <c r="N24" s="64"/>
       <c r="O24" s="65"/>
     </row>
     <row r="25" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="63"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="73"/>
+      <c r="B25" s="96"/>
+      <c r="C25" s="91"/>
+      <c r="D25" s="96"/>
+      <c r="E25" s="91"/>
       <c r="F25" s="64"/>
       <c r="G25" s="69"/>
       <c r="H25" s="58"/>
-      <c r="I25" s="76"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="72"/>
-      <c r="L25" s="76"/>
-      <c r="M25" s="73"/>
+      <c r="I25" s="90"/>
+      <c r="J25" s="91"/>
+      <c r="K25" s="96"/>
+      <c r="L25" s="90"/>
+      <c r="M25" s="91"/>
       <c r="N25" s="64"/>
       <c r="O25" s="65"/>
     </row>
     <row r="26" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="63"/>
-      <c r="B26" s="72"/>
-      <c r="C26" s="73"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="73"/>
+      <c r="B26" s="96"/>
+      <c r="C26" s="91"/>
+      <c r="D26" s="96"/>
+      <c r="E26" s="91"/>
       <c r="F26" s="64"/>
       <c r="G26" s="69"/>
       <c r="H26" s="58"/>
-      <c r="I26" s="76"/>
-      <c r="J26" s="73"/>
-      <c r="K26" s="72"/>
-      <c r="L26" s="76"/>
-      <c r="M26" s="73"/>
+      <c r="I26" s="90"/>
+      <c r="J26" s="91"/>
+      <c r="K26" s="96"/>
+      <c r="L26" s="90"/>
+      <c r="M26" s="91"/>
       <c r="N26" s="64"/>
       <c r="O26" s="65"/>
     </row>
     <row r="27" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="63"/>
-      <c r="B27" s="72"/>
-      <c r="C27" s="73"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="73"/>
+      <c r="B27" s="96"/>
+      <c r="C27" s="91"/>
+      <c r="D27" s="96"/>
+      <c r="E27" s="91"/>
       <c r="F27" s="64"/>
       <c r="G27" s="69"/>
       <c r="H27" s="58"/>
-      <c r="I27" s="76"/>
-      <c r="J27" s="73"/>
-      <c r="K27" s="72"/>
-      <c r="L27" s="76"/>
-      <c r="M27" s="73"/>
+      <c r="I27" s="90"/>
+      <c r="J27" s="91"/>
+      <c r="K27" s="96"/>
+      <c r="L27" s="90"/>
+      <c r="M27" s="91"/>
       <c r="N27" s="64"/>
       <c r="O27" s="65"/>
     </row>
     <row r="28" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="63"/>
-      <c r="B28" s="72"/>
-      <c r="C28" s="73"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="73"/>
+      <c r="B28" s="96"/>
+      <c r="C28" s="91"/>
+      <c r="D28" s="96"/>
+      <c r="E28" s="91"/>
       <c r="F28" s="64"/>
       <c r="G28" s="69"/>
       <c r="H28" s="58"/>
-      <c r="I28" s="76"/>
-      <c r="J28" s="73"/>
-      <c r="K28" s="72"/>
-      <c r="L28" s="76"/>
-      <c r="M28" s="73"/>
+      <c r="I28" s="90"/>
+      <c r="J28" s="91"/>
+      <c r="K28" s="96"/>
+      <c r="L28" s="90"/>
+      <c r="M28" s="91"/>
       <c r="N28" s="64"/>
       <c r="O28" s="65"/>
     </row>
     <row r="29" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="63"/>
-      <c r="B29" s="72"/>
-      <c r="C29" s="73"/>
-      <c r="D29" s="72"/>
-      <c r="E29" s="73"/>
+      <c r="B29" s="96"/>
+      <c r="C29" s="91"/>
+      <c r="D29" s="96"/>
+      <c r="E29" s="91"/>
       <c r="F29" s="64"/>
       <c r="G29" s="69"/>
       <c r="H29" s="58"/>
-      <c r="I29" s="76"/>
-      <c r="J29" s="73"/>
-      <c r="K29" s="72"/>
-      <c r="L29" s="76"/>
-      <c r="M29" s="73"/>
+      <c r="I29" s="90"/>
+      <c r="J29" s="91"/>
+      <c r="K29" s="96"/>
+      <c r="L29" s="90"/>
+      <c r="M29" s="91"/>
       <c r="N29" s="64"/>
       <c r="O29" s="65"/>
     </row>
     <row r="30" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="63"/>
-      <c r="B30" s="72"/>
-      <c r="C30" s="73"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="73"/>
+      <c r="B30" s="96"/>
+      <c r="C30" s="91"/>
+      <c r="D30" s="96"/>
+      <c r="E30" s="91"/>
       <c r="F30" s="64"/>
       <c r="G30" s="69"/>
       <c r="H30" s="58"/>
-      <c r="I30" s="76"/>
-      <c r="J30" s="73"/>
-      <c r="K30" s="72"/>
-      <c r="L30" s="76"/>
-      <c r="M30" s="73"/>
+      <c r="I30" s="90"/>
+      <c r="J30" s="91"/>
+      <c r="K30" s="96"/>
+      <c r="L30" s="90"/>
+      <c r="M30" s="91"/>
       <c r="N30" s="64"/>
       <c r="O30" s="65"/>
     </row>
     <row r="31" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="63"/>
-      <c r="B31" s="72"/>
-      <c r="C31" s="73"/>
-      <c r="D31" s="72"/>
-      <c r="E31" s="73"/>
+      <c r="B31" s="96"/>
+      <c r="C31" s="91"/>
+      <c r="D31" s="96"/>
+      <c r="E31" s="91"/>
       <c r="F31" s="64"/>
       <c r="G31" s="69"/>
       <c r="H31" s="58"/>
-      <c r="I31" s="76"/>
-      <c r="J31" s="73"/>
-      <c r="K31" s="72"/>
-      <c r="L31" s="76"/>
-      <c r="M31" s="73"/>
+      <c r="I31" s="90"/>
+      <c r="J31" s="91"/>
+      <c r="K31" s="96"/>
+      <c r="L31" s="90"/>
+      <c r="M31" s="91"/>
       <c r="N31" s="64"/>
       <c r="O31" s="65"/>
     </row>
     <row r="32" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="63"/>
-      <c r="B32" s="72"/>
-      <c r="C32" s="73"/>
-      <c r="D32" s="72"/>
-      <c r="E32" s="73"/>
+      <c r="B32" s="96"/>
+      <c r="C32" s="91"/>
+      <c r="D32" s="96"/>
+      <c r="E32" s="91"/>
       <c r="F32" s="64"/>
       <c r="G32" s="69"/>
       <c r="H32" s="58"/>
-      <c r="I32" s="76"/>
-      <c r="J32" s="73"/>
-      <c r="K32" s="72"/>
-      <c r="L32" s="76"/>
-      <c r="M32" s="73"/>
+      <c r="I32" s="90"/>
+      <c r="J32" s="91"/>
+      <c r="K32" s="96"/>
+      <c r="L32" s="90"/>
+      <c r="M32" s="91"/>
       <c r="N32" s="64"/>
       <c r="O32" s="65"/>
     </row>
     <row r="33" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="63"/>
-      <c r="B33" s="72"/>
-      <c r="C33" s="73"/>
-      <c r="D33" s="72"/>
-      <c r="E33" s="73"/>
+      <c r="B33" s="96"/>
+      <c r="C33" s="91"/>
+      <c r="D33" s="96"/>
+      <c r="E33" s="91"/>
       <c r="F33" s="64"/>
       <c r="G33" s="69"/>
       <c r="H33" s="58"/>
-      <c r="I33" s="76"/>
-      <c r="J33" s="73"/>
-      <c r="K33" s="72"/>
-      <c r="L33" s="76"/>
-      <c r="M33" s="73"/>
+      <c r="I33" s="90"/>
+      <c r="J33" s="91"/>
+      <c r="K33" s="96"/>
+      <c r="L33" s="90"/>
+      <c r="M33" s="91"/>
       <c r="N33" s="64"/>
       <c r="O33" s="65"/>
     </row>
     <row r="34" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="63"/>
-      <c r="B34" s="72"/>
-      <c r="C34" s="73"/>
-      <c r="D34" s="72"/>
-      <c r="E34" s="73"/>
+      <c r="B34" s="96"/>
+      <c r="C34" s="91"/>
+      <c r="D34" s="96"/>
+      <c r="E34" s="91"/>
       <c r="F34" s="64"/>
       <c r="G34" s="69"/>
       <c r="H34" s="58"/>
-      <c r="I34" s="76"/>
-      <c r="J34" s="73"/>
-      <c r="K34" s="72"/>
-      <c r="L34" s="76"/>
-      <c r="M34" s="73"/>
+      <c r="I34" s="90"/>
+      <c r="J34" s="91"/>
+      <c r="K34" s="96"/>
+      <c r="L34" s="90"/>
+      <c r="M34" s="91"/>
       <c r="N34" s="64"/>
       <c r="O34" s="65"/>
     </row>
     <row r="35" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="63"/>
-      <c r="B35" s="72"/>
-      <c r="C35" s="73"/>
-      <c r="D35" s="72"/>
-      <c r="E35" s="73"/>
+      <c r="B35" s="96"/>
+      <c r="C35" s="91"/>
+      <c r="D35" s="96"/>
+      <c r="E35" s="91"/>
       <c r="F35" s="64"/>
       <c r="G35" s="69"/>
       <c r="H35" s="58"/>
-      <c r="I35" s="76"/>
-      <c r="J35" s="73"/>
-      <c r="K35" s="72"/>
-      <c r="L35" s="76"/>
-      <c r="M35" s="73"/>
+      <c r="I35" s="90"/>
+      <c r="J35" s="91"/>
+      <c r="K35" s="96"/>
+      <c r="L35" s="90"/>
+      <c r="M35" s="91"/>
       <c r="N35" s="64"/>
       <c r="O35" s="65"/>
     </row>
     <row r="36" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="63"/>
-      <c r="B36" s="72"/>
-      <c r="C36" s="73"/>
-      <c r="D36" s="72"/>
-      <c r="E36" s="73"/>
+      <c r="B36" s="96"/>
+      <c r="C36" s="91"/>
+      <c r="D36" s="96"/>
+      <c r="E36" s="91"/>
       <c r="F36" s="64"/>
       <c r="G36" s="69"/>
       <c r="H36" s="58"/>
-      <c r="I36" s="76"/>
-      <c r="J36" s="73"/>
-      <c r="K36" s="72"/>
-      <c r="L36" s="76"/>
-      <c r="M36" s="73"/>
+      <c r="I36" s="90"/>
+      <c r="J36" s="91"/>
+      <c r="K36" s="96"/>
+      <c r="L36" s="90"/>
+      <c r="M36" s="91"/>
       <c r="N36" s="64"/>
       <c r="O36" s="65"/>
     </row>
     <row r="37" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="63"/>
-      <c r="B37" s="72"/>
-      <c r="C37" s="73"/>
-      <c r="D37" s="72"/>
-      <c r="E37" s="73"/>
+      <c r="B37" s="96"/>
+      <c r="C37" s="91"/>
+      <c r="D37" s="96"/>
+      <c r="E37" s="91"/>
       <c r="F37" s="64"/>
       <c r="G37" s="69"/>
       <c r="H37" s="58"/>
-      <c r="I37" s="76"/>
-      <c r="J37" s="73"/>
-      <c r="K37" s="72"/>
-      <c r="L37" s="76"/>
-      <c r="M37" s="73"/>
+      <c r="I37" s="90"/>
+      <c r="J37" s="91"/>
+      <c r="K37" s="96"/>
+      <c r="L37" s="90"/>
+      <c r="M37" s="91"/>
       <c r="N37" s="64"/>
       <c r="O37" s="65"/>
     </row>
     <row r="38" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="63"/>
-      <c r="B38" s="72"/>
-      <c r="C38" s="73"/>
-      <c r="D38" s="72"/>
-      <c r="E38" s="73"/>
+      <c r="B38" s="96"/>
+      <c r="C38" s="91"/>
+      <c r="D38" s="96"/>
+      <c r="E38" s="91"/>
       <c r="F38" s="64"/>
       <c r="G38" s="69"/>
       <c r="H38" s="58"/>
-      <c r="I38" s="76"/>
-      <c r="J38" s="73"/>
-      <c r="K38" s="72"/>
-      <c r="L38" s="76"/>
-      <c r="M38" s="73"/>
+      <c r="I38" s="90"/>
+      <c r="J38" s="91"/>
+      <c r="K38" s="96"/>
+      <c r="L38" s="90"/>
+      <c r="M38" s="91"/>
       <c r="N38" s="64"/>
       <c r="O38" s="65"/>
     </row>
     <row r="39" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="63"/>
-      <c r="B39" s="72"/>
-      <c r="C39" s="73"/>
-      <c r="D39" s="72"/>
-      <c r="E39" s="73"/>
+      <c r="B39" s="96"/>
+      <c r="C39" s="91"/>
+      <c r="D39" s="96"/>
+      <c r="E39" s="91"/>
       <c r="F39" s="64"/>
       <c r="G39" s="69"/>
       <c r="H39" s="58"/>
-      <c r="I39" s="76"/>
-      <c r="J39" s="73"/>
-      <c r="K39" s="72"/>
-      <c r="L39" s="76"/>
-      <c r="M39" s="73"/>
+      <c r="I39" s="90"/>
+      <c r="J39" s="91"/>
+      <c r="K39" s="96"/>
+      <c r="L39" s="90"/>
+      <c r="M39" s="91"/>
       <c r="N39" s="64"/>
       <c r="O39" s="65"/>
     </row>
     <row r="40" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="63"/>
-      <c r="B40" s="72"/>
-      <c r="C40" s="73"/>
-      <c r="D40" s="72"/>
-      <c r="E40" s="73"/>
+      <c r="B40" s="96"/>
+      <c r="C40" s="91"/>
+      <c r="D40" s="96"/>
+      <c r="E40" s="91"/>
       <c r="F40" s="64"/>
       <c r="G40" s="69"/>
       <c r="H40" s="58"/>
-      <c r="I40" s="76"/>
-      <c r="J40" s="73"/>
-      <c r="K40" s="72"/>
-      <c r="L40" s="76"/>
-      <c r="M40" s="73"/>
+      <c r="I40" s="90"/>
+      <c r="J40" s="91"/>
+      <c r="K40" s="96"/>
+      <c r="L40" s="90"/>
+      <c r="M40" s="91"/>
       <c r="N40" s="64"/>
       <c r="O40" s="65"/>
     </row>
     <row r="41" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="63"/>
-      <c r="B41" s="72"/>
-      <c r="C41" s="73"/>
-      <c r="D41" s="72"/>
-      <c r="E41" s="73"/>
+      <c r="B41" s="96"/>
+      <c r="C41" s="91"/>
+      <c r="D41" s="96"/>
+      <c r="E41" s="91"/>
       <c r="F41" s="64"/>
       <c r="G41" s="69"/>
       <c r="H41" s="58"/>
-      <c r="I41" s="76"/>
-      <c r="J41" s="73"/>
-      <c r="K41" s="72"/>
-      <c r="L41" s="76"/>
-      <c r="M41" s="73"/>
+      <c r="I41" s="90"/>
+      <c r="J41" s="91"/>
+      <c r="K41" s="96"/>
+      <c r="L41" s="90"/>
+      <c r="M41" s="91"/>
       <c r="N41" s="64"/>
       <c r="O41" s="65"/>
     </row>
     <row r="42" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="63"/>
-      <c r="B42" s="72"/>
-      <c r="C42" s="73"/>
-      <c r="D42" s="72"/>
-      <c r="E42" s="73"/>
+      <c r="B42" s="96"/>
+      <c r="C42" s="91"/>
+      <c r="D42" s="96"/>
+      <c r="E42" s="91"/>
       <c r="F42" s="64"/>
       <c r="G42" s="69"/>
       <c r="H42" s="58"/>
-      <c r="I42" s="76"/>
-      <c r="J42" s="73"/>
-      <c r="K42" s="72"/>
-      <c r="L42" s="76"/>
-      <c r="M42" s="73"/>
+      <c r="I42" s="90"/>
+      <c r="J42" s="91"/>
+      <c r="K42" s="96"/>
+      <c r="L42" s="90"/>
+      <c r="M42" s="91"/>
       <c r="N42" s="64"/>
       <c r="O42" s="65"/>
     </row>
     <row r="43" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="63"/>
-      <c r="B43" s="72"/>
-      <c r="C43" s="73"/>
-      <c r="D43" s="72"/>
-      <c r="E43" s="73"/>
+      <c r="B43" s="96"/>
+      <c r="C43" s="91"/>
+      <c r="D43" s="96"/>
+      <c r="E43" s="91"/>
       <c r="F43" s="64"/>
       <c r="G43" s="69"/>
       <c r="H43" s="58"/>
-      <c r="I43" s="76"/>
-      <c r="J43" s="73"/>
-      <c r="K43" s="72"/>
-      <c r="L43" s="76"/>
-      <c r="M43" s="73"/>
+      <c r="I43" s="90"/>
+      <c r="J43" s="91"/>
+      <c r="K43" s="96"/>
+      <c r="L43" s="90"/>
+      <c r="M43" s="91"/>
       <c r="N43" s="64"/>
       <c r="O43" s="65"/>
     </row>
     <row r="44" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="63"/>
-      <c r="B44" s="72"/>
-      <c r="C44" s="73"/>
-      <c r="D44" s="72"/>
-      <c r="E44" s="73"/>
+      <c r="B44" s="96"/>
+      <c r="C44" s="91"/>
+      <c r="D44" s="96"/>
+      <c r="E44" s="91"/>
       <c r="F44" s="64"/>
       <c r="G44" s="69"/>
       <c r="H44" s="58"/>
-      <c r="I44" s="76"/>
-      <c r="J44" s="73"/>
-      <c r="K44" s="72"/>
-      <c r="L44" s="76"/>
-      <c r="M44" s="73"/>
+      <c r="I44" s="90"/>
+      <c r="J44" s="91"/>
+      <c r="K44" s="96"/>
+      <c r="L44" s="90"/>
+      <c r="M44" s="91"/>
       <c r="N44" s="64"/>
       <c r="O44" s="65"/>
     </row>
     <row r="45" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="63"/>
-      <c r="B45" s="72"/>
-      <c r="C45" s="73"/>
-      <c r="D45" s="72"/>
-      <c r="E45" s="73"/>
+      <c r="B45" s="96"/>
+      <c r="C45" s="91"/>
+      <c r="D45" s="96"/>
+      <c r="E45" s="91"/>
       <c r="F45" s="64"/>
       <c r="G45" s="69"/>
       <c r="H45" s="58"/>
-      <c r="I45" s="76"/>
-      <c r="J45" s="73"/>
-      <c r="K45" s="72"/>
-      <c r="L45" s="76"/>
-      <c r="M45" s="73"/>
+      <c r="I45" s="90"/>
+      <c r="J45" s="91"/>
+      <c r="K45" s="96"/>
+      <c r="L45" s="90"/>
+      <c r="M45" s="91"/>
       <c r="N45" s="64"/>
       <c r="O45" s="65"/>
     </row>
     <row r="46" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="63"/>
-      <c r="B46" s="72"/>
-      <c r="C46" s="73"/>
-      <c r="D46" s="72"/>
-      <c r="E46" s="73"/>
+      <c r="B46" s="96"/>
+      <c r="C46" s="91"/>
+      <c r="D46" s="96"/>
+      <c r="E46" s="91"/>
       <c r="F46" s="64"/>
       <c r="G46" s="69"/>
       <c r="H46" s="58"/>
-      <c r="I46" s="76"/>
-      <c r="J46" s="73"/>
-      <c r="K46" s="72"/>
-      <c r="L46" s="76"/>
-      <c r="M46" s="73"/>
+      <c r="I46" s="90"/>
+      <c r="J46" s="91"/>
+      <c r="K46" s="96"/>
+      <c r="L46" s="90"/>
+      <c r="M46" s="91"/>
       <c r="N46" s="64"/>
       <c r="O46" s="65"/>
     </row>
     <row r="47" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="63"/>
-      <c r="B47" s="72"/>
-      <c r="C47" s="73"/>
-      <c r="D47" s="72"/>
-      <c r="E47" s="73"/>
+      <c r="B47" s="96"/>
+      <c r="C47" s="91"/>
+      <c r="D47" s="96"/>
+      <c r="E47" s="91"/>
       <c r="F47" s="64"/>
       <c r="G47" s="69"/>
       <c r="H47" s="58"/>
-      <c r="I47" s="76"/>
-      <c r="J47" s="73"/>
-      <c r="K47" s="72"/>
-      <c r="L47" s="76"/>
-      <c r="M47" s="73"/>
+      <c r="I47" s="90"/>
+      <c r="J47" s="91"/>
+      <c r="K47" s="96"/>
+      <c r="L47" s="90"/>
+      <c r="M47" s="91"/>
       <c r="N47" s="64"/>
       <c r="O47" s="65"/>
     </row>
     <row r="48" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="63"/>
-      <c r="B48" s="72"/>
-      <c r="C48" s="73"/>
-      <c r="D48" s="72"/>
-      <c r="E48" s="73"/>
+      <c r="B48" s="96"/>
+      <c r="C48" s="91"/>
+      <c r="D48" s="96"/>
+      <c r="E48" s="91"/>
       <c r="F48" s="64"/>
       <c r="G48" s="69"/>
       <c r="H48" s="58"/>
-      <c r="I48" s="76"/>
-      <c r="J48" s="73"/>
-      <c r="K48" s="72"/>
-      <c r="L48" s="76"/>
-      <c r="M48" s="73"/>
+      <c r="I48" s="90"/>
+      <c r="J48" s="91"/>
+      <c r="K48" s="96"/>
+      <c r="L48" s="90"/>
+      <c r="M48" s="91"/>
       <c r="N48" s="64"/>
       <c r="O48" s="65"/>
     </row>
     <row r="49" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="63"/>
-      <c r="B49" s="72"/>
-      <c r="C49" s="73"/>
-      <c r="D49" s="72"/>
-      <c r="E49" s="73"/>
+      <c r="B49" s="96"/>
+      <c r="C49" s="91"/>
+      <c r="D49" s="96"/>
+      <c r="E49" s="91"/>
       <c r="F49" s="64"/>
       <c r="G49" s="69"/>
       <c r="H49" s="58"/>
-      <c r="I49" s="76"/>
-      <c r="J49" s="73"/>
-      <c r="K49" s="72"/>
-      <c r="L49" s="76"/>
-      <c r="M49" s="73"/>
+      <c r="I49" s="90"/>
+      <c r="J49" s="91"/>
+      <c r="K49" s="96"/>
+      <c r="L49" s="90"/>
+      <c r="M49" s="91"/>
       <c r="N49" s="64"/>
       <c r="O49" s="65"/>
     </row>
     <row r="50" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="63"/>
-      <c r="B50" s="72"/>
-      <c r="C50" s="73"/>
-      <c r="D50" s="72"/>
-      <c r="E50" s="73"/>
+      <c r="B50" s="96"/>
+      <c r="C50" s="91"/>
+      <c r="D50" s="96"/>
+      <c r="E50" s="91"/>
       <c r="F50" s="64"/>
       <c r="G50" s="69"/>
       <c r="H50" s="58"/>
-      <c r="I50" s="76"/>
-      <c r="J50" s="73"/>
-      <c r="K50" s="72"/>
-      <c r="L50" s="76"/>
-      <c r="M50" s="73"/>
+      <c r="I50" s="90"/>
+      <c r="J50" s="91"/>
+      <c r="K50" s="96"/>
+      <c r="L50" s="90"/>
+      <c r="M50" s="91"/>
       <c r="N50" s="64"/>
       <c r="O50" s="65"/>
     </row>
     <row r="51" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="63"/>
-      <c r="B51" s="72"/>
-      <c r="C51" s="73"/>
-      <c r="D51" s="72"/>
-      <c r="E51" s="73"/>
+      <c r="B51" s="96"/>
+      <c r="C51" s="91"/>
+      <c r="D51" s="96"/>
+      <c r="E51" s="91"/>
       <c r="F51" s="64"/>
       <c r="G51" s="69"/>
       <c r="H51" s="58"/>
-      <c r="I51" s="76"/>
-      <c r="J51" s="73"/>
-      <c r="K51" s="72"/>
-      <c r="L51" s="76"/>
-      <c r="M51" s="73"/>
+      <c r="I51" s="90"/>
+      <c r="J51" s="91"/>
+      <c r="K51" s="96"/>
+      <c r="L51" s="90"/>
+      <c r="M51" s="91"/>
       <c r="N51" s="64"/>
       <c r="O51" s="65"/>
     </row>
     <row r="52" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="63"/>
-      <c r="B52" s="72"/>
-      <c r="C52" s="73"/>
-      <c r="D52" s="72"/>
-      <c r="E52" s="73"/>
+      <c r="B52" s="96"/>
+      <c r="C52" s="91"/>
+      <c r="D52" s="96"/>
+      <c r="E52" s="91"/>
       <c r="F52" s="64"/>
       <c r="G52" s="69"/>
       <c r="H52" s="58"/>
-      <c r="I52" s="76"/>
-      <c r="J52" s="73"/>
-      <c r="K52" s="72"/>
-      <c r="L52" s="76"/>
-      <c r="M52" s="73"/>
+      <c r="I52" s="90"/>
+      <c r="J52" s="91"/>
+      <c r="K52" s="96"/>
+      <c r="L52" s="90"/>
+      <c r="M52" s="91"/>
       <c r="N52" s="64"/>
       <c r="O52" s="65"/>
     </row>
     <row r="53" spans="1:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="66"/>
-      <c r="B53" s="74"/>
-      <c r="C53" s="75"/>
-      <c r="D53" s="74"/>
-      <c r="E53" s="75"/>
+      <c r="B53" s="97"/>
+      <c r="C53" s="95"/>
+      <c r="D53" s="97"/>
+      <c r="E53" s="95"/>
       <c r="F53" s="67"/>
       <c r="G53" s="70"/>
       <c r="H53" s="59"/>
-      <c r="I53" s="77"/>
-      <c r="J53" s="75"/>
-      <c r="K53" s="74"/>
-      <c r="L53" s="77"/>
-      <c r="M53" s="75"/>
+      <c r="I53" s="94"/>
+      <c r="J53" s="95"/>
+      <c r="K53" s="97"/>
+      <c r="L53" s="94"/>
+      <c r="M53" s="95"/>
       <c r="N53" s="67"/>
       <c r="O53" s="68"/>
     </row>
   </sheetData>
   <sheetProtection password="CDCA"/>
   <mergeCells count="146">
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="K51:M51"/>
+    <mergeCell ref="K52:M52"/>
+    <mergeCell ref="K53:M53"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="K46:M46"/>
+    <mergeCell ref="K47:M47"/>
+    <mergeCell ref="K48:M48"/>
+    <mergeCell ref="K49:M49"/>
+    <mergeCell ref="K50:M50"/>
+    <mergeCell ref="K41:M41"/>
+    <mergeCell ref="K42:M42"/>
+    <mergeCell ref="K43:M43"/>
+    <mergeCell ref="K44:M44"/>
+    <mergeCell ref="K45:M45"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="K37:M37"/>
+    <mergeCell ref="K38:M38"/>
+    <mergeCell ref="K39:M39"/>
+    <mergeCell ref="K40:M40"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="K35:M35"/>
     <mergeCell ref="B53:C53"/>
     <mergeCell ref="B49:C49"/>
     <mergeCell ref="B50:C50"/>
@@ -2646,65 +2635,74 @@
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
     <mergeCell ref="B41:C41"/>
-    <mergeCell ref="K44:M44"/>
-    <mergeCell ref="K45:M45"/>
-    <mergeCell ref="K36:M36"/>
-    <mergeCell ref="K37:M37"/>
-    <mergeCell ref="K38:M38"/>
-    <mergeCell ref="K39:M39"/>
-    <mergeCell ref="K40:M40"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="K35:M35"/>
-    <mergeCell ref="K51:M51"/>
-    <mergeCell ref="K52:M52"/>
-    <mergeCell ref="K53:M53"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="K46:M46"/>
-    <mergeCell ref="K47:M47"/>
-    <mergeCell ref="K48:M48"/>
-    <mergeCell ref="K49:M49"/>
-    <mergeCell ref="K50:M50"/>
-    <mergeCell ref="K41:M41"/>
-    <mergeCell ref="K42:M42"/>
-    <mergeCell ref="K43:M43"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="B52:C52"/>
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions verticalCentered="1"/>

--- a/lib/PHPExcel/templates/Prestart.xlsx
+++ b/lib/PHPExcel/templates/Prestart.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,6 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="9345" windowHeight="5370"/>
     <workbookView visibility="hidden" xWindow="120" yWindow="75" windowWidth="9255" windowHeight="5505"/>
   </bookViews>
   <sheets>
@@ -1119,6 +1118,33 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1144,33 +1170,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1592,8 +1591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="1">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
@@ -1672,8 +1670,8 @@
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
       <c r="F6" s="73"/>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
@@ -1682,9 +1680,9 @@
       <c r="L6" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="M6" s="81"/>
-      <c r="N6" s="81"/>
-      <c r="O6" s="81"/>
+      <c r="M6" s="90"/>
+      <c r="N6" s="90"/>
+      <c r="O6" s="90"/>
     </row>
     <row r="7" spans="1:17" s="10" customFormat="1" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="11"/>
@@ -1704,8 +1702,8 @@
       <c r="B8" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="83"/>
-      <c r="D8" s="83"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="92"/>
       <c r="E8" s="14"/>
       <c r="F8" s="26" t="s">
         <v>11</v>
@@ -1777,8 +1775,8 @@
         <v>12</v>
       </c>
       <c r="B11" s="45"/>
-      <c r="C11" s="88"/>
-      <c r="D11" s="89"/>
+      <c r="C11" s="97"/>
+      <c r="D11" s="98"/>
       <c r="E11" s="78"/>
       <c r="F11" s="40"/>
       <c r="G11" s="39"/>
@@ -1804,8 +1802,8 @@
         <v>13</v>
       </c>
       <c r="B12" s="46"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="87"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="96"/>
       <c r="E12" s="79"/>
       <c r="F12" s="42"/>
       <c r="G12" s="41"/>
@@ -1831,8 +1829,8 @@
         <v>14</v>
       </c>
       <c r="B13" s="47"/>
-      <c r="C13" s="84"/>
-      <c r="D13" s="85"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="94"/>
       <c r="E13" s="80"/>
       <c r="F13" s="44"/>
       <c r="G13" s="43"/>
@@ -1961,620 +1959,706 @@
     </row>
     <row r="19" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="60"/>
-      <c r="B19" s="98"/>
-      <c r="C19" s="93"/>
-      <c r="D19" s="98"/>
-      <c r="E19" s="93"/>
+      <c r="B19" s="87"/>
+      <c r="C19" s="88"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="88"/>
       <c r="F19" s="61"/>
       <c r="G19" s="71"/>
       <c r="H19" s="57"/>
-      <c r="I19" s="92"/>
-      <c r="J19" s="93"/>
-      <c r="K19" s="98"/>
-      <c r="L19" s="92"/>
-      <c r="M19" s="93"/>
+      <c r="I19" s="89"/>
+      <c r="J19" s="88"/>
+      <c r="K19" s="87"/>
+      <c r="L19" s="89"/>
+      <c r="M19" s="88"/>
       <c r="N19" s="61"/>
       <c r="O19" s="62"/>
     </row>
     <row r="20" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="63"/>
-      <c r="B20" s="96"/>
-      <c r="C20" s="91"/>
-      <c r="D20" s="96"/>
-      <c r="E20" s="91"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="82"/>
       <c r="F20" s="64"/>
       <c r="G20" s="69"/>
       <c r="H20" s="58"/>
-      <c r="I20" s="90"/>
-      <c r="J20" s="91"/>
-      <c r="K20" s="96"/>
-      <c r="L20" s="90"/>
-      <c r="M20" s="91"/>
+      <c r="I20" s="85"/>
+      <c r="J20" s="82"/>
+      <c r="K20" s="81"/>
+      <c r="L20" s="85"/>
+      <c r="M20" s="82"/>
       <c r="N20" s="64"/>
       <c r="O20" s="65"/>
     </row>
     <row r="21" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="63"/>
-      <c r="B21" s="96"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="96"/>
-      <c r="E21" s="91"/>
+      <c r="B21" s="81"/>
+      <c r="C21" s="82"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="82"/>
       <c r="F21" s="64"/>
       <c r="G21" s="69"/>
       <c r="H21" s="58"/>
-      <c r="I21" s="90"/>
-      <c r="J21" s="91"/>
-      <c r="K21" s="96"/>
-      <c r="L21" s="90"/>
-      <c r="M21" s="91"/>
+      <c r="I21" s="85"/>
+      <c r="J21" s="82"/>
+      <c r="K21" s="81"/>
+      <c r="L21" s="85"/>
+      <c r="M21" s="82"/>
       <c r="N21" s="64"/>
       <c r="O21" s="65"/>
     </row>
     <row r="22" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="63"/>
-      <c r="B22" s="96"/>
-      <c r="C22" s="91"/>
-      <c r="D22" s="96"/>
-      <c r="E22" s="91"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="82"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="82"/>
       <c r="F22" s="64"/>
       <c r="G22" s="69"/>
       <c r="H22" s="58"/>
-      <c r="I22" s="90"/>
-      <c r="J22" s="91"/>
-      <c r="K22" s="96"/>
-      <c r="L22" s="90"/>
-      <c r="M22" s="91"/>
+      <c r="I22" s="85"/>
+      <c r="J22" s="82"/>
+      <c r="K22" s="81"/>
+      <c r="L22" s="85"/>
+      <c r="M22" s="82"/>
       <c r="N22" s="64"/>
       <c r="O22" s="65"/>
     </row>
     <row r="23" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="63"/>
-      <c r="B23" s="96"/>
-      <c r="C23" s="91"/>
-      <c r="D23" s="96"/>
-      <c r="E23" s="91"/>
+      <c r="B23" s="81"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="82"/>
       <c r="F23" s="64"/>
       <c r="G23" s="69"/>
       <c r="H23" s="58"/>
-      <c r="I23" s="90"/>
-      <c r="J23" s="91"/>
-      <c r="K23" s="96"/>
-      <c r="L23" s="90"/>
-      <c r="M23" s="91"/>
+      <c r="I23" s="85"/>
+      <c r="J23" s="82"/>
+      <c r="K23" s="81"/>
+      <c r="L23" s="85"/>
+      <c r="M23" s="82"/>
       <c r="N23" s="64"/>
       <c r="O23" s="65"/>
     </row>
     <row r="24" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="63"/>
-      <c r="B24" s="96"/>
-      <c r="C24" s="91"/>
-      <c r="D24" s="96"/>
-      <c r="E24" s="91"/>
+      <c r="B24" s="81"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="82"/>
       <c r="F24" s="64"/>
       <c r="G24" s="69"/>
       <c r="H24" s="58"/>
-      <c r="I24" s="90"/>
-      <c r="J24" s="91"/>
-      <c r="K24" s="96"/>
-      <c r="L24" s="90"/>
-      <c r="M24" s="91"/>
+      <c r="I24" s="85"/>
+      <c r="J24" s="82"/>
+      <c r="K24" s="81"/>
+      <c r="L24" s="85"/>
+      <c r="M24" s="82"/>
       <c r="N24" s="64"/>
       <c r="O24" s="65"/>
     </row>
     <row r="25" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="63"/>
-      <c r="B25" s="96"/>
-      <c r="C25" s="91"/>
-      <c r="D25" s="96"/>
-      <c r="E25" s="91"/>
+      <c r="B25" s="81"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="82"/>
       <c r="F25" s="64"/>
       <c r="G25" s="69"/>
       <c r="H25" s="58"/>
-      <c r="I25" s="90"/>
-      <c r="J25" s="91"/>
-      <c r="K25" s="96"/>
-      <c r="L25" s="90"/>
-      <c r="M25" s="91"/>
+      <c r="I25" s="85"/>
+      <c r="J25" s="82"/>
+      <c r="K25" s="81"/>
+      <c r="L25" s="85"/>
+      <c r="M25" s="82"/>
       <c r="N25" s="64"/>
       <c r="O25" s="65"/>
     </row>
     <row r="26" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="63"/>
-      <c r="B26" s="96"/>
-      <c r="C26" s="91"/>
-      <c r="D26" s="96"/>
-      <c r="E26" s="91"/>
+      <c r="B26" s="81"/>
+      <c r="C26" s="82"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="82"/>
       <c r="F26" s="64"/>
       <c r="G26" s="69"/>
       <c r="H26" s="58"/>
-      <c r="I26" s="90"/>
-      <c r="J26" s="91"/>
-      <c r="K26" s="96"/>
-      <c r="L26" s="90"/>
-      <c r="M26" s="91"/>
+      <c r="I26" s="85"/>
+      <c r="J26" s="82"/>
+      <c r="K26" s="81"/>
+      <c r="L26" s="85"/>
+      <c r="M26" s="82"/>
       <c r="N26" s="64"/>
       <c r="O26" s="65"/>
     </row>
     <row r="27" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="63"/>
-      <c r="B27" s="96"/>
-      <c r="C27" s="91"/>
-      <c r="D27" s="96"/>
-      <c r="E27" s="91"/>
+      <c r="B27" s="81"/>
+      <c r="C27" s="82"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="82"/>
       <c r="F27" s="64"/>
       <c r="G27" s="69"/>
       <c r="H27" s="58"/>
-      <c r="I27" s="90"/>
-      <c r="J27" s="91"/>
-      <c r="K27" s="96"/>
-      <c r="L27" s="90"/>
-      <c r="M27" s="91"/>
+      <c r="I27" s="85"/>
+      <c r="J27" s="82"/>
+      <c r="K27" s="81"/>
+      <c r="L27" s="85"/>
+      <c r="M27" s="82"/>
       <c r="N27" s="64"/>
       <c r="O27" s="65"/>
     </row>
     <row r="28" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="63"/>
-      <c r="B28" s="96"/>
-      <c r="C28" s="91"/>
-      <c r="D28" s="96"/>
-      <c r="E28" s="91"/>
+      <c r="B28" s="81"/>
+      <c r="C28" s="82"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="82"/>
       <c r="F28" s="64"/>
       <c r="G28" s="69"/>
       <c r="H28" s="58"/>
-      <c r="I28" s="90"/>
-      <c r="J28" s="91"/>
-      <c r="K28" s="96"/>
-      <c r="L28" s="90"/>
-      <c r="M28" s="91"/>
+      <c r="I28" s="85"/>
+      <c r="J28" s="82"/>
+      <c r="K28" s="81"/>
+      <c r="L28" s="85"/>
+      <c r="M28" s="82"/>
       <c r="N28" s="64"/>
       <c r="O28" s="65"/>
     </row>
     <row r="29" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="63"/>
-      <c r="B29" s="96"/>
-      <c r="C29" s="91"/>
-      <c r="D29" s="96"/>
-      <c r="E29" s="91"/>
+      <c r="B29" s="81"/>
+      <c r="C29" s="82"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="82"/>
       <c r="F29" s="64"/>
       <c r="G29" s="69"/>
       <c r="H29" s="58"/>
-      <c r="I29" s="90"/>
-      <c r="J29" s="91"/>
-      <c r="K29" s="96"/>
-      <c r="L29" s="90"/>
-      <c r="M29" s="91"/>
+      <c r="I29" s="85"/>
+      <c r="J29" s="82"/>
+      <c r="K29" s="81"/>
+      <c r="L29" s="85"/>
+      <c r="M29" s="82"/>
       <c r="N29" s="64"/>
       <c r="O29" s="65"/>
     </row>
     <row r="30" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="63"/>
-      <c r="B30" s="96"/>
-      <c r="C30" s="91"/>
-      <c r="D30" s="96"/>
-      <c r="E30" s="91"/>
+      <c r="B30" s="81"/>
+      <c r="C30" s="82"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="82"/>
       <c r="F30" s="64"/>
       <c r="G30" s="69"/>
       <c r="H30" s="58"/>
-      <c r="I30" s="90"/>
-      <c r="J30" s="91"/>
-      <c r="K30" s="96"/>
-      <c r="L30" s="90"/>
-      <c r="M30" s="91"/>
+      <c r="I30" s="85"/>
+      <c r="J30" s="82"/>
+      <c r="K30" s="81"/>
+      <c r="L30" s="85"/>
+      <c r="M30" s="82"/>
       <c r="N30" s="64"/>
       <c r="O30" s="65"/>
     </row>
     <row r="31" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="63"/>
-      <c r="B31" s="96"/>
-      <c r="C31" s="91"/>
-      <c r="D31" s="96"/>
-      <c r="E31" s="91"/>
+      <c r="B31" s="81"/>
+      <c r="C31" s="82"/>
+      <c r="D31" s="81"/>
+      <c r="E31" s="82"/>
       <c r="F31" s="64"/>
       <c r="G31" s="69"/>
       <c r="H31" s="58"/>
-      <c r="I31" s="90"/>
-      <c r="J31" s="91"/>
-      <c r="K31" s="96"/>
-      <c r="L31" s="90"/>
-      <c r="M31" s="91"/>
+      <c r="I31" s="85"/>
+      <c r="J31" s="82"/>
+      <c r="K31" s="81"/>
+      <c r="L31" s="85"/>
+      <c r="M31" s="82"/>
       <c r="N31" s="64"/>
       <c r="O31" s="65"/>
     </row>
     <row r="32" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="63"/>
-      <c r="B32" s="96"/>
-      <c r="C32" s="91"/>
-      <c r="D32" s="96"/>
-      <c r="E32" s="91"/>
+      <c r="B32" s="81"/>
+      <c r="C32" s="82"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="82"/>
       <c r="F32" s="64"/>
       <c r="G32" s="69"/>
       <c r="H32" s="58"/>
-      <c r="I32" s="90"/>
-      <c r="J32" s="91"/>
-      <c r="K32" s="96"/>
-      <c r="L32" s="90"/>
-      <c r="M32" s="91"/>
+      <c r="I32" s="85"/>
+      <c r="J32" s="82"/>
+      <c r="K32" s="81"/>
+      <c r="L32" s="85"/>
+      <c r="M32" s="82"/>
       <c r="N32" s="64"/>
       <c r="O32" s="65"/>
     </row>
     <row r="33" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="63"/>
-      <c r="B33" s="96"/>
-      <c r="C33" s="91"/>
-      <c r="D33" s="96"/>
-      <c r="E33" s="91"/>
+      <c r="B33" s="81"/>
+      <c r="C33" s="82"/>
+      <c r="D33" s="81"/>
+      <c r="E33" s="82"/>
       <c r="F33" s="64"/>
       <c r="G33" s="69"/>
       <c r="H33" s="58"/>
-      <c r="I33" s="90"/>
-      <c r="J33" s="91"/>
-      <c r="K33" s="96"/>
-      <c r="L33" s="90"/>
-      <c r="M33" s="91"/>
+      <c r="I33" s="85"/>
+      <c r="J33" s="82"/>
+      <c r="K33" s="81"/>
+      <c r="L33" s="85"/>
+      <c r="M33" s="82"/>
       <c r="N33" s="64"/>
       <c r="O33" s="65"/>
     </row>
     <row r="34" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="63"/>
-      <c r="B34" s="96"/>
-      <c r="C34" s="91"/>
-      <c r="D34" s="96"/>
-      <c r="E34" s="91"/>
+      <c r="B34" s="81"/>
+      <c r="C34" s="82"/>
+      <c r="D34" s="81"/>
+      <c r="E34" s="82"/>
       <c r="F34" s="64"/>
       <c r="G34" s="69"/>
       <c r="H34" s="58"/>
-      <c r="I34" s="90"/>
-      <c r="J34" s="91"/>
-      <c r="K34" s="96"/>
-      <c r="L34" s="90"/>
-      <c r="M34" s="91"/>
+      <c r="I34" s="85"/>
+      <c r="J34" s="82"/>
+      <c r="K34" s="81"/>
+      <c r="L34" s="85"/>
+      <c r="M34" s="82"/>
       <c r="N34" s="64"/>
       <c r="O34" s="65"/>
     </row>
     <row r="35" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="63"/>
-      <c r="B35" s="96"/>
-      <c r="C35" s="91"/>
-      <c r="D35" s="96"/>
-      <c r="E35" s="91"/>
+      <c r="B35" s="81"/>
+      <c r="C35" s="82"/>
+      <c r="D35" s="81"/>
+      <c r="E35" s="82"/>
       <c r="F35" s="64"/>
       <c r="G35" s="69"/>
       <c r="H35" s="58"/>
-      <c r="I35" s="90"/>
-      <c r="J35" s="91"/>
-      <c r="K35" s="96"/>
-      <c r="L35" s="90"/>
-      <c r="M35" s="91"/>
+      <c r="I35" s="85"/>
+      <c r="J35" s="82"/>
+      <c r="K35" s="81"/>
+      <c r="L35" s="85"/>
+      <c r="M35" s="82"/>
       <c r="N35" s="64"/>
       <c r="O35" s="65"/>
     </row>
     <row r="36" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="63"/>
-      <c r="B36" s="96"/>
-      <c r="C36" s="91"/>
-      <c r="D36" s="96"/>
-      <c r="E36" s="91"/>
+      <c r="B36" s="81"/>
+      <c r="C36" s="82"/>
+      <c r="D36" s="81"/>
+      <c r="E36" s="82"/>
       <c r="F36" s="64"/>
       <c r="G36" s="69"/>
       <c r="H36" s="58"/>
-      <c r="I36" s="90"/>
-      <c r="J36" s="91"/>
-      <c r="K36" s="96"/>
-      <c r="L36" s="90"/>
-      <c r="M36" s="91"/>
+      <c r="I36" s="85"/>
+      <c r="J36" s="82"/>
+      <c r="K36" s="81"/>
+      <c r="L36" s="85"/>
+      <c r="M36" s="82"/>
       <c r="N36" s="64"/>
       <c r="O36" s="65"/>
     </row>
     <row r="37" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="63"/>
-      <c r="B37" s="96"/>
-      <c r="C37" s="91"/>
-      <c r="D37" s="96"/>
-      <c r="E37" s="91"/>
+      <c r="B37" s="81"/>
+      <c r="C37" s="82"/>
+      <c r="D37" s="81"/>
+      <c r="E37" s="82"/>
       <c r="F37" s="64"/>
       <c r="G37" s="69"/>
       <c r="H37" s="58"/>
-      <c r="I37" s="90"/>
-      <c r="J37" s="91"/>
-      <c r="K37" s="96"/>
-      <c r="L37" s="90"/>
-      <c r="M37" s="91"/>
+      <c r="I37" s="85"/>
+      <c r="J37" s="82"/>
+      <c r="K37" s="81"/>
+      <c r="L37" s="85"/>
+      <c r="M37" s="82"/>
       <c r="N37" s="64"/>
       <c r="O37" s="65"/>
     </row>
     <row r="38" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="63"/>
-      <c r="B38" s="96"/>
-      <c r="C38" s="91"/>
-      <c r="D38" s="96"/>
-      <c r="E38" s="91"/>
+      <c r="B38" s="81"/>
+      <c r="C38" s="82"/>
+      <c r="D38" s="81"/>
+      <c r="E38" s="82"/>
       <c r="F38" s="64"/>
       <c r="G38" s="69"/>
       <c r="H38" s="58"/>
-      <c r="I38" s="90"/>
-      <c r="J38" s="91"/>
-      <c r="K38" s="96"/>
-      <c r="L38" s="90"/>
-      <c r="M38" s="91"/>
+      <c r="I38" s="85"/>
+      <c r="J38" s="82"/>
+      <c r="K38" s="81"/>
+      <c r="L38" s="85"/>
+      <c r="M38" s="82"/>
       <c r="N38" s="64"/>
       <c r="O38" s="65"/>
     </row>
     <row r="39" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="63"/>
-      <c r="B39" s="96"/>
-      <c r="C39" s="91"/>
-      <c r="D39" s="96"/>
-      <c r="E39" s="91"/>
+      <c r="B39" s="81"/>
+      <c r="C39" s="82"/>
+      <c r="D39" s="81"/>
+      <c r="E39" s="82"/>
       <c r="F39" s="64"/>
       <c r="G39" s="69"/>
       <c r="H39" s="58"/>
-      <c r="I39" s="90"/>
-      <c r="J39" s="91"/>
-      <c r="K39" s="96"/>
-      <c r="L39" s="90"/>
-      <c r="M39" s="91"/>
+      <c r="I39" s="85"/>
+      <c r="J39" s="82"/>
+      <c r="K39" s="81"/>
+      <c r="L39" s="85"/>
+      <c r="M39" s="82"/>
       <c r="N39" s="64"/>
       <c r="O39" s="65"/>
     </row>
     <row r="40" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="63"/>
-      <c r="B40" s="96"/>
-      <c r="C40" s="91"/>
-      <c r="D40" s="96"/>
-      <c r="E40" s="91"/>
+      <c r="B40" s="81"/>
+      <c r="C40" s="82"/>
+      <c r="D40" s="81"/>
+      <c r="E40" s="82"/>
       <c r="F40" s="64"/>
       <c r="G40" s="69"/>
       <c r="H40" s="58"/>
-      <c r="I40" s="90"/>
-      <c r="J40" s="91"/>
-      <c r="K40" s="96"/>
-      <c r="L40" s="90"/>
-      <c r="M40" s="91"/>
+      <c r="I40" s="85"/>
+      <c r="J40" s="82"/>
+      <c r="K40" s="81"/>
+      <c r="L40" s="85"/>
+      <c r="M40" s="82"/>
       <c r="N40" s="64"/>
       <c r="O40" s="65"/>
     </row>
     <row r="41" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="63"/>
-      <c r="B41" s="96"/>
-      <c r="C41" s="91"/>
-      <c r="D41" s="96"/>
-      <c r="E41" s="91"/>
+      <c r="B41" s="81"/>
+      <c r="C41" s="82"/>
+      <c r="D41" s="81"/>
+      <c r="E41" s="82"/>
       <c r="F41" s="64"/>
       <c r="G41" s="69"/>
       <c r="H41" s="58"/>
-      <c r="I41" s="90"/>
-      <c r="J41" s="91"/>
-      <c r="K41" s="96"/>
-      <c r="L41" s="90"/>
-      <c r="M41" s="91"/>
+      <c r="I41" s="85"/>
+      <c r="J41" s="82"/>
+      <c r="K41" s="81"/>
+      <c r="L41" s="85"/>
+      <c r="M41" s="82"/>
       <c r="N41" s="64"/>
       <c r="O41" s="65"/>
     </row>
     <row r="42" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="63"/>
-      <c r="B42" s="96"/>
-      <c r="C42" s="91"/>
-      <c r="D42" s="96"/>
-      <c r="E42" s="91"/>
+      <c r="B42" s="81"/>
+      <c r="C42" s="82"/>
+      <c r="D42" s="81"/>
+      <c r="E42" s="82"/>
       <c r="F42" s="64"/>
       <c r="G42" s="69"/>
       <c r="H42" s="58"/>
-      <c r="I42" s="90"/>
-      <c r="J42" s="91"/>
-      <c r="K42" s="96"/>
-      <c r="L42" s="90"/>
-      <c r="M42" s="91"/>
+      <c r="I42" s="85"/>
+      <c r="J42" s="82"/>
+      <c r="K42" s="81"/>
+      <c r="L42" s="85"/>
+      <c r="M42" s="82"/>
       <c r="N42" s="64"/>
       <c r="O42" s="65"/>
     </row>
     <row r="43" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="63"/>
-      <c r="B43" s="96"/>
-      <c r="C43" s="91"/>
-      <c r="D43" s="96"/>
-      <c r="E43" s="91"/>
+      <c r="B43" s="81"/>
+      <c r="C43" s="82"/>
+      <c r="D43" s="81"/>
+      <c r="E43" s="82"/>
       <c r="F43" s="64"/>
       <c r="G43" s="69"/>
       <c r="H43" s="58"/>
-      <c r="I43" s="90"/>
-      <c r="J43" s="91"/>
-      <c r="K43" s="96"/>
-      <c r="L43" s="90"/>
-      <c r="M43" s="91"/>
+      <c r="I43" s="85"/>
+      <c r="J43" s="82"/>
+      <c r="K43" s="81"/>
+      <c r="L43" s="85"/>
+      <c r="M43" s="82"/>
       <c r="N43" s="64"/>
       <c r="O43" s="65"/>
     </row>
     <row r="44" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="63"/>
-      <c r="B44" s="96"/>
-      <c r="C44" s="91"/>
-      <c r="D44" s="96"/>
-      <c r="E44" s="91"/>
+      <c r="B44" s="81"/>
+      <c r="C44" s="82"/>
+      <c r="D44" s="81"/>
+      <c r="E44" s="82"/>
       <c r="F44" s="64"/>
       <c r="G44" s="69"/>
       <c r="H44" s="58"/>
-      <c r="I44" s="90"/>
-      <c r="J44" s="91"/>
-      <c r="K44" s="96"/>
-      <c r="L44" s="90"/>
-      <c r="M44" s="91"/>
+      <c r="I44" s="85"/>
+      <c r="J44" s="82"/>
+      <c r="K44" s="81"/>
+      <c r="L44" s="85"/>
+      <c r="M44" s="82"/>
       <c r="N44" s="64"/>
       <c r="O44" s="65"/>
     </row>
     <row r="45" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="63"/>
-      <c r="B45" s="96"/>
-      <c r="C45" s="91"/>
-      <c r="D45" s="96"/>
-      <c r="E45" s="91"/>
+      <c r="B45" s="81"/>
+      <c r="C45" s="82"/>
+      <c r="D45" s="81"/>
+      <c r="E45" s="82"/>
       <c r="F45" s="64"/>
       <c r="G45" s="69"/>
       <c r="H45" s="58"/>
-      <c r="I45" s="90"/>
-      <c r="J45" s="91"/>
-      <c r="K45" s="96"/>
-      <c r="L45" s="90"/>
-      <c r="M45" s="91"/>
+      <c r="I45" s="85"/>
+      <c r="J45" s="82"/>
+      <c r="K45" s="81"/>
+      <c r="L45" s="85"/>
+      <c r="M45" s="82"/>
       <c r="N45" s="64"/>
       <c r="O45" s="65"/>
     </row>
     <row r="46" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="63"/>
-      <c r="B46" s="96"/>
-      <c r="C46" s="91"/>
-      <c r="D46" s="96"/>
-      <c r="E46" s="91"/>
+      <c r="B46" s="81"/>
+      <c r="C46" s="82"/>
+      <c r="D46" s="81"/>
+      <c r="E46" s="82"/>
       <c r="F46" s="64"/>
       <c r="G46" s="69"/>
       <c r="H46" s="58"/>
-      <c r="I46" s="90"/>
-      <c r="J46" s="91"/>
-      <c r="K46" s="96"/>
-      <c r="L46" s="90"/>
-      <c r="M46" s="91"/>
+      <c r="I46" s="85"/>
+      <c r="J46" s="82"/>
+      <c r="K46" s="81"/>
+      <c r="L46" s="85"/>
+      <c r="M46" s="82"/>
       <c r="N46" s="64"/>
       <c r="O46" s="65"/>
     </row>
     <row r="47" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="63"/>
-      <c r="B47" s="96"/>
-      <c r="C47" s="91"/>
-      <c r="D47" s="96"/>
-      <c r="E47" s="91"/>
+      <c r="B47" s="81"/>
+      <c r="C47" s="82"/>
+      <c r="D47" s="81"/>
+      <c r="E47" s="82"/>
       <c r="F47" s="64"/>
       <c r="G47" s="69"/>
       <c r="H47" s="58"/>
-      <c r="I47" s="90"/>
-      <c r="J47" s="91"/>
-      <c r="K47" s="96"/>
-      <c r="L47" s="90"/>
-      <c r="M47" s="91"/>
+      <c r="I47" s="85"/>
+      <c r="J47" s="82"/>
+      <c r="K47" s="81"/>
+      <c r="L47" s="85"/>
+      <c r="M47" s="82"/>
       <c r="N47" s="64"/>
       <c r="O47" s="65"/>
     </row>
     <row r="48" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="63"/>
-      <c r="B48" s="96"/>
-      <c r="C48" s="91"/>
-      <c r="D48" s="96"/>
-      <c r="E48" s="91"/>
+      <c r="B48" s="81"/>
+      <c r="C48" s="82"/>
+      <c r="D48" s="81"/>
+      <c r="E48" s="82"/>
       <c r="F48" s="64"/>
       <c r="G48" s="69"/>
       <c r="H48" s="58"/>
-      <c r="I48" s="90"/>
-      <c r="J48" s="91"/>
-      <c r="K48" s="96"/>
-      <c r="L48" s="90"/>
-      <c r="M48" s="91"/>
+      <c r="I48" s="85"/>
+      <c r="J48" s="82"/>
+      <c r="K48" s="81"/>
+      <c r="L48" s="85"/>
+      <c r="M48" s="82"/>
       <c r="N48" s="64"/>
       <c r="O48" s="65"/>
     </row>
     <row r="49" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="63"/>
-      <c r="B49" s="96"/>
-      <c r="C49" s="91"/>
-      <c r="D49" s="96"/>
-      <c r="E49" s="91"/>
+      <c r="B49" s="81"/>
+      <c r="C49" s="82"/>
+      <c r="D49" s="81"/>
+      <c r="E49" s="82"/>
       <c r="F49" s="64"/>
       <c r="G49" s="69"/>
       <c r="H49" s="58"/>
-      <c r="I49" s="90"/>
-      <c r="J49" s="91"/>
-      <c r="K49" s="96"/>
-      <c r="L49" s="90"/>
-      <c r="M49" s="91"/>
+      <c r="I49" s="85"/>
+      <c r="J49" s="82"/>
+      <c r="K49" s="81"/>
+      <c r="L49" s="85"/>
+      <c r="M49" s="82"/>
       <c r="N49" s="64"/>
       <c r="O49" s="65"/>
     </row>
     <row r="50" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="63"/>
-      <c r="B50" s="96"/>
-      <c r="C50" s="91"/>
-      <c r="D50" s="96"/>
-      <c r="E50" s="91"/>
+      <c r="B50" s="81"/>
+      <c r="C50" s="82"/>
+      <c r="D50" s="81"/>
+      <c r="E50" s="82"/>
       <c r="F50" s="64"/>
       <c r="G50" s="69"/>
       <c r="H50" s="58"/>
-      <c r="I50" s="90"/>
-      <c r="J50" s="91"/>
-      <c r="K50" s="96"/>
-      <c r="L50" s="90"/>
-      <c r="M50" s="91"/>
+      <c r="I50" s="85"/>
+      <c r="J50" s="82"/>
+      <c r="K50" s="81"/>
+      <c r="L50" s="85"/>
+      <c r="M50" s="82"/>
       <c r="N50" s="64"/>
       <c r="O50" s="65"/>
     </row>
     <row r="51" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="63"/>
-      <c r="B51" s="96"/>
-      <c r="C51" s="91"/>
-      <c r="D51" s="96"/>
-      <c r="E51" s="91"/>
+      <c r="B51" s="81"/>
+      <c r="C51" s="82"/>
+      <c r="D51" s="81"/>
+      <c r="E51" s="82"/>
       <c r="F51" s="64"/>
       <c r="G51" s="69"/>
       <c r="H51" s="58"/>
-      <c r="I51" s="90"/>
-      <c r="J51" s="91"/>
-      <c r="K51" s="96"/>
-      <c r="L51" s="90"/>
-      <c r="M51" s="91"/>
+      <c r="I51" s="85"/>
+      <c r="J51" s="82"/>
+      <c r="K51" s="81"/>
+      <c r="L51" s="85"/>
+      <c r="M51" s="82"/>
       <c r="N51" s="64"/>
       <c r="O51" s="65"/>
     </row>
     <row r="52" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="63"/>
-      <c r="B52" s="96"/>
-      <c r="C52" s="91"/>
-      <c r="D52" s="96"/>
-      <c r="E52" s="91"/>
+      <c r="B52" s="81"/>
+      <c r="C52" s="82"/>
+      <c r="D52" s="81"/>
+      <c r="E52" s="82"/>
       <c r="F52" s="64"/>
       <c r="G52" s="69"/>
       <c r="H52" s="58"/>
-      <c r="I52" s="90"/>
-      <c r="J52" s="91"/>
-      <c r="K52" s="96"/>
-      <c r="L52" s="90"/>
-      <c r="M52" s="91"/>
+      <c r="I52" s="85"/>
+      <c r="J52" s="82"/>
+      <c r="K52" s="81"/>
+      <c r="L52" s="85"/>
+      <c r="M52" s="82"/>
       <c r="N52" s="64"/>
       <c r="O52" s="65"/>
     </row>
     <row r="53" spans="1:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="66"/>
-      <c r="B53" s="97"/>
-      <c r="C53" s="95"/>
-      <c r="D53" s="97"/>
-      <c r="E53" s="95"/>
+      <c r="B53" s="83"/>
+      <c r="C53" s="84"/>
+      <c r="D53" s="83"/>
+      <c r="E53" s="84"/>
       <c r="F53" s="67"/>
       <c r="G53" s="70"/>
       <c r="H53" s="59"/>
-      <c r="I53" s="94"/>
-      <c r="J53" s="95"/>
-      <c r="K53" s="97"/>
-      <c r="L53" s="94"/>
-      <c r="M53" s="95"/>
+      <c r="I53" s="86"/>
+      <c r="J53" s="84"/>
+      <c r="K53" s="83"/>
+      <c r="L53" s="86"/>
+      <c r="M53" s="84"/>
       <c r="N53" s="67"/>
       <c r="O53" s="68"/>
     </row>
   </sheetData>
   <sheetProtection password="CDCA"/>
   <mergeCells count="146">
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="K44:M44"/>
+    <mergeCell ref="K45:M45"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="K37:M37"/>
+    <mergeCell ref="K38:M38"/>
+    <mergeCell ref="K39:M39"/>
+    <mergeCell ref="K40:M40"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="K35:M35"/>
     <mergeCell ref="K51:M51"/>
     <mergeCell ref="K52:M52"/>
     <mergeCell ref="K53:M53"/>
@@ -2599,110 +2683,24 @@
     <mergeCell ref="K41:M41"/>
     <mergeCell ref="K42:M42"/>
     <mergeCell ref="K43:M43"/>
-    <mergeCell ref="K44:M44"/>
-    <mergeCell ref="K45:M45"/>
-    <mergeCell ref="K36:M36"/>
-    <mergeCell ref="K37:M37"/>
-    <mergeCell ref="K38:M38"/>
-    <mergeCell ref="K39:M39"/>
-    <mergeCell ref="K40:M40"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="K35:M35"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="K25:M25"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions verticalCentered="1"/>

--- a/lib/PHPExcel/templates/Prestart.xlsx
+++ b/lib/PHPExcel/templates/Prestart.xlsx
@@ -1,28 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18625"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\GPM\www\GPM\lib\PHPExcel\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="hidden" xWindow="120" yWindow="75" windowWidth="9255" windowHeight="5505"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="9255" windowHeight="5505" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name=" " sheetId="1" r:id="rId1"/>
+    <sheet name="DAILYCHECK OLD" sheetId="1" r:id="rId1"/>
+    <sheet name="DAILYCHECK" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">' '!$A$1:$O$53</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">DAILYCHECK!$A$1:$R$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'DAILYCHECK OLD'!$A$1:$O$53</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="60">
   <si>
     <t>Machine No:</t>
   </si>
@@ -145,13 +147,119 @@
   </si>
   <si>
     <t>Doc Revision : 12Jul2017</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF223962"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Prestart Checklist + Daily Checks</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFA5A5A5"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Checklist Préparation + Vérifications Journalières Des Essais</t>
+    </r>
+  </si>
+  <si>
+    <t>Job</t>
+  </si>
+  <si>
+    <t>Frame</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF8E98A5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Date </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="6"/>
+        <color rgb="FF8E98A5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(YYYY-MM-DD)</t>
+    </r>
+  </si>
+  <si>
+    <t>Load Cell</t>
+  </si>
+  <si>
+    <t>Shunt Cal (V)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Station Manager</t>
+  </si>
+  <si>
+    <t>Technician</t>
+  </si>
+  <si>
+    <t>Calibration</t>
+  </si>
+  <si>
+    <t>&lt;- (report to QM/LM if &gt; 0.5%)</t>
+  </si>
+  <si>
+    <t>Extensometer</t>
+  </si>
+  <si>
+    <t>Heating</t>
+  </si>
+  <si>
+    <t>Temp. Line</t>
+  </si>
+  <si>
+    <t>Test N°</t>
+  </si>
+  <si>
+    <t>Specimen ID</t>
+  </si>
+  <si>
+    <t>Tech.</t>
+  </si>
+  <si>
+    <t>PiD Check</t>
+  </si>
+  <si>
+    <t>(?????)</t>
+  </si>
+  <si>
+    <t>CHECKLIST - 13350-1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="MS Sans Serif"/>
@@ -211,14 +319,116 @@
       <name val="Segoe UI Emoji"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="MS Sans Serif"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF223962"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF223962"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF223962"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFA5A5A5"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF8E98A5"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF8E98A5"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="6"/>
+      <color rgb="FF8E98A5"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF223962"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="3" tint="-0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="3" tint="-0.499984740745262"/>
+      <name val="Wingdings"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FF8E98A5"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF203764"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="53">
     <border>
@@ -923,10 +1133,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
@@ -1118,63 +1330,144 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" shrinkToFit="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1268,6 +1561,95 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="742950" cy="762000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BC06435-429F-4918-A179-5B2F63300B44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="314325"/>
+          <a:ext cx="742950" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>57977</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="381811" cy="1938130"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Image 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AECD9FF6-3D0A-4ACE-8190-077059D4D43A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6733760" y="0"/>
+          <a:ext cx="381811" cy="1938130"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
@@ -1279,34 +1661,34 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
@@ -1591,8 +1973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49:E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -1670,8 +2052,8 @@
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="91"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
       <c r="F6" s="73"/>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
@@ -1680,9 +2062,9 @@
       <c r="L6" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="M6" s="90"/>
-      <c r="N6" s="90"/>
-      <c r="O6" s="90"/>
+      <c r="M6" s="81"/>
+      <c r="N6" s="81"/>
+      <c r="O6" s="81"/>
     </row>
     <row r="7" spans="1:17" s="10" customFormat="1" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="11"/>
@@ -1702,8 +2084,8 @@
       <c r="B8" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="92"/>
-      <c r="D8" s="92"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="83"/>
       <c r="E8" s="14"/>
       <c r="F8" s="26" t="s">
         <v>11</v>
@@ -1775,8 +2157,8 @@
         <v>12</v>
       </c>
       <c r="B11" s="45"/>
-      <c r="C11" s="97"/>
-      <c r="D11" s="98"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="89"/>
       <c r="E11" s="78"/>
       <c r="F11" s="40"/>
       <c r="G11" s="39"/>
@@ -1802,8 +2184,8 @@
         <v>13</v>
       </c>
       <c r="B12" s="46"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="96"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="87"/>
       <c r="E12" s="79"/>
       <c r="F12" s="42"/>
       <c r="G12" s="41"/>
@@ -1829,8 +2211,8 @@
         <v>14</v>
       </c>
       <c r="B13" s="47"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="94"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="85"/>
       <c r="E13" s="80"/>
       <c r="F13" s="44"/>
       <c r="G13" s="43"/>
@@ -1959,670 +2341,651 @@
     </row>
     <row r="19" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="60"/>
-      <c r="B19" s="87"/>
-      <c r="C19" s="88"/>
-      <c r="D19" s="87"/>
-      <c r="E19" s="88"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="94"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="94"/>
       <c r="F19" s="61"/>
       <c r="G19" s="71"/>
       <c r="H19" s="57"/>
-      <c r="I19" s="89"/>
-      <c r="J19" s="88"/>
-      <c r="K19" s="87"/>
-      <c r="L19" s="89"/>
-      <c r="M19" s="88"/>
+      <c r="I19" s="93"/>
+      <c r="J19" s="94"/>
+      <c r="K19" s="98"/>
+      <c r="L19" s="93"/>
+      <c r="M19" s="94"/>
       <c r="N19" s="61"/>
       <c r="O19" s="62"/>
     </row>
     <row r="20" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="63"/>
-      <c r="B20" s="81"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="81"/>
-      <c r="E20" s="82"/>
+      <c r="B20" s="92"/>
+      <c r="C20" s="91"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="91"/>
       <c r="F20" s="64"/>
       <c r="G20" s="69"/>
       <c r="H20" s="58"/>
-      <c r="I20" s="85"/>
-      <c r="J20" s="82"/>
-      <c r="K20" s="81"/>
-      <c r="L20" s="85"/>
-      <c r="M20" s="82"/>
+      <c r="I20" s="90"/>
+      <c r="J20" s="91"/>
+      <c r="K20" s="92"/>
+      <c r="L20" s="90"/>
+      <c r="M20" s="91"/>
       <c r="N20" s="64"/>
       <c r="O20" s="65"/>
     </row>
     <row r="21" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="63"/>
-      <c r="B21" s="81"/>
-      <c r="C21" s="82"/>
-      <c r="D21" s="81"/>
-      <c r="E21" s="82"/>
+      <c r="B21" s="92"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="91"/>
       <c r="F21" s="64"/>
       <c r="G21" s="69"/>
       <c r="H21" s="58"/>
-      <c r="I21" s="85"/>
-      <c r="J21" s="82"/>
-      <c r="K21" s="81"/>
-      <c r="L21" s="85"/>
-      <c r="M21" s="82"/>
+      <c r="I21" s="90"/>
+      <c r="J21" s="91"/>
+      <c r="K21" s="92"/>
+      <c r="L21" s="90"/>
+      <c r="M21" s="91"/>
       <c r="N21" s="64"/>
       <c r="O21" s="65"/>
     </row>
     <row r="22" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="63"/>
-      <c r="B22" s="81"/>
-      <c r="C22" s="82"/>
-      <c r="D22" s="81"/>
-      <c r="E22" s="82"/>
+      <c r="B22" s="92"/>
+      <c r="C22" s="91"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="91"/>
       <c r="F22" s="64"/>
       <c r="G22" s="69"/>
       <c r="H22" s="58"/>
-      <c r="I22" s="85"/>
-      <c r="J22" s="82"/>
-      <c r="K22" s="81"/>
-      <c r="L22" s="85"/>
-      <c r="M22" s="82"/>
+      <c r="I22" s="90"/>
+      <c r="J22" s="91"/>
+      <c r="K22" s="92"/>
+      <c r="L22" s="90"/>
+      <c r="M22" s="91"/>
       <c r="N22" s="64"/>
       <c r="O22" s="65"/>
     </row>
     <row r="23" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="63"/>
-      <c r="B23" s="81"/>
-      <c r="C23" s="82"/>
-      <c r="D23" s="81"/>
-      <c r="E23" s="82"/>
+      <c r="B23" s="92"/>
+      <c r="C23" s="91"/>
+      <c r="D23" s="92"/>
+      <c r="E23" s="91"/>
       <c r="F23" s="64"/>
       <c r="G23" s="69"/>
       <c r="H23" s="58"/>
-      <c r="I23" s="85"/>
-      <c r="J23" s="82"/>
-      <c r="K23" s="81"/>
-      <c r="L23" s="85"/>
-      <c r="M23" s="82"/>
+      <c r="I23" s="90"/>
+      <c r="J23" s="91"/>
+      <c r="K23" s="92"/>
+      <c r="L23" s="90"/>
+      <c r="M23" s="91"/>
       <c r="N23" s="64"/>
       <c r="O23" s="65"/>
     </row>
     <row r="24" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="63"/>
-      <c r="B24" s="81"/>
-      <c r="C24" s="82"/>
-      <c r="D24" s="81"/>
-      <c r="E24" s="82"/>
+      <c r="B24" s="92"/>
+      <c r="C24" s="91"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="91"/>
       <c r="F24" s="64"/>
       <c r="G24" s="69"/>
       <c r="H24" s="58"/>
-      <c r="I24" s="85"/>
-      <c r="J24" s="82"/>
-      <c r="K24" s="81"/>
-      <c r="L24" s="85"/>
-      <c r="M24" s="82"/>
+      <c r="I24" s="90"/>
+      <c r="J24" s="91"/>
+      <c r="K24" s="92"/>
+      <c r="L24" s="90"/>
+      <c r="M24" s="91"/>
       <c r="N24" s="64"/>
       <c r="O24" s="65"/>
     </row>
     <row r="25" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="63"/>
-      <c r="B25" s="81"/>
-      <c r="C25" s="82"/>
-      <c r="D25" s="81"/>
-      <c r="E25" s="82"/>
+      <c r="B25" s="92"/>
+      <c r="C25" s="91"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="91"/>
       <c r="F25" s="64"/>
       <c r="G25" s="69"/>
       <c r="H25" s="58"/>
-      <c r="I25" s="85"/>
-      <c r="J25" s="82"/>
-      <c r="K25" s="81"/>
-      <c r="L25" s="85"/>
-      <c r="M25" s="82"/>
+      <c r="I25" s="90"/>
+      <c r="J25" s="91"/>
+      <c r="K25" s="92"/>
+      <c r="L25" s="90"/>
+      <c r="M25" s="91"/>
       <c r="N25" s="64"/>
       <c r="O25" s="65"/>
     </row>
     <row r="26" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="63"/>
-      <c r="B26" s="81"/>
-      <c r="C26" s="82"/>
-      <c r="D26" s="81"/>
-      <c r="E26" s="82"/>
+      <c r="B26" s="92"/>
+      <c r="C26" s="91"/>
+      <c r="D26" s="92"/>
+      <c r="E26" s="91"/>
       <c r="F26" s="64"/>
       <c r="G26" s="69"/>
       <c r="H26" s="58"/>
-      <c r="I26" s="85"/>
-      <c r="J26" s="82"/>
-      <c r="K26" s="81"/>
-      <c r="L26" s="85"/>
-      <c r="M26" s="82"/>
+      <c r="I26" s="90"/>
+      <c r="J26" s="91"/>
+      <c r="K26" s="92"/>
+      <c r="L26" s="90"/>
+      <c r="M26" s="91"/>
       <c r="N26" s="64"/>
       <c r="O26" s="65"/>
     </row>
     <row r="27" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="63"/>
-      <c r="B27" s="81"/>
-      <c r="C27" s="82"/>
-      <c r="D27" s="81"/>
-      <c r="E27" s="82"/>
+      <c r="B27" s="92"/>
+      <c r="C27" s="91"/>
+      <c r="D27" s="92"/>
+      <c r="E27" s="91"/>
       <c r="F27" s="64"/>
       <c r="G27" s="69"/>
       <c r="H27" s="58"/>
-      <c r="I27" s="85"/>
-      <c r="J27" s="82"/>
-      <c r="K27" s="81"/>
-      <c r="L27" s="85"/>
-      <c r="M27" s="82"/>
+      <c r="I27" s="90"/>
+      <c r="J27" s="91"/>
+      <c r="K27" s="92"/>
+      <c r="L27" s="90"/>
+      <c r="M27" s="91"/>
       <c r="N27" s="64"/>
       <c r="O27" s="65"/>
     </row>
     <row r="28" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="63"/>
-      <c r="B28" s="81"/>
-      <c r="C28" s="82"/>
-      <c r="D28" s="81"/>
-      <c r="E28" s="82"/>
+      <c r="B28" s="92"/>
+      <c r="C28" s="91"/>
+      <c r="D28" s="92"/>
+      <c r="E28" s="91"/>
       <c r="F28" s="64"/>
       <c r="G28" s="69"/>
       <c r="H28" s="58"/>
-      <c r="I28" s="85"/>
-      <c r="J28" s="82"/>
-      <c r="K28" s="81"/>
-      <c r="L28" s="85"/>
-      <c r="M28" s="82"/>
+      <c r="I28" s="90"/>
+      <c r="J28" s="91"/>
+      <c r="K28" s="92"/>
+      <c r="L28" s="90"/>
+      <c r="M28" s="91"/>
       <c r="N28" s="64"/>
       <c r="O28" s="65"/>
     </row>
     <row r="29" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="63"/>
-      <c r="B29" s="81"/>
-      <c r="C29" s="82"/>
-      <c r="D29" s="81"/>
-      <c r="E29" s="82"/>
+      <c r="B29" s="92"/>
+      <c r="C29" s="91"/>
+      <c r="D29" s="92"/>
+      <c r="E29" s="91"/>
       <c r="F29" s="64"/>
       <c r="G29" s="69"/>
       <c r="H29" s="58"/>
-      <c r="I29" s="85"/>
-      <c r="J29" s="82"/>
-      <c r="K29" s="81"/>
-      <c r="L29" s="85"/>
-      <c r="M29" s="82"/>
+      <c r="I29" s="90"/>
+      <c r="J29" s="91"/>
+      <c r="K29" s="92"/>
+      <c r="L29" s="90"/>
+      <c r="M29" s="91"/>
       <c r="N29" s="64"/>
       <c r="O29" s="65"/>
     </row>
     <row r="30" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="63"/>
-      <c r="B30" s="81"/>
-      <c r="C30" s="82"/>
-      <c r="D30" s="81"/>
-      <c r="E30" s="82"/>
+      <c r="B30" s="92"/>
+      <c r="C30" s="91"/>
+      <c r="D30" s="92"/>
+      <c r="E30" s="91"/>
       <c r="F30" s="64"/>
       <c r="G30" s="69"/>
       <c r="H30" s="58"/>
-      <c r="I30" s="85"/>
-      <c r="J30" s="82"/>
-      <c r="K30" s="81"/>
-      <c r="L30" s="85"/>
-      <c r="M30" s="82"/>
+      <c r="I30" s="90"/>
+      <c r="J30" s="91"/>
+      <c r="K30" s="92"/>
+      <c r="L30" s="90"/>
+      <c r="M30" s="91"/>
       <c r="N30" s="64"/>
       <c r="O30" s="65"/>
     </row>
     <row r="31" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="63"/>
-      <c r="B31" s="81"/>
-      <c r="C31" s="82"/>
-      <c r="D31" s="81"/>
-      <c r="E31" s="82"/>
+      <c r="B31" s="92"/>
+      <c r="C31" s="91"/>
+      <c r="D31" s="92"/>
+      <c r="E31" s="91"/>
       <c r="F31" s="64"/>
       <c r="G31" s="69"/>
       <c r="H31" s="58"/>
-      <c r="I31" s="85"/>
-      <c r="J31" s="82"/>
-      <c r="K31" s="81"/>
-      <c r="L31" s="85"/>
-      <c r="M31" s="82"/>
+      <c r="I31" s="90"/>
+      <c r="J31" s="91"/>
+      <c r="K31" s="92"/>
+      <c r="L31" s="90"/>
+      <c r="M31" s="91"/>
       <c r="N31" s="64"/>
       <c r="O31" s="65"/>
     </row>
     <row r="32" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="63"/>
-      <c r="B32" s="81"/>
-      <c r="C32" s="82"/>
-      <c r="D32" s="81"/>
-      <c r="E32" s="82"/>
+      <c r="B32" s="92"/>
+      <c r="C32" s="91"/>
+      <c r="D32" s="92"/>
+      <c r="E32" s="91"/>
       <c r="F32" s="64"/>
       <c r="G32" s="69"/>
       <c r="H32" s="58"/>
-      <c r="I32" s="85"/>
-      <c r="J32" s="82"/>
-      <c r="K32" s="81"/>
-      <c r="L32" s="85"/>
-      <c r="M32" s="82"/>
+      <c r="I32" s="90"/>
+      <c r="J32" s="91"/>
+      <c r="K32" s="92"/>
+      <c r="L32" s="90"/>
+      <c r="M32" s="91"/>
       <c r="N32" s="64"/>
       <c r="O32" s="65"/>
     </row>
     <row r="33" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="63"/>
-      <c r="B33" s="81"/>
-      <c r="C33" s="82"/>
-      <c r="D33" s="81"/>
-      <c r="E33" s="82"/>
+      <c r="B33" s="92"/>
+      <c r="C33" s="91"/>
+      <c r="D33" s="92"/>
+      <c r="E33" s="91"/>
       <c r="F33" s="64"/>
       <c r="G33" s="69"/>
       <c r="H33" s="58"/>
-      <c r="I33" s="85"/>
-      <c r="J33" s="82"/>
-      <c r="K33" s="81"/>
-      <c r="L33" s="85"/>
-      <c r="M33" s="82"/>
+      <c r="I33" s="90"/>
+      <c r="J33" s="91"/>
+      <c r="K33" s="92"/>
+      <c r="L33" s="90"/>
+      <c r="M33" s="91"/>
       <c r="N33" s="64"/>
       <c r="O33" s="65"/>
     </row>
     <row r="34" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="63"/>
-      <c r="B34" s="81"/>
-      <c r="C34" s="82"/>
-      <c r="D34" s="81"/>
-      <c r="E34" s="82"/>
+      <c r="B34" s="92"/>
+      <c r="C34" s="91"/>
+      <c r="D34" s="92"/>
+      <c r="E34" s="91"/>
       <c r="F34" s="64"/>
       <c r="G34" s="69"/>
       <c r="H34" s="58"/>
-      <c r="I34" s="85"/>
-      <c r="J34" s="82"/>
-      <c r="K34" s="81"/>
-      <c r="L34" s="85"/>
-      <c r="M34" s="82"/>
+      <c r="I34" s="90"/>
+      <c r="J34" s="91"/>
+      <c r="K34" s="92"/>
+      <c r="L34" s="90"/>
+      <c r="M34" s="91"/>
       <c r="N34" s="64"/>
       <c r="O34" s="65"/>
     </row>
     <row r="35" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="63"/>
-      <c r="B35" s="81"/>
-      <c r="C35" s="82"/>
-      <c r="D35" s="81"/>
-      <c r="E35" s="82"/>
+      <c r="B35" s="92"/>
+      <c r="C35" s="91"/>
+      <c r="D35" s="92"/>
+      <c r="E35" s="91"/>
       <c r="F35" s="64"/>
       <c r="G35" s="69"/>
       <c r="H35" s="58"/>
-      <c r="I35" s="85"/>
-      <c r="J35" s="82"/>
-      <c r="K35" s="81"/>
-      <c r="L35" s="85"/>
-      <c r="M35" s="82"/>
+      <c r="I35" s="90"/>
+      <c r="J35" s="91"/>
+      <c r="K35" s="92"/>
+      <c r="L35" s="90"/>
+      <c r="M35" s="91"/>
       <c r="N35" s="64"/>
       <c r="O35" s="65"/>
     </row>
     <row r="36" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="63"/>
-      <c r="B36" s="81"/>
-      <c r="C36" s="82"/>
-      <c r="D36" s="81"/>
-      <c r="E36" s="82"/>
+      <c r="B36" s="92"/>
+      <c r="C36" s="91"/>
+      <c r="D36" s="92"/>
+      <c r="E36" s="91"/>
       <c r="F36" s="64"/>
       <c r="G36" s="69"/>
       <c r="H36" s="58"/>
-      <c r="I36" s="85"/>
-      <c r="J36" s="82"/>
-      <c r="K36" s="81"/>
-      <c r="L36" s="85"/>
-      <c r="M36" s="82"/>
+      <c r="I36" s="90"/>
+      <c r="J36" s="91"/>
+      <c r="K36" s="92"/>
+      <c r="L36" s="90"/>
+      <c r="M36" s="91"/>
       <c r="N36" s="64"/>
       <c r="O36" s="65"/>
     </row>
     <row r="37" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="63"/>
-      <c r="B37" s="81"/>
-      <c r="C37" s="82"/>
-      <c r="D37" s="81"/>
-      <c r="E37" s="82"/>
+      <c r="B37" s="92"/>
+      <c r="C37" s="91"/>
+      <c r="D37" s="92"/>
+      <c r="E37" s="91"/>
       <c r="F37" s="64"/>
       <c r="G37" s="69"/>
       <c r="H37" s="58"/>
-      <c r="I37" s="85"/>
-      <c r="J37" s="82"/>
-      <c r="K37" s="81"/>
-      <c r="L37" s="85"/>
-      <c r="M37" s="82"/>
+      <c r="I37" s="90"/>
+      <c r="J37" s="91"/>
+      <c r="K37" s="92"/>
+      <c r="L37" s="90"/>
+      <c r="M37" s="91"/>
       <c r="N37" s="64"/>
       <c r="O37" s="65"/>
     </row>
     <row r="38" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="63"/>
-      <c r="B38" s="81"/>
-      <c r="C38" s="82"/>
-      <c r="D38" s="81"/>
-      <c r="E38" s="82"/>
+      <c r="B38" s="92"/>
+      <c r="C38" s="91"/>
+      <c r="D38" s="92"/>
+      <c r="E38" s="91"/>
       <c r="F38" s="64"/>
       <c r="G38" s="69"/>
       <c r="H38" s="58"/>
-      <c r="I38" s="85"/>
-      <c r="J38" s="82"/>
-      <c r="K38" s="81"/>
-      <c r="L38" s="85"/>
-      <c r="M38" s="82"/>
+      <c r="I38" s="90"/>
+      <c r="J38" s="91"/>
+      <c r="K38" s="92"/>
+      <c r="L38" s="90"/>
+      <c r="M38" s="91"/>
       <c r="N38" s="64"/>
       <c r="O38" s="65"/>
     </row>
     <row r="39" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="63"/>
-      <c r="B39" s="81"/>
-      <c r="C39" s="82"/>
-      <c r="D39" s="81"/>
-      <c r="E39" s="82"/>
+      <c r="B39" s="92"/>
+      <c r="C39" s="91"/>
+      <c r="D39" s="92"/>
+      <c r="E39" s="91"/>
       <c r="F39" s="64"/>
       <c r="G39" s="69"/>
       <c r="H39" s="58"/>
-      <c r="I39" s="85"/>
-      <c r="J39" s="82"/>
-      <c r="K39" s="81"/>
-      <c r="L39" s="85"/>
-      <c r="M39" s="82"/>
+      <c r="I39" s="90"/>
+      <c r="J39" s="91"/>
+      <c r="K39" s="92"/>
+      <c r="L39" s="90"/>
+      <c r="M39" s="91"/>
       <c r="N39" s="64"/>
       <c r="O39" s="65"/>
     </row>
     <row r="40" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="63"/>
-      <c r="B40" s="81"/>
-      <c r="C40" s="82"/>
-      <c r="D40" s="81"/>
-      <c r="E40" s="82"/>
+      <c r="B40" s="92"/>
+      <c r="C40" s="91"/>
+      <c r="D40" s="92"/>
+      <c r="E40" s="91"/>
       <c r="F40" s="64"/>
       <c r="G40" s="69"/>
       <c r="H40" s="58"/>
-      <c r="I40" s="85"/>
-      <c r="J40" s="82"/>
-      <c r="K40" s="81"/>
-      <c r="L40" s="85"/>
-      <c r="M40" s="82"/>
+      <c r="I40" s="90"/>
+      <c r="J40" s="91"/>
+      <c r="K40" s="92"/>
+      <c r="L40" s="90"/>
+      <c r="M40" s="91"/>
       <c r="N40" s="64"/>
       <c r="O40" s="65"/>
     </row>
     <row r="41" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="63"/>
-      <c r="B41" s="81"/>
-      <c r="C41" s="82"/>
-      <c r="D41" s="81"/>
-      <c r="E41" s="82"/>
+      <c r="B41" s="92"/>
+      <c r="C41" s="91"/>
+      <c r="D41" s="92"/>
+      <c r="E41" s="91"/>
       <c r="F41" s="64"/>
       <c r="G41" s="69"/>
       <c r="H41" s="58"/>
-      <c r="I41" s="85"/>
-      <c r="J41" s="82"/>
-      <c r="K41" s="81"/>
-      <c r="L41" s="85"/>
-      <c r="M41" s="82"/>
+      <c r="I41" s="90"/>
+      <c r="J41" s="91"/>
+      <c r="K41" s="92"/>
+      <c r="L41" s="90"/>
+      <c r="M41" s="91"/>
       <c r="N41" s="64"/>
       <c r="O41" s="65"/>
     </row>
     <row r="42" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="63"/>
-      <c r="B42" s="81"/>
-      <c r="C42" s="82"/>
-      <c r="D42" s="81"/>
-      <c r="E42" s="82"/>
+      <c r="B42" s="92"/>
+      <c r="C42" s="91"/>
+      <c r="D42" s="92"/>
+      <c r="E42" s="91"/>
       <c r="F42" s="64"/>
       <c r="G42" s="69"/>
       <c r="H42" s="58"/>
-      <c r="I42" s="85"/>
-      <c r="J42" s="82"/>
-      <c r="K42" s="81"/>
-      <c r="L42" s="85"/>
-      <c r="M42" s="82"/>
+      <c r="I42" s="90"/>
+      <c r="J42" s="91"/>
+      <c r="K42" s="92"/>
+      <c r="L42" s="90"/>
+      <c r="M42" s="91"/>
       <c r="N42" s="64"/>
       <c r="O42" s="65"/>
     </row>
     <row r="43" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="63"/>
-      <c r="B43" s="81"/>
-      <c r="C43" s="82"/>
-      <c r="D43" s="81"/>
-      <c r="E43" s="82"/>
+      <c r="B43" s="92"/>
+      <c r="C43" s="91"/>
+      <c r="D43" s="92"/>
+      <c r="E43" s="91"/>
       <c r="F43" s="64"/>
       <c r="G43" s="69"/>
       <c r="H43" s="58"/>
-      <c r="I43" s="85"/>
-      <c r="J43" s="82"/>
-      <c r="K43" s="81"/>
-      <c r="L43" s="85"/>
-      <c r="M43" s="82"/>
+      <c r="I43" s="90"/>
+      <c r="J43" s="91"/>
+      <c r="K43" s="92"/>
+      <c r="L43" s="90"/>
+      <c r="M43" s="91"/>
       <c r="N43" s="64"/>
       <c r="O43" s="65"/>
     </row>
     <row r="44" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="63"/>
-      <c r="B44" s="81"/>
-      <c r="C44" s="82"/>
-      <c r="D44" s="81"/>
-      <c r="E44" s="82"/>
+      <c r="B44" s="92"/>
+      <c r="C44" s="91"/>
+      <c r="D44" s="92"/>
+      <c r="E44" s="91"/>
       <c r="F44" s="64"/>
       <c r="G44" s="69"/>
       <c r="H44" s="58"/>
-      <c r="I44" s="85"/>
-      <c r="J44" s="82"/>
-      <c r="K44" s="81"/>
-      <c r="L44" s="85"/>
-      <c r="M44" s="82"/>
+      <c r="I44" s="90"/>
+      <c r="J44" s="91"/>
+      <c r="K44" s="92"/>
+      <c r="L44" s="90"/>
+      <c r="M44" s="91"/>
       <c r="N44" s="64"/>
       <c r="O44" s="65"/>
     </row>
     <row r="45" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="63"/>
-      <c r="B45" s="81"/>
-      <c r="C45" s="82"/>
-      <c r="D45" s="81"/>
-      <c r="E45" s="82"/>
+      <c r="B45" s="92"/>
+      <c r="C45" s="91"/>
+      <c r="D45" s="92"/>
+      <c r="E45" s="91"/>
       <c r="F45" s="64"/>
       <c r="G45" s="69"/>
       <c r="H45" s="58"/>
-      <c r="I45" s="85"/>
-      <c r="J45" s="82"/>
-      <c r="K45" s="81"/>
-      <c r="L45" s="85"/>
-      <c r="M45" s="82"/>
+      <c r="I45" s="90"/>
+      <c r="J45" s="91"/>
+      <c r="K45" s="92"/>
+      <c r="L45" s="90"/>
+      <c r="M45" s="91"/>
       <c r="N45" s="64"/>
       <c r="O45" s="65"/>
     </row>
     <row r="46" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="63"/>
-      <c r="B46" s="81"/>
-      <c r="C46" s="82"/>
-      <c r="D46" s="81"/>
-      <c r="E46" s="82"/>
+      <c r="B46" s="92"/>
+      <c r="C46" s="91"/>
+      <c r="D46" s="92"/>
+      <c r="E46" s="91"/>
       <c r="F46" s="64"/>
       <c r="G46" s="69"/>
       <c r="H46" s="58"/>
-      <c r="I46" s="85"/>
-      <c r="J46" s="82"/>
-      <c r="K46" s="81"/>
-      <c r="L46" s="85"/>
-      <c r="M46" s="82"/>
+      <c r="I46" s="90"/>
+      <c r="J46" s="91"/>
+      <c r="K46" s="92"/>
+      <c r="L46" s="90"/>
+      <c r="M46" s="91"/>
       <c r="N46" s="64"/>
       <c r="O46" s="65"/>
     </row>
     <row r="47" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="63"/>
-      <c r="B47" s="81"/>
-      <c r="C47" s="82"/>
-      <c r="D47" s="81"/>
-      <c r="E47" s="82"/>
+      <c r="B47" s="92"/>
+      <c r="C47" s="91"/>
+      <c r="D47" s="92"/>
+      <c r="E47" s="91"/>
       <c r="F47" s="64"/>
       <c r="G47" s="69"/>
       <c r="H47" s="58"/>
-      <c r="I47" s="85"/>
-      <c r="J47" s="82"/>
-      <c r="K47" s="81"/>
-      <c r="L47" s="85"/>
-      <c r="M47" s="82"/>
+      <c r="I47" s="90"/>
+      <c r="J47" s="91"/>
+      <c r="K47" s="92"/>
+      <c r="L47" s="90"/>
+      <c r="M47" s="91"/>
       <c r="N47" s="64"/>
       <c r="O47" s="65"/>
     </row>
     <row r="48" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="63"/>
-      <c r="B48" s="81"/>
-      <c r="C48" s="82"/>
-      <c r="D48" s="81"/>
-      <c r="E48" s="82"/>
+      <c r="B48" s="92"/>
+      <c r="C48" s="91"/>
+      <c r="D48" s="92"/>
+      <c r="E48" s="91"/>
       <c r="F48" s="64"/>
       <c r="G48" s="69"/>
       <c r="H48" s="58"/>
-      <c r="I48" s="85"/>
-      <c r="J48" s="82"/>
-      <c r="K48" s="81"/>
-      <c r="L48" s="85"/>
-      <c r="M48" s="82"/>
+      <c r="I48" s="90"/>
+      <c r="J48" s="91"/>
+      <c r="K48" s="92"/>
+      <c r="L48" s="90"/>
+      <c r="M48" s="91"/>
       <c r="N48" s="64"/>
       <c r="O48" s="65"/>
     </row>
     <row r="49" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="63"/>
-      <c r="B49" s="81"/>
-      <c r="C49" s="82"/>
-      <c r="D49" s="81"/>
-      <c r="E49" s="82"/>
+      <c r="B49" s="92"/>
+      <c r="C49" s="91"/>
+      <c r="D49" s="92"/>
+      <c r="E49" s="91"/>
       <c r="F49" s="64"/>
       <c r="G49" s="69"/>
       <c r="H49" s="58"/>
-      <c r="I49" s="85"/>
-      <c r="J49" s="82"/>
-      <c r="K49" s="81"/>
-      <c r="L49" s="85"/>
-      <c r="M49" s="82"/>
+      <c r="I49" s="90"/>
+      <c r="J49" s="91"/>
+      <c r="K49" s="92"/>
+      <c r="L49" s="90"/>
+      <c r="M49" s="91"/>
       <c r="N49" s="64"/>
       <c r="O49" s="65"/>
     </row>
     <row r="50" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="63"/>
-      <c r="B50" s="81"/>
-      <c r="C50" s="82"/>
-      <c r="D50" s="81"/>
-      <c r="E50" s="82"/>
+      <c r="B50" s="92"/>
+      <c r="C50" s="91"/>
+      <c r="D50" s="92"/>
+      <c r="E50" s="91"/>
       <c r="F50" s="64"/>
       <c r="G50" s="69"/>
       <c r="H50" s="58"/>
-      <c r="I50" s="85"/>
-      <c r="J50" s="82"/>
-      <c r="K50" s="81"/>
-      <c r="L50" s="85"/>
-      <c r="M50" s="82"/>
+      <c r="I50" s="90"/>
+      <c r="J50" s="91"/>
+      <c r="K50" s="92"/>
+      <c r="L50" s="90"/>
+      <c r="M50" s="91"/>
       <c r="N50" s="64"/>
       <c r="O50" s="65"/>
     </row>
     <row r="51" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="63"/>
-      <c r="B51" s="81"/>
-      <c r="C51" s="82"/>
-      <c r="D51" s="81"/>
-      <c r="E51" s="82"/>
+      <c r="B51" s="92"/>
+      <c r="C51" s="91"/>
+      <c r="D51" s="92"/>
+      <c r="E51" s="91"/>
       <c r="F51" s="64"/>
       <c r="G51" s="69"/>
       <c r="H51" s="58"/>
-      <c r="I51" s="85"/>
-      <c r="J51" s="82"/>
-      <c r="K51" s="81"/>
-      <c r="L51" s="85"/>
-      <c r="M51" s="82"/>
+      <c r="I51" s="90"/>
+      <c r="J51" s="91"/>
+      <c r="K51" s="92"/>
+      <c r="L51" s="90"/>
+      <c r="M51" s="91"/>
       <c r="N51" s="64"/>
       <c r="O51" s="65"/>
     </row>
     <row r="52" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="63"/>
-      <c r="B52" s="81"/>
-      <c r="C52" s="82"/>
-      <c r="D52" s="81"/>
-      <c r="E52" s="82"/>
+      <c r="B52" s="92"/>
+      <c r="C52" s="91"/>
+      <c r="D52" s="92"/>
+      <c r="E52" s="91"/>
       <c r="F52" s="64"/>
       <c r="G52" s="69"/>
       <c r="H52" s="58"/>
-      <c r="I52" s="85"/>
-      <c r="J52" s="82"/>
-      <c r="K52" s="81"/>
-      <c r="L52" s="85"/>
-      <c r="M52" s="82"/>
+      <c r="I52" s="90"/>
+      <c r="J52" s="91"/>
+      <c r="K52" s="92"/>
+      <c r="L52" s="90"/>
+      <c r="M52" s="91"/>
       <c r="N52" s="64"/>
       <c r="O52" s="65"/>
     </row>
     <row r="53" spans="1:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="66"/>
-      <c r="B53" s="83"/>
-      <c r="C53" s="84"/>
-      <c r="D53" s="83"/>
-      <c r="E53" s="84"/>
+      <c r="B53" s="97"/>
+      <c r="C53" s="96"/>
+      <c r="D53" s="97"/>
+      <c r="E53" s="96"/>
       <c r="F53" s="67"/>
       <c r="G53" s="70"/>
       <c r="H53" s="59"/>
-      <c r="I53" s="86"/>
-      <c r="J53" s="84"/>
-      <c r="K53" s="83"/>
-      <c r="L53" s="86"/>
-      <c r="M53" s="84"/>
+      <c r="I53" s="95"/>
+      <c r="J53" s="96"/>
+      <c r="K53" s="97"/>
+      <c r="L53" s="95"/>
+      <c r="M53" s="96"/>
       <c r="N53" s="67"/>
       <c r="O53" s="68"/>
     </row>
   </sheetData>
   <sheetProtection password="CDCA"/>
   <mergeCells count="146">
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="K51:M51"/>
+    <mergeCell ref="K52:M52"/>
+    <mergeCell ref="K53:M53"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="K46:M46"/>
+    <mergeCell ref="K47:M47"/>
+    <mergeCell ref="K48:M48"/>
+    <mergeCell ref="K49:M49"/>
+    <mergeCell ref="K50:M50"/>
+    <mergeCell ref="K41:M41"/>
+    <mergeCell ref="K42:M42"/>
+    <mergeCell ref="K43:M43"/>
+    <mergeCell ref="K44:M44"/>
+    <mergeCell ref="K45:M45"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="K37:M37"/>
+    <mergeCell ref="K38:M38"/>
+    <mergeCell ref="K39:M39"/>
+    <mergeCell ref="K40:M40"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="K35:M35"/>
     <mergeCell ref="B53:C53"/>
     <mergeCell ref="B49:C49"/>
     <mergeCell ref="B50:C50"/>
@@ -2647,60 +3010,79 @@
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="B40:C40"/>
-    <mergeCell ref="K44:M44"/>
-    <mergeCell ref="K45:M45"/>
-    <mergeCell ref="K36:M36"/>
-    <mergeCell ref="K37:M37"/>
-    <mergeCell ref="K38:M38"/>
-    <mergeCell ref="K39:M39"/>
-    <mergeCell ref="K40:M40"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="K35:M35"/>
-    <mergeCell ref="K51:M51"/>
-    <mergeCell ref="K52:M52"/>
-    <mergeCell ref="K53:M53"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="K46:M46"/>
-    <mergeCell ref="K47:M47"/>
-    <mergeCell ref="K48:M48"/>
-    <mergeCell ref="K49:M49"/>
-    <mergeCell ref="K50:M50"/>
-    <mergeCell ref="K41:M41"/>
-    <mergeCell ref="K42:M42"/>
-    <mergeCell ref="K43:M43"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions verticalCentered="1"/>
@@ -2709,4 +3091,1566 @@
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="6.7109375" style="99" customWidth="1"/>
+    <col min="3" max="16" width="5.7109375" style="99" customWidth="1"/>
+    <col min="17" max="18" width="6.7109375" style="99" customWidth="1"/>
+    <col min="19" max="19" width="1.28515625" style="99" customWidth="1"/>
+    <col min="20" max="20" width="10.85546875" style="99"/>
+    <col min="21" max="16384" width="10.85546875" style="100"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:26" ht="60.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="101" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="103"/>
+      <c r="Q2" s="124" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="104" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="104"/>
+      <c r="C3" s="104" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="104"/>
+      <c r="E3" s="105" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="106"/>
+      <c r="G3" s="104" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="107"/>
+      <c r="I3" s="104" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="107"/>
+      <c r="K3" s="104" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" s="108" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" s="104"/>
+      <c r="N3" s="109"/>
+      <c r="O3" s="104" t="s">
+        <v>48</v>
+      </c>
+      <c r="P3" s="104"/>
+      <c r="Q3" s="124"/>
+    </row>
+    <row r="4" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="110"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="111"/>
+      <c r="L4" s="112" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="110"/>
+      <c r="O4" s="110"/>
+      <c r="P4" s="110"/>
+      <c r="Q4" s="124"/>
+      <c r="W4" s="105"/>
+      <c r="X4" s="102"/>
+    </row>
+    <row r="5" spans="1:26" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="104" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="113"/>
+      <c r="C5" s="113"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="115"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="117" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" s="106"/>
+      <c r="K5" s="118" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" s="119"/>
+      <c r="M5" s="112"/>
+      <c r="Q5" s="124"/>
+      <c r="W5" s="119"/>
+      <c r="X5" s="112"/>
+    </row>
+    <row r="6" spans="1:26" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="104" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="104"/>
+      <c r="C6" s="104" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="104"/>
+      <c r="E6" s="104" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="104"/>
+      <c r="G6" s="104" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="104"/>
+      <c r="I6" s="104" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" s="104"/>
+      <c r="K6" s="104" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="104"/>
+      <c r="M6" s="104" t="s">
+        <v>33</v>
+      </c>
+      <c r="N6" s="104"/>
+      <c r="O6" s="104" t="s">
+        <v>32</v>
+      </c>
+      <c r="P6" s="104"/>
+      <c r="Q6" s="124"/>
+      <c r="W6" s="119"/>
+      <c r="X6" s="99"/>
+    </row>
+    <row r="7" spans="1:26" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="112" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="112"/>
+      <c r="C7" s="112" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="112"/>
+      <c r="I7" s="110" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="110"/>
+      <c r="K7" s="112" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="112"/>
+      <c r="M7" s="110" t="s">
+        <v>46</v>
+      </c>
+      <c r="N7" s="110"/>
+      <c r="O7" s="112" t="s">
+        <v>24</v>
+      </c>
+      <c r="P7" s="110"/>
+      <c r="Q7" s="124"/>
+      <c r="W7" s="119"/>
+      <c r="X7" s="112"/>
+    </row>
+    <row r="8" spans="1:26" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="125" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="125" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="125"/>
+      <c r="D9" s="125" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="125"/>
+      <c r="F9" s="125"/>
+      <c r="G9" s="125" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="125"/>
+      <c r="I9" s="126" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="127"/>
+      <c r="K9" s="127"/>
+      <c r="L9" s="127"/>
+      <c r="M9" s="125" t="s">
+        <v>9</v>
+      </c>
+      <c r="N9" s="125"/>
+      <c r="O9" s="125"/>
+      <c r="P9" s="125"/>
+      <c r="Q9" s="125" t="s">
+        <v>8</v>
+      </c>
+      <c r="R9" s="125" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="120" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="120"/>
+      <c r="D10" s="120" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="120"/>
+      <c r="F10" s="120"/>
+      <c r="G10" s="120" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="120"/>
+      <c r="I10" s="120" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="120"/>
+      <c r="K10" s="120"/>
+      <c r="L10" s="120"/>
+      <c r="M10" s="120" t="s">
+        <v>9</v>
+      </c>
+      <c r="N10" s="120"/>
+      <c r="O10" s="120"/>
+      <c r="P10" s="120"/>
+      <c r="Q10" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="R10" s="121"/>
+      <c r="V10" s="104"/>
+      <c r="W10" s="104"/>
+    </row>
+    <row r="11" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="120" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="120"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="120" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="120"/>
+      <c r="I11" s="120" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="120"/>
+      <c r="K11" s="120"/>
+      <c r="L11" s="120"/>
+      <c r="M11" s="120" t="s">
+        <v>9</v>
+      </c>
+      <c r="N11" s="120"/>
+      <c r="O11" s="120"/>
+      <c r="P11" s="120"/>
+      <c r="Q11" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="R11" s="121"/>
+      <c r="V11" s="104"/>
+      <c r="W11" s="104"/>
+    </row>
+    <row r="12" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="120" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="120"/>
+      <c r="D12" s="120" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="120"/>
+      <c r="F12" s="120"/>
+      <c r="G12" s="120" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="120"/>
+      <c r="I12" s="120" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="120"/>
+      <c r="K12" s="120"/>
+      <c r="L12" s="120"/>
+      <c r="M12" s="120" t="s">
+        <v>9</v>
+      </c>
+      <c r="N12" s="120"/>
+      <c r="O12" s="120"/>
+      <c r="P12" s="120"/>
+      <c r="Q12" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="121"/>
+      <c r="V12" s="112"/>
+      <c r="W12" s="110"/>
+    </row>
+    <row r="13" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="120" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="120"/>
+      <c r="D13" s="120" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="120"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="120" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" s="120"/>
+      <c r="I13" s="120" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="120"/>
+      <c r="K13" s="120"/>
+      <c r="L13" s="120"/>
+      <c r="M13" s="120" t="s">
+        <v>9</v>
+      </c>
+      <c r="N13" s="120"/>
+      <c r="O13" s="120"/>
+      <c r="P13" s="120"/>
+      <c r="Q13" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="R13" s="121"/>
+      <c r="V13" s="112"/>
+      <c r="W13" s="110"/>
+      <c r="X13" s="119"/>
+    </row>
+    <row r="14" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="120" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="120"/>
+      <c r="F14" s="120"/>
+      <c r="G14" s="120" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="120"/>
+      <c r="I14" s="120" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="120"/>
+      <c r="K14" s="120"/>
+      <c r="L14" s="120"/>
+      <c r="M14" s="120" t="s">
+        <v>9</v>
+      </c>
+      <c r="N14" s="120"/>
+      <c r="O14" s="120"/>
+      <c r="P14" s="120"/>
+      <c r="Q14" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="R14" s="121"/>
+      <c r="V14" s="105"/>
+      <c r="W14" s="107"/>
+      <c r="X14" s="113"/>
+      <c r="Y14" s="113"/>
+      <c r="Z14" s="113"/>
+    </row>
+    <row r="15" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="120" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="120"/>
+      <c r="F15" s="120"/>
+      <c r="G15" s="120" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="120"/>
+      <c r="I15" s="120" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="120"/>
+      <c r="K15" s="120"/>
+      <c r="L15" s="120"/>
+      <c r="M15" s="120" t="s">
+        <v>9</v>
+      </c>
+      <c r="N15" s="120"/>
+      <c r="O15" s="120"/>
+      <c r="P15" s="120"/>
+      <c r="Q15" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="R15" s="121"/>
+      <c r="V15" s="119"/>
+      <c r="W15" s="110"/>
+      <c r="X15" s="110"/>
+      <c r="Y15" s="111"/>
+      <c r="Z15" s="99"/>
+    </row>
+    <row r="16" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="120" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="120"/>
+      <c r="F16" s="120"/>
+      <c r="G16" s="120" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" s="120"/>
+      <c r="I16" s="120" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="120"/>
+      <c r="K16" s="120"/>
+      <c r="L16" s="120"/>
+      <c r="M16" s="120" t="s">
+        <v>9</v>
+      </c>
+      <c r="N16" s="120"/>
+      <c r="O16" s="120"/>
+      <c r="P16" s="120"/>
+      <c r="Q16" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="R16" s="121"/>
+    </row>
+    <row r="17" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="120" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="120"/>
+      <c r="D17" s="120" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="120"/>
+      <c r="F17" s="120"/>
+      <c r="G17" s="120" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" s="120"/>
+      <c r="I17" s="120" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="120"/>
+      <c r="K17" s="120"/>
+      <c r="L17" s="120"/>
+      <c r="M17" s="120" t="s">
+        <v>9</v>
+      </c>
+      <c r="N17" s="120"/>
+      <c r="O17" s="120"/>
+      <c r="P17" s="120"/>
+      <c r="Q17" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="R17" s="121"/>
+    </row>
+    <row r="18" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="120" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="120"/>
+      <c r="D18" s="120" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="120"/>
+      <c r="F18" s="120"/>
+      <c r="G18" s="120" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="120"/>
+      <c r="I18" s="120" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="120"/>
+      <c r="K18" s="120"/>
+      <c r="L18" s="120"/>
+      <c r="M18" s="120" t="s">
+        <v>9</v>
+      </c>
+      <c r="N18" s="120"/>
+      <c r="O18" s="120"/>
+      <c r="P18" s="120"/>
+      <c r="Q18" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="R18" s="121"/>
+    </row>
+    <row r="19" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="120" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="120"/>
+      <c r="D19" s="120" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="120"/>
+      <c r="F19" s="120"/>
+      <c r="G19" s="120" t="s">
+        <v>3</v>
+      </c>
+      <c r="H19" s="120"/>
+      <c r="I19" s="120" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="120"/>
+      <c r="K19" s="120"/>
+      <c r="L19" s="120"/>
+      <c r="M19" s="120" t="s">
+        <v>9</v>
+      </c>
+      <c r="N19" s="120"/>
+      <c r="O19" s="120"/>
+      <c r="P19" s="120"/>
+      <c r="Q19" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="R19" s="121"/>
+    </row>
+    <row r="20" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="120" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="120"/>
+      <c r="D20" s="120" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="120"/>
+      <c r="F20" s="120"/>
+      <c r="G20" s="120" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" s="120"/>
+      <c r="I20" s="120" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="120"/>
+      <c r="K20" s="120"/>
+      <c r="L20" s="120"/>
+      <c r="M20" s="120" t="s">
+        <v>9</v>
+      </c>
+      <c r="N20" s="120"/>
+      <c r="O20" s="120"/>
+      <c r="P20" s="120"/>
+      <c r="Q20" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="R20" s="121"/>
+    </row>
+    <row r="21" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="120" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="120"/>
+      <c r="D21" s="120" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="120"/>
+      <c r="F21" s="120"/>
+      <c r="G21" s="120" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="120"/>
+      <c r="I21" s="120" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="120"/>
+      <c r="K21" s="120"/>
+      <c r="L21" s="120"/>
+      <c r="M21" s="120" t="s">
+        <v>9</v>
+      </c>
+      <c r="N21" s="120"/>
+      <c r="O21" s="120"/>
+      <c r="P21" s="120"/>
+      <c r="Q21" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="R21" s="121"/>
+    </row>
+    <row r="22" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="120" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="120"/>
+      <c r="D22" s="120" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="120"/>
+      <c r="F22" s="120"/>
+      <c r="G22" s="120" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="120"/>
+      <c r="I22" s="120" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" s="120"/>
+      <c r="K22" s="120"/>
+      <c r="L22" s="120"/>
+      <c r="M22" s="120" t="s">
+        <v>9</v>
+      </c>
+      <c r="N22" s="120"/>
+      <c r="O22" s="120"/>
+      <c r="P22" s="120"/>
+      <c r="Q22" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="R22" s="121"/>
+    </row>
+    <row r="23" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="120" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="120"/>
+      <c r="D23" s="120" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="120"/>
+      <c r="F23" s="120"/>
+      <c r="G23" s="120" t="s">
+        <v>3</v>
+      </c>
+      <c r="H23" s="120"/>
+      <c r="I23" s="120" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" s="120"/>
+      <c r="K23" s="120"/>
+      <c r="L23" s="120"/>
+      <c r="M23" s="120" t="s">
+        <v>9</v>
+      </c>
+      <c r="N23" s="120"/>
+      <c r="O23" s="120"/>
+      <c r="P23" s="120"/>
+      <c r="Q23" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="R23" s="121"/>
+    </row>
+    <row r="24" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="120" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="120"/>
+      <c r="D24" s="120" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="120"/>
+      <c r="F24" s="120"/>
+      <c r="G24" s="120" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" s="120"/>
+      <c r="I24" s="120" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" s="120"/>
+      <c r="K24" s="120"/>
+      <c r="L24" s="120"/>
+      <c r="M24" s="120" t="s">
+        <v>9</v>
+      </c>
+      <c r="N24" s="120"/>
+      <c r="O24" s="120"/>
+      <c r="P24" s="120"/>
+      <c r="Q24" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="R24" s="121"/>
+    </row>
+    <row r="25" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="120" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="120"/>
+      <c r="D25" s="120" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="120"/>
+      <c r="F25" s="120"/>
+      <c r="G25" s="120" t="s">
+        <v>3</v>
+      </c>
+      <c r="H25" s="120"/>
+      <c r="I25" s="120" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" s="120"/>
+      <c r="K25" s="120"/>
+      <c r="L25" s="120"/>
+      <c r="M25" s="120" t="s">
+        <v>9</v>
+      </c>
+      <c r="N25" s="120"/>
+      <c r="O25" s="120"/>
+      <c r="P25" s="120"/>
+      <c r="Q25" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="R25" s="121"/>
+    </row>
+    <row r="26" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="120" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="120"/>
+      <c r="D26" s="120" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="120"/>
+      <c r="F26" s="120"/>
+      <c r="G26" s="120" t="s">
+        <v>3</v>
+      </c>
+      <c r="H26" s="120"/>
+      <c r="I26" s="120" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" s="120"/>
+      <c r="K26" s="120"/>
+      <c r="L26" s="120"/>
+      <c r="M26" s="120" t="s">
+        <v>9</v>
+      </c>
+      <c r="N26" s="120"/>
+      <c r="O26" s="120"/>
+      <c r="P26" s="120"/>
+      <c r="Q26" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="R26" s="121"/>
+    </row>
+    <row r="27" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="120" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="120"/>
+      <c r="D27" s="120" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="120"/>
+      <c r="F27" s="120"/>
+      <c r="G27" s="120" t="s">
+        <v>3</v>
+      </c>
+      <c r="H27" s="120"/>
+      <c r="I27" s="120" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" s="120"/>
+      <c r="K27" s="120"/>
+      <c r="L27" s="120"/>
+      <c r="M27" s="120" t="s">
+        <v>9</v>
+      </c>
+      <c r="N27" s="120"/>
+      <c r="O27" s="120"/>
+      <c r="P27" s="120"/>
+      <c r="Q27" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="R27" s="121"/>
+    </row>
+    <row r="28" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="120" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="120"/>
+      <c r="D28" s="120" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="120"/>
+      <c r="F28" s="120"/>
+      <c r="G28" s="120" t="s">
+        <v>3</v>
+      </c>
+      <c r="H28" s="120"/>
+      <c r="I28" s="120" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28" s="120"/>
+      <c r="K28" s="120"/>
+      <c r="L28" s="120"/>
+      <c r="M28" s="120" t="s">
+        <v>9</v>
+      </c>
+      <c r="N28" s="120"/>
+      <c r="O28" s="120"/>
+      <c r="P28" s="120"/>
+      <c r="Q28" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="R28" s="121"/>
+    </row>
+    <row r="29" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="120" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="120"/>
+      <c r="D29" s="120" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="120"/>
+      <c r="F29" s="120"/>
+      <c r="G29" s="120" t="s">
+        <v>3</v>
+      </c>
+      <c r="H29" s="120"/>
+      <c r="I29" s="120" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29" s="120"/>
+      <c r="K29" s="120"/>
+      <c r="L29" s="120"/>
+      <c r="M29" s="120" t="s">
+        <v>9</v>
+      </c>
+      <c r="N29" s="120"/>
+      <c r="O29" s="120"/>
+      <c r="P29" s="120"/>
+      <c r="Q29" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="121"/>
+    </row>
+    <row r="30" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="120"/>
+      <c r="B30" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="120"/>
+      <c r="D30" s="120" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="120"/>
+      <c r="F30" s="120"/>
+      <c r="G30" s="120" t="s">
+        <v>3</v>
+      </c>
+      <c r="H30" s="120"/>
+      <c r="I30" s="120" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30" s="120"/>
+      <c r="K30" s="120"/>
+      <c r="L30" s="120"/>
+      <c r="M30" s="120" t="s">
+        <v>9</v>
+      </c>
+      <c r="N30" s="120"/>
+      <c r="O30" s="120"/>
+      <c r="P30" s="120"/>
+      <c r="Q30" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="R30" s="121"/>
+    </row>
+    <row r="31" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="120"/>
+      <c r="B31" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="120"/>
+      <c r="D31" s="120" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="120"/>
+      <c r="F31" s="120"/>
+      <c r="G31" s="120" t="s">
+        <v>3</v>
+      </c>
+      <c r="H31" s="120"/>
+      <c r="I31" s="120" t="s">
+        <v>17</v>
+      </c>
+      <c r="J31" s="120"/>
+      <c r="K31" s="120"/>
+      <c r="L31" s="120"/>
+      <c r="M31" s="120" t="s">
+        <v>9</v>
+      </c>
+      <c r="N31" s="120"/>
+      <c r="O31" s="120"/>
+      <c r="P31" s="120"/>
+      <c r="Q31" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="R31" s="121"/>
+    </row>
+    <row r="32" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="120"/>
+      <c r="B32" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="120"/>
+      <c r="D32" s="120" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="120"/>
+      <c r="F32" s="120"/>
+      <c r="G32" s="120" t="s">
+        <v>3</v>
+      </c>
+      <c r="H32" s="120"/>
+      <c r="I32" s="120" t="s">
+        <v>17</v>
+      </c>
+      <c r="J32" s="120"/>
+      <c r="K32" s="120"/>
+      <c r="L32" s="120"/>
+      <c r="M32" s="120" t="s">
+        <v>9</v>
+      </c>
+      <c r="N32" s="120"/>
+      <c r="O32" s="120"/>
+      <c r="P32" s="120"/>
+      <c r="Q32" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="R32" s="121"/>
+    </row>
+    <row r="33" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="120"/>
+      <c r="B33" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="120"/>
+      <c r="D33" s="120" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="120"/>
+      <c r="F33" s="120"/>
+      <c r="G33" s="120" t="s">
+        <v>3</v>
+      </c>
+      <c r="H33" s="120"/>
+      <c r="I33" s="120" t="s">
+        <v>17</v>
+      </c>
+      <c r="J33" s="120"/>
+      <c r="K33" s="120"/>
+      <c r="L33" s="120"/>
+      <c r="M33" s="120" t="s">
+        <v>9</v>
+      </c>
+      <c r="N33" s="120"/>
+      <c r="O33" s="120"/>
+      <c r="P33" s="120"/>
+      <c r="Q33" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="R33" s="121"/>
+    </row>
+    <row r="34" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="120"/>
+      <c r="B34" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="120"/>
+      <c r="D34" s="120" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="120"/>
+      <c r="F34" s="120"/>
+      <c r="G34" s="120" t="s">
+        <v>3</v>
+      </c>
+      <c r="H34" s="120"/>
+      <c r="I34" s="120" t="s">
+        <v>17</v>
+      </c>
+      <c r="J34" s="120"/>
+      <c r="K34" s="120"/>
+      <c r="L34" s="120"/>
+      <c r="M34" s="120" t="s">
+        <v>9</v>
+      </c>
+      <c r="N34" s="120"/>
+      <c r="O34" s="120"/>
+      <c r="P34" s="120"/>
+      <c r="Q34" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="R34" s="121"/>
+    </row>
+    <row r="35" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="120"/>
+      <c r="B35" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="120"/>
+      <c r="D35" s="120" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="120"/>
+      <c r="F35" s="120"/>
+      <c r="G35" s="120" t="s">
+        <v>3</v>
+      </c>
+      <c r="H35" s="120"/>
+      <c r="I35" s="120" t="s">
+        <v>17</v>
+      </c>
+      <c r="J35" s="120"/>
+      <c r="K35" s="120"/>
+      <c r="L35" s="120"/>
+      <c r="M35" s="120" t="s">
+        <v>9</v>
+      </c>
+      <c r="N35" s="120"/>
+      <c r="O35" s="120"/>
+      <c r="P35" s="120"/>
+      <c r="Q35" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="R35" s="121"/>
+    </row>
+    <row r="36" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="120"/>
+      <c r="B36" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="120"/>
+      <c r="D36" s="120" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" s="120"/>
+      <c r="F36" s="120"/>
+      <c r="G36" s="120" t="s">
+        <v>3</v>
+      </c>
+      <c r="H36" s="120"/>
+      <c r="I36" s="120" t="s">
+        <v>17</v>
+      </c>
+      <c r="J36" s="120"/>
+      <c r="K36" s="120"/>
+      <c r="L36" s="120"/>
+      <c r="M36" s="120" t="s">
+        <v>9</v>
+      </c>
+      <c r="N36" s="120"/>
+      <c r="O36" s="120"/>
+      <c r="P36" s="120"/>
+      <c r="Q36" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="R36" s="121"/>
+    </row>
+    <row r="37" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="120"/>
+      <c r="B37" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="120"/>
+      <c r="D37" s="120" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" s="120"/>
+      <c r="F37" s="120"/>
+      <c r="G37" s="120" t="s">
+        <v>3</v>
+      </c>
+      <c r="H37" s="120"/>
+      <c r="I37" s="120" t="s">
+        <v>17</v>
+      </c>
+      <c r="J37" s="120"/>
+      <c r="K37" s="120"/>
+      <c r="L37" s="120"/>
+      <c r="M37" s="120" t="s">
+        <v>9</v>
+      </c>
+      <c r="N37" s="120"/>
+      <c r="O37" s="120"/>
+      <c r="P37" s="120"/>
+      <c r="Q37" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="R37" s="121"/>
+    </row>
+    <row r="38" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="120"/>
+      <c r="B38" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="120"/>
+      <c r="D38" s="120" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" s="120"/>
+      <c r="F38" s="120"/>
+      <c r="G38" s="120" t="s">
+        <v>3</v>
+      </c>
+      <c r="H38" s="120"/>
+      <c r="I38" s="120" t="s">
+        <v>17</v>
+      </c>
+      <c r="J38" s="120"/>
+      <c r="K38" s="120"/>
+      <c r="L38" s="120"/>
+      <c r="M38" s="120" t="s">
+        <v>9</v>
+      </c>
+      <c r="N38" s="120"/>
+      <c r="O38" s="120"/>
+      <c r="P38" s="120"/>
+      <c r="Q38" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="R38" s="121"/>
+    </row>
+    <row r="39" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="120"/>
+      <c r="B39" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="120"/>
+      <c r="D39" s="120" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" s="120"/>
+      <c r="F39" s="120"/>
+      <c r="G39" s="120" t="s">
+        <v>3</v>
+      </c>
+      <c r="H39" s="120"/>
+      <c r="I39" s="120" t="s">
+        <v>17</v>
+      </c>
+      <c r="J39" s="120"/>
+      <c r="K39" s="120"/>
+      <c r="L39" s="120"/>
+      <c r="M39" s="120" t="s">
+        <v>9</v>
+      </c>
+      <c r="N39" s="120"/>
+      <c r="O39" s="120"/>
+      <c r="P39" s="120"/>
+      <c r="Q39" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="R39" s="121"/>
+    </row>
+    <row r="40" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="120"/>
+      <c r="B40" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="120"/>
+      <c r="D40" s="120" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" s="120"/>
+      <c r="F40" s="120"/>
+      <c r="G40" s="120" t="s">
+        <v>3</v>
+      </c>
+      <c r="H40" s="120"/>
+      <c r="I40" s="120" t="s">
+        <v>17</v>
+      </c>
+      <c r="J40" s="120"/>
+      <c r="K40" s="120"/>
+      <c r="L40" s="120"/>
+      <c r="M40" s="120" t="s">
+        <v>9</v>
+      </c>
+      <c r="N40" s="120"/>
+      <c r="O40" s="120"/>
+      <c r="P40" s="120"/>
+      <c r="Q40" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="R40" s="121"/>
+    </row>
+    <row r="41" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="120" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" s="120"/>
+      <c r="D41" s="120" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" s="120"/>
+      <c r="F41" s="120"/>
+      <c r="G41" s="120" t="s">
+        <v>3</v>
+      </c>
+      <c r="H41" s="120"/>
+      <c r="I41" s="120" t="s">
+        <v>17</v>
+      </c>
+      <c r="J41" s="120"/>
+      <c r="K41" s="120"/>
+      <c r="L41" s="120"/>
+      <c r="M41" s="120" t="s">
+        <v>9</v>
+      </c>
+      <c r="N41" s="120"/>
+      <c r="O41" s="120"/>
+      <c r="P41" s="120"/>
+      <c r="Q41" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="R41" s="121"/>
+    </row>
+    <row r="42" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="120" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" s="120"/>
+      <c r="D42" s="120" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42" s="120"/>
+      <c r="F42" s="120"/>
+      <c r="G42" s="120" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42" s="120"/>
+      <c r="I42" s="120" t="s">
+        <v>17</v>
+      </c>
+      <c r="J42" s="120"/>
+      <c r="K42" s="120"/>
+      <c r="L42" s="120"/>
+      <c r="M42" s="120" t="s">
+        <v>9</v>
+      </c>
+      <c r="N42" s="120"/>
+      <c r="O42" s="120"/>
+      <c r="P42" s="120"/>
+      <c r="Q42" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="R42" s="121"/>
+    </row>
+    <row r="43" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="120" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="120"/>
+      <c r="D43" s="120" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43" s="120"/>
+      <c r="F43" s="120"/>
+      <c r="G43" s="120" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" s="120"/>
+      <c r="I43" s="120" t="s">
+        <v>17</v>
+      </c>
+      <c r="J43" s="120"/>
+      <c r="K43" s="120"/>
+      <c r="L43" s="120"/>
+      <c r="M43" s="120" t="s">
+        <v>9</v>
+      </c>
+      <c r="N43" s="120"/>
+      <c r="O43" s="120"/>
+      <c r="P43" s="120"/>
+      <c r="Q43" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="R43" s="121"/>
+    </row>
+    <row r="44" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="122"/>
+      <c r="B44" s="122"/>
+      <c r="C44" s="122"/>
+      <c r="D44" s="122"/>
+      <c r="E44" s="122"/>
+      <c r="F44" s="122"/>
+      <c r="G44" s="122"/>
+      <c r="H44" s="122"/>
+      <c r="I44" s="122"/>
+      <c r="J44" s="122"/>
+      <c r="K44" s="122"/>
+      <c r="L44" s="122"/>
+      <c r="M44" s="122"/>
+      <c r="N44" s="122"/>
+      <c r="O44" s="122"/>
+      <c r="P44" s="122"/>
+      <c r="Q44" s="122"/>
+      <c r="R44" s="123"/>
+    </row>
+    <row r="45" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="122"/>
+      <c r="B45" s="122"/>
+      <c r="C45" s="122"/>
+      <c r="D45" s="122"/>
+      <c r="E45" s="122"/>
+      <c r="F45" s="122"/>
+      <c r="G45" s="122"/>
+      <c r="H45" s="122"/>
+      <c r="I45" s="122"/>
+      <c r="J45" s="122"/>
+      <c r="K45" s="122"/>
+      <c r="L45" s="122"/>
+      <c r="M45" s="122"/>
+      <c r="N45" s="122"/>
+      <c r="O45" s="122"/>
+      <c r="P45" s="122"/>
+      <c r="Q45" s="122"/>
+      <c r="R45" s="123"/>
+    </row>
+    <row r="46" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="122"/>
+      <c r="B46" s="122"/>
+      <c r="C46" s="122"/>
+      <c r="D46" s="122"/>
+      <c r="E46" s="122"/>
+      <c r="F46" s="122"/>
+      <c r="G46" s="122"/>
+      <c r="H46" s="122"/>
+      <c r="I46" s="122"/>
+      <c r="J46" s="122"/>
+      <c r="K46" s="122"/>
+      <c r="L46" s="122"/>
+      <c r="M46" s="122"/>
+      <c r="N46" s="122"/>
+      <c r="O46" s="122"/>
+      <c r="P46" s="122"/>
+      <c r="Q46" s="122"/>
+      <c r="R46" s="123"/>
+    </row>
+    <row r="47" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="122"/>
+      <c r="B47" s="122"/>
+      <c r="C47" s="122"/>
+      <c r="D47" s="122"/>
+      <c r="E47" s="122"/>
+      <c r="F47" s="122"/>
+      <c r="G47" s="122"/>
+      <c r="H47" s="122"/>
+      <c r="I47" s="122"/>
+      <c r="J47" s="122"/>
+      <c r="K47" s="122"/>
+      <c r="L47" s="122"/>
+      <c r="M47" s="122"/>
+      <c r="N47" s="122"/>
+      <c r="O47" s="122"/>
+      <c r="P47" s="122"/>
+      <c r="Q47" s="122"/>
+      <c r="R47" s="123"/>
+    </row>
+    <row r="48" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="122"/>
+      <c r="B48" s="122"/>
+      <c r="C48" s="122"/>
+      <c r="D48" s="122"/>
+      <c r="E48" s="122"/>
+      <c r="F48" s="122"/>
+      <c r="G48" s="122"/>
+      <c r="H48" s="122"/>
+      <c r="I48" s="122"/>
+      <c r="J48" s="122"/>
+      <c r="K48" s="122"/>
+      <c r="L48" s="122"/>
+      <c r="M48" s="122"/>
+      <c r="N48" s="122"/>
+      <c r="O48" s="122"/>
+      <c r="P48" s="122"/>
+      <c r="Q48" s="122"/>
+      <c r="R48" s="123"/>
+    </row>
+    <row r="49" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="122"/>
+      <c r="B49" s="122"/>
+      <c r="C49" s="122"/>
+      <c r="D49" s="122"/>
+      <c r="E49" s="122"/>
+      <c r="F49" s="122"/>
+      <c r="G49" s="122"/>
+      <c r="H49" s="122"/>
+      <c r="I49" s="122"/>
+      <c r="J49" s="122"/>
+      <c r="K49" s="122"/>
+      <c r="L49" s="122"/>
+      <c r="M49" s="122"/>
+      <c r="N49" s="122"/>
+      <c r="O49" s="122"/>
+      <c r="P49" s="122"/>
+      <c r="Q49" s="122"/>
+      <c r="R49" s="123"/>
+    </row>
+    <row r="50" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="122"/>
+      <c r="B50" s="122"/>
+      <c r="C50" s="122"/>
+      <c r="D50" s="122"/>
+      <c r="E50" s="122"/>
+      <c r="F50" s="122"/>
+      <c r="G50" s="122"/>
+      <c r="H50" s="122"/>
+      <c r="I50" s="122"/>
+      <c r="J50" s="122"/>
+      <c r="K50" s="122"/>
+      <c r="L50" s="122"/>
+      <c r="M50" s="122"/>
+      <c r="N50" s="122"/>
+      <c r="O50" s="122"/>
+      <c r="P50" s="122"/>
+      <c r="Q50" s="122"/>
+      <c r="R50" s="123"/>
+    </row>
+    <row r="51" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="122"/>
+      <c r="B51" s="122"/>
+      <c r="C51" s="122"/>
+      <c r="D51" s="122"/>
+      <c r="E51" s="122"/>
+      <c r="F51" s="122"/>
+      <c r="G51" s="122"/>
+      <c r="H51" s="122"/>
+      <c r="I51" s="122"/>
+      <c r="J51" s="122"/>
+      <c r="K51" s="122"/>
+      <c r="L51" s="122"/>
+      <c r="M51" s="122"/>
+      <c r="N51" s="122"/>
+      <c r="O51" s="122"/>
+      <c r="P51" s="122"/>
+      <c r="Q51" s="122"/>
+      <c r="R51" s="123"/>
+    </row>
+  </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <mergeCells count="2">
+    <mergeCell ref="Q2:Q7"/>
+    <mergeCell ref="I9:L9"/>
+  </mergeCells>
+  <pageMargins left="0.62992125984252001" right="0.23622047244093999" top="0.35433070866142002" bottom="0.55118110236219997" header="0.11811023622047" footer="0.31496062992126"/>
+  <pageSetup paperSize="9" scale="89" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;K04-044M&amp;"Arial,Normal"&amp;8ETCUT RECHERCHES S.A.S.
+22 rue du Moulin de la Garde – 44477 CARQUEFOU Cedex  (Nantes) FRANCE – Tel. +33 240 252 507 – www.metcutfrance.com
+S.A.S. au capital de 206 250€ - VAT FR10388107443 000 11</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/lib/PHPExcel/templates/Prestart.xlsx
+++ b/lib/PHPExcel/templates/Prestart.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\GPM\www\GPM\lib\PHPExcel\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A7186B26-C16D-43D4-8238-491FAC26F30B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="9255" windowHeight="5505" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="9255" windowHeight="5505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="DAILYCHECK OLD" sheetId="1" r:id="rId1"/>
-    <sheet name="DAILYCHECK" sheetId="2" r:id="rId2"/>
+    <sheet name="DAILYCHECK" sheetId="2" r:id="rId1"/>
+    <sheet name="DAILYCHECK OLD" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">DAILYCHECK!$A$1:$R$43</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'DAILYCHECK OLD'!$A$1:$O$53</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">DAILYCHECK!$A$1:$R$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'DAILYCHECK OLD'!$A$1:$O$53</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -255,7 +256,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
@@ -430,7 +431,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="53">
+  <borders count="54">
     <border>
       <left/>
       <right/>
@@ -1129,6 +1130,15 @@
       </top>
       <bottom style="thin">
         <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1138,7 +1148,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
@@ -1330,60 +1340,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1419,9 +1375,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1445,29 +1398,92 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1483,85 +1499,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1054" name="Picture 1" descr="Logo Metcut">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="28575" y="28575"/>
-          <a:ext cx="1019175" cy="1019175"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -1647,6 +1584,85 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1054" name="Picture 1" descr="Logo Metcut">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="28575" y="28575"/>
+          <a:ext cx="1019175" cy="1019175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1970,7 +1986,1569 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:Z51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="6.7109375" style="81" customWidth="1"/>
+    <col min="3" max="16" width="5.7109375" style="81" customWidth="1"/>
+    <col min="17" max="18" width="6.7109375" style="81" customWidth="1"/>
+    <col min="19" max="19" width="1.28515625" style="81" customWidth="1"/>
+    <col min="20" max="20" width="10.85546875" style="81"/>
+    <col min="21" max="16384" width="10.85546875" style="82"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:26" ht="60.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="83" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="85"/>
+      <c r="Q2" s="129" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="86" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="86"/>
+      <c r="E3" s="87" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="88"/>
+      <c r="G3" s="86" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="89"/>
+      <c r="I3" s="86" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="89"/>
+      <c r="K3" s="86" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" s="90" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" s="86"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="P3" s="86"/>
+      <c r="Q3" s="129"/>
+    </row>
+    <row r="4" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="92"/>
+      <c r="B4" s="92"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="92"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="94" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="92"/>
+      <c r="O4" s="92"/>
+      <c r="P4" s="92"/>
+      <c r="Q4" s="129"/>
+      <c r="W4" s="87"/>
+      <c r="X4" s="84"/>
+    </row>
+    <row r="5" spans="1:26" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="108" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="98" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" s="88"/>
+      <c r="K5" s="99" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" s="100"/>
+      <c r="M5" s="94"/>
+      <c r="Q5" s="129"/>
+      <c r="W5" s="100"/>
+      <c r="X5" s="94"/>
+    </row>
+    <row r="6" spans="1:26" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="86" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="86"/>
+      <c r="C6" s="86" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" s="86"/>
+      <c r="K6" s="86" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="86"/>
+      <c r="M6" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="N6" s="86"/>
+      <c r="O6" s="86" t="s">
+        <v>32</v>
+      </c>
+      <c r="P6" s="86"/>
+      <c r="Q6" s="129"/>
+      <c r="W6" s="100"/>
+      <c r="X6" s="81"/>
+    </row>
+    <row r="7" spans="1:26" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="94" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="94"/>
+      <c r="C7" s="94" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="94"/>
+      <c r="E7" s="94" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="94"/>
+      <c r="G7" s="94" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="94"/>
+      <c r="I7" s="92" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="92"/>
+      <c r="K7" s="94" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="94"/>
+      <c r="M7" s="92" t="s">
+        <v>46</v>
+      </c>
+      <c r="N7" s="92"/>
+      <c r="O7" s="94" t="s">
+        <v>24</v>
+      </c>
+      <c r="P7" s="92"/>
+      <c r="Q7" s="129"/>
+      <c r="W7" s="100"/>
+      <c r="X7" s="94"/>
+    </row>
+    <row r="8" spans="1:26" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="105" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="105" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="105"/>
+      <c r="D9" s="105" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="105"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="105" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="105"/>
+      <c r="I9" s="130" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="131"/>
+      <c r="K9" s="131"/>
+      <c r="L9" s="131"/>
+      <c r="M9" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="N9" s="105"/>
+      <c r="O9" s="105"/>
+      <c r="P9" s="105"/>
+      <c r="Q9" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="R9" s="105" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="101" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="101" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="101"/>
+      <c r="D10" s="101" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="101"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="101" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="101"/>
+      <c r="I10" s="101" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="101"/>
+      <c r="K10" s="101"/>
+      <c r="L10" s="101"/>
+      <c r="M10" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="N10" s="101"/>
+      <c r="O10" s="101"/>
+      <c r="P10" s="101"/>
+      <c r="Q10" s="101" t="s">
+        <v>8</v>
+      </c>
+      <c r="R10" s="102"/>
+      <c r="V10" s="86"/>
+      <c r="W10" s="86"/>
+    </row>
+    <row r="11" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="101" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="101" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="101"/>
+      <c r="D11" s="101" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="101"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="101" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="101"/>
+      <c r="I11" s="101" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="101"/>
+      <c r="K11" s="101"/>
+      <c r="L11" s="101"/>
+      <c r="M11" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="N11" s="101"/>
+      <c r="O11" s="101"/>
+      <c r="P11" s="101"/>
+      <c r="Q11" s="101" t="s">
+        <v>8</v>
+      </c>
+      <c r="R11" s="102"/>
+      <c r="V11" s="86"/>
+      <c r="W11" s="86"/>
+    </row>
+    <row r="12" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="101" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="101" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="101"/>
+      <c r="D12" s="101" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="101"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="101" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="101"/>
+      <c r="I12" s="101" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="101"/>
+      <c r="K12" s="101"/>
+      <c r="L12" s="101"/>
+      <c r="M12" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="N12" s="101"/>
+      <c r="O12" s="101"/>
+      <c r="P12" s="101"/>
+      <c r="Q12" s="101" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="102"/>
+      <c r="V12" s="94"/>
+      <c r="W12" s="92"/>
+    </row>
+    <row r="13" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="101" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="101" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="101"/>
+      <c r="D13" s="101" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="101"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="101" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" s="101"/>
+      <c r="I13" s="101" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="101"/>
+      <c r="K13" s="101"/>
+      <c r="L13" s="101"/>
+      <c r="M13" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="N13" s="101"/>
+      <c r="O13" s="101"/>
+      <c r="P13" s="101"/>
+      <c r="Q13" s="101" t="s">
+        <v>8</v>
+      </c>
+      <c r="R13" s="102"/>
+      <c r="V13" s="94"/>
+      <c r="W13" s="92"/>
+      <c r="X13" s="100"/>
+    </row>
+    <row r="14" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="101" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="101" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="101"/>
+      <c r="D14" s="101" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="101"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="101" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="101"/>
+      <c r="I14" s="101" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="101"/>
+      <c r="K14" s="101"/>
+      <c r="L14" s="101"/>
+      <c r="M14" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="N14" s="101"/>
+      <c r="O14" s="101"/>
+      <c r="P14" s="101"/>
+      <c r="Q14" s="101" t="s">
+        <v>8</v>
+      </c>
+      <c r="R14" s="102"/>
+      <c r="V14" s="87"/>
+      <c r="W14" s="89"/>
+      <c r="X14" s="95"/>
+      <c r="Y14" s="95"/>
+      <c r="Z14" s="95"/>
+    </row>
+    <row r="15" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="101" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="101" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="101"/>
+      <c r="D15" s="101" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="101"/>
+      <c r="F15" s="101"/>
+      <c r="G15" s="101" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="101"/>
+      <c r="I15" s="101" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="101"/>
+      <c r="K15" s="101"/>
+      <c r="L15" s="101"/>
+      <c r="M15" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="N15" s="101"/>
+      <c r="O15" s="101"/>
+      <c r="P15" s="101"/>
+      <c r="Q15" s="101" t="s">
+        <v>8</v>
+      </c>
+      <c r="R15" s="102"/>
+      <c r="V15" s="100"/>
+      <c r="W15" s="92"/>
+      <c r="X15" s="92"/>
+      <c r="Y15" s="93"/>
+      <c r="Z15" s="81"/>
+    </row>
+    <row r="16" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="101" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="101" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="101"/>
+      <c r="D16" s="101" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="101"/>
+      <c r="F16" s="101"/>
+      <c r="G16" s="101" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" s="101"/>
+      <c r="I16" s="101" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="101"/>
+      <c r="K16" s="101"/>
+      <c r="L16" s="101"/>
+      <c r="M16" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="N16" s="101"/>
+      <c r="O16" s="101"/>
+      <c r="P16" s="101"/>
+      <c r="Q16" s="101" t="s">
+        <v>8</v>
+      </c>
+      <c r="R16" s="102"/>
+    </row>
+    <row r="17" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="101" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="101" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="101"/>
+      <c r="D17" s="101" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="101"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="101" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" s="101"/>
+      <c r="I17" s="101" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="101"/>
+      <c r="K17" s="101"/>
+      <c r="L17" s="101"/>
+      <c r="M17" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="N17" s="101"/>
+      <c r="O17" s="101"/>
+      <c r="P17" s="101"/>
+      <c r="Q17" s="101" t="s">
+        <v>8</v>
+      </c>
+      <c r="R17" s="102"/>
+    </row>
+    <row r="18" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="101" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="101" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="101"/>
+      <c r="D18" s="101" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="101"/>
+      <c r="F18" s="101"/>
+      <c r="G18" s="101" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="101"/>
+      <c r="I18" s="101" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="101"/>
+      <c r="K18" s="101"/>
+      <c r="L18" s="101"/>
+      <c r="M18" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="N18" s="101"/>
+      <c r="O18" s="101"/>
+      <c r="P18" s="101"/>
+      <c r="Q18" s="101" t="s">
+        <v>8</v>
+      </c>
+      <c r="R18" s="102"/>
+    </row>
+    <row r="19" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="101" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="101" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="101"/>
+      <c r="D19" s="101" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="101"/>
+      <c r="F19" s="101"/>
+      <c r="G19" s="101" t="s">
+        <v>3</v>
+      </c>
+      <c r="H19" s="101"/>
+      <c r="I19" s="101" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="101"/>
+      <c r="K19" s="101"/>
+      <c r="L19" s="101"/>
+      <c r="M19" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="N19" s="101"/>
+      <c r="O19" s="101"/>
+      <c r="P19" s="101"/>
+      <c r="Q19" s="101" t="s">
+        <v>8</v>
+      </c>
+      <c r="R19" s="102"/>
+    </row>
+    <row r="20" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="101" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="101" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="101"/>
+      <c r="D20" s="101" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="101"/>
+      <c r="F20" s="101"/>
+      <c r="G20" s="101" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" s="101"/>
+      <c r="I20" s="101" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="101"/>
+      <c r="K20" s="101"/>
+      <c r="L20" s="101"/>
+      <c r="M20" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="N20" s="101"/>
+      <c r="O20" s="101"/>
+      <c r="P20" s="101"/>
+      <c r="Q20" s="101" t="s">
+        <v>8</v>
+      </c>
+      <c r="R20" s="102"/>
+    </row>
+    <row r="21" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="101" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="101" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="101"/>
+      <c r="D21" s="101" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="101"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="101" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="101"/>
+      <c r="I21" s="101" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="101"/>
+      <c r="K21" s="101"/>
+      <c r="L21" s="101"/>
+      <c r="M21" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="N21" s="101"/>
+      <c r="O21" s="101"/>
+      <c r="P21" s="101"/>
+      <c r="Q21" s="101" t="s">
+        <v>8</v>
+      </c>
+      <c r="R21" s="102"/>
+    </row>
+    <row r="22" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="101" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="101" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="101"/>
+      <c r="D22" s="101" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="101"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="101" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="101"/>
+      <c r="I22" s="101" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" s="101"/>
+      <c r="K22" s="101"/>
+      <c r="L22" s="101"/>
+      <c r="M22" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="N22" s="101"/>
+      <c r="O22" s="101"/>
+      <c r="P22" s="101"/>
+      <c r="Q22" s="101" t="s">
+        <v>8</v>
+      </c>
+      <c r="R22" s="102"/>
+    </row>
+    <row r="23" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="101" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="101" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="101"/>
+      <c r="D23" s="101" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="101"/>
+      <c r="F23" s="101"/>
+      <c r="G23" s="101" t="s">
+        <v>3</v>
+      </c>
+      <c r="H23" s="101"/>
+      <c r="I23" s="101" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" s="101"/>
+      <c r="K23" s="101"/>
+      <c r="L23" s="101"/>
+      <c r="M23" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="N23" s="101"/>
+      <c r="O23" s="101"/>
+      <c r="P23" s="101"/>
+      <c r="Q23" s="101" t="s">
+        <v>8</v>
+      </c>
+      <c r="R23" s="102"/>
+    </row>
+    <row r="24" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="101" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="101" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="101"/>
+      <c r="D24" s="101" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="101"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="101" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" s="101"/>
+      <c r="I24" s="101" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" s="101"/>
+      <c r="K24" s="101"/>
+      <c r="L24" s="101"/>
+      <c r="M24" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="N24" s="101"/>
+      <c r="O24" s="101"/>
+      <c r="P24" s="101"/>
+      <c r="Q24" s="101" t="s">
+        <v>8</v>
+      </c>
+      <c r="R24" s="102"/>
+    </row>
+    <row r="25" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="101" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="101" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="101"/>
+      <c r="D25" s="101" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="101"/>
+      <c r="F25" s="101"/>
+      <c r="G25" s="101" t="s">
+        <v>3</v>
+      </c>
+      <c r="H25" s="101"/>
+      <c r="I25" s="101" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" s="101"/>
+      <c r="K25" s="101"/>
+      <c r="L25" s="101"/>
+      <c r="M25" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="N25" s="101"/>
+      <c r="O25" s="101"/>
+      <c r="P25" s="101"/>
+      <c r="Q25" s="101" t="s">
+        <v>8</v>
+      </c>
+      <c r="R25" s="102"/>
+    </row>
+    <row r="26" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="101" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="101" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="101"/>
+      <c r="D26" s="101" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="101"/>
+      <c r="F26" s="101"/>
+      <c r="G26" s="101" t="s">
+        <v>3</v>
+      </c>
+      <c r="H26" s="101"/>
+      <c r="I26" s="101" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" s="101"/>
+      <c r="K26" s="101"/>
+      <c r="L26" s="101"/>
+      <c r="M26" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="N26" s="101"/>
+      <c r="O26" s="101"/>
+      <c r="P26" s="101"/>
+      <c r="Q26" s="101" t="s">
+        <v>8</v>
+      </c>
+      <c r="R26" s="102"/>
+    </row>
+    <row r="27" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="101" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="101" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="101"/>
+      <c r="D27" s="101" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="101"/>
+      <c r="F27" s="101"/>
+      <c r="G27" s="101" t="s">
+        <v>3</v>
+      </c>
+      <c r="H27" s="101"/>
+      <c r="I27" s="101" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" s="101"/>
+      <c r="K27" s="101"/>
+      <c r="L27" s="101"/>
+      <c r="M27" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="N27" s="101"/>
+      <c r="O27" s="101"/>
+      <c r="P27" s="101"/>
+      <c r="Q27" s="101" t="s">
+        <v>8</v>
+      </c>
+      <c r="R27" s="102"/>
+    </row>
+    <row r="28" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="101" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="101" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="101"/>
+      <c r="D28" s="101" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="101"/>
+      <c r="F28" s="101"/>
+      <c r="G28" s="101" t="s">
+        <v>3</v>
+      </c>
+      <c r="H28" s="101"/>
+      <c r="I28" s="101" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28" s="101"/>
+      <c r="K28" s="101"/>
+      <c r="L28" s="101"/>
+      <c r="M28" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="N28" s="101"/>
+      <c r="O28" s="101"/>
+      <c r="P28" s="101"/>
+      <c r="Q28" s="101" t="s">
+        <v>8</v>
+      </c>
+      <c r="R28" s="102"/>
+    </row>
+    <row r="29" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="101" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="101" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="101"/>
+      <c r="D29" s="101" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="101"/>
+      <c r="F29" s="101"/>
+      <c r="G29" s="101" t="s">
+        <v>3</v>
+      </c>
+      <c r="H29" s="101"/>
+      <c r="I29" s="101" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29" s="101"/>
+      <c r="K29" s="101"/>
+      <c r="L29" s="101"/>
+      <c r="M29" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="N29" s="101"/>
+      <c r="O29" s="101"/>
+      <c r="P29" s="101"/>
+      <c r="Q29" s="101" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="102"/>
+    </row>
+    <row r="30" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="101"/>
+      <c r="B30" s="101" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="101"/>
+      <c r="D30" s="101" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="101"/>
+      <c r="F30" s="101"/>
+      <c r="G30" s="101" t="s">
+        <v>3</v>
+      </c>
+      <c r="H30" s="101"/>
+      <c r="I30" s="101" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30" s="101"/>
+      <c r="K30" s="101"/>
+      <c r="L30" s="101"/>
+      <c r="M30" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="N30" s="101"/>
+      <c r="O30" s="101"/>
+      <c r="P30" s="101"/>
+      <c r="Q30" s="101" t="s">
+        <v>8</v>
+      </c>
+      <c r="R30" s="102"/>
+    </row>
+    <row r="31" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="101"/>
+      <c r="B31" s="101" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="101"/>
+      <c r="D31" s="101" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="101"/>
+      <c r="F31" s="101"/>
+      <c r="G31" s="101" t="s">
+        <v>3</v>
+      </c>
+      <c r="H31" s="101"/>
+      <c r="I31" s="101" t="s">
+        <v>17</v>
+      </c>
+      <c r="J31" s="101"/>
+      <c r="K31" s="101"/>
+      <c r="L31" s="101"/>
+      <c r="M31" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="N31" s="101"/>
+      <c r="O31" s="101"/>
+      <c r="P31" s="101"/>
+      <c r="Q31" s="101" t="s">
+        <v>8</v>
+      </c>
+      <c r="R31" s="102"/>
+    </row>
+    <row r="32" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="101"/>
+      <c r="B32" s="101" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="101"/>
+      <c r="D32" s="101" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="101"/>
+      <c r="F32" s="101"/>
+      <c r="G32" s="101" t="s">
+        <v>3</v>
+      </c>
+      <c r="H32" s="101"/>
+      <c r="I32" s="101" t="s">
+        <v>17</v>
+      </c>
+      <c r="J32" s="101"/>
+      <c r="K32" s="101"/>
+      <c r="L32" s="101"/>
+      <c r="M32" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="N32" s="101"/>
+      <c r="O32" s="101"/>
+      <c r="P32" s="101"/>
+      <c r="Q32" s="101" t="s">
+        <v>8</v>
+      </c>
+      <c r="R32" s="102"/>
+    </row>
+    <row r="33" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="101"/>
+      <c r="B33" s="101" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="101"/>
+      <c r="D33" s="101" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="101"/>
+      <c r="F33" s="101"/>
+      <c r="G33" s="101" t="s">
+        <v>3</v>
+      </c>
+      <c r="H33" s="101"/>
+      <c r="I33" s="101" t="s">
+        <v>17</v>
+      </c>
+      <c r="J33" s="101"/>
+      <c r="K33" s="101"/>
+      <c r="L33" s="101"/>
+      <c r="M33" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="N33" s="101"/>
+      <c r="O33" s="101"/>
+      <c r="P33" s="101"/>
+      <c r="Q33" s="101" t="s">
+        <v>8</v>
+      </c>
+      <c r="R33" s="102"/>
+    </row>
+    <row r="34" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="101"/>
+      <c r="B34" s="101" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="101"/>
+      <c r="D34" s="101" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="101"/>
+      <c r="F34" s="101"/>
+      <c r="G34" s="101" t="s">
+        <v>3</v>
+      </c>
+      <c r="H34" s="101"/>
+      <c r="I34" s="101" t="s">
+        <v>17</v>
+      </c>
+      <c r="J34" s="101"/>
+      <c r="K34" s="101"/>
+      <c r="L34" s="101"/>
+      <c r="M34" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="N34" s="101"/>
+      <c r="O34" s="101"/>
+      <c r="P34" s="101"/>
+      <c r="Q34" s="101" t="s">
+        <v>8</v>
+      </c>
+      <c r="R34" s="102"/>
+    </row>
+    <row r="35" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="101"/>
+      <c r="B35" s="101" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="101"/>
+      <c r="D35" s="101" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="101"/>
+      <c r="F35" s="101"/>
+      <c r="G35" s="101" t="s">
+        <v>3</v>
+      </c>
+      <c r="H35" s="101"/>
+      <c r="I35" s="101" t="s">
+        <v>17</v>
+      </c>
+      <c r="J35" s="101"/>
+      <c r="K35" s="101"/>
+      <c r="L35" s="101"/>
+      <c r="M35" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="N35" s="101"/>
+      <c r="O35" s="101"/>
+      <c r="P35" s="101"/>
+      <c r="Q35" s="101" t="s">
+        <v>8</v>
+      </c>
+      <c r="R35" s="102"/>
+    </row>
+    <row r="36" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="101"/>
+      <c r="B36" s="101" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="101"/>
+      <c r="D36" s="101" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" s="101"/>
+      <c r="F36" s="101"/>
+      <c r="G36" s="101" t="s">
+        <v>3</v>
+      </c>
+      <c r="H36" s="101"/>
+      <c r="I36" s="101" t="s">
+        <v>17</v>
+      </c>
+      <c r="J36" s="101"/>
+      <c r="K36" s="101"/>
+      <c r="L36" s="101"/>
+      <c r="M36" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="N36" s="101"/>
+      <c r="O36" s="101"/>
+      <c r="P36" s="101"/>
+      <c r="Q36" s="101" t="s">
+        <v>8</v>
+      </c>
+      <c r="R36" s="102"/>
+    </row>
+    <row r="37" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="101"/>
+      <c r="B37" s="101" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="101"/>
+      <c r="D37" s="101" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" s="101"/>
+      <c r="F37" s="101"/>
+      <c r="G37" s="101" t="s">
+        <v>3</v>
+      </c>
+      <c r="H37" s="101"/>
+      <c r="I37" s="101" t="s">
+        <v>17</v>
+      </c>
+      <c r="J37" s="101"/>
+      <c r="K37" s="101"/>
+      <c r="L37" s="101"/>
+      <c r="M37" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="N37" s="101"/>
+      <c r="O37" s="101"/>
+      <c r="P37" s="101"/>
+      <c r="Q37" s="101" t="s">
+        <v>8</v>
+      </c>
+      <c r="R37" s="102"/>
+    </row>
+    <row r="38" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="101"/>
+      <c r="B38" s="101" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="101"/>
+      <c r="D38" s="101" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" s="101"/>
+      <c r="F38" s="101"/>
+      <c r="G38" s="101" t="s">
+        <v>3</v>
+      </c>
+      <c r="H38" s="101"/>
+      <c r="I38" s="101" t="s">
+        <v>17</v>
+      </c>
+      <c r="J38" s="101"/>
+      <c r="K38" s="101"/>
+      <c r="L38" s="101"/>
+      <c r="M38" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="N38" s="101"/>
+      <c r="O38" s="101"/>
+      <c r="P38" s="101"/>
+      <c r="Q38" s="101" t="s">
+        <v>8</v>
+      </c>
+      <c r="R38" s="102"/>
+    </row>
+    <row r="39" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="101"/>
+      <c r="B39" s="101" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="101"/>
+      <c r="D39" s="101" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" s="101"/>
+      <c r="F39" s="101"/>
+      <c r="G39" s="101" t="s">
+        <v>3</v>
+      </c>
+      <c r="H39" s="101"/>
+      <c r="I39" s="101" t="s">
+        <v>17</v>
+      </c>
+      <c r="J39" s="101"/>
+      <c r="K39" s="101"/>
+      <c r="L39" s="101"/>
+      <c r="M39" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="N39" s="101"/>
+      <c r="O39" s="101"/>
+      <c r="P39" s="101"/>
+      <c r="Q39" s="101" t="s">
+        <v>8</v>
+      </c>
+      <c r="R39" s="102"/>
+    </row>
+    <row r="40" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="101"/>
+      <c r="B40" s="101" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="101"/>
+      <c r="D40" s="101" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" s="101"/>
+      <c r="F40" s="101"/>
+      <c r="G40" s="101" t="s">
+        <v>3</v>
+      </c>
+      <c r="H40" s="101"/>
+      <c r="I40" s="101" t="s">
+        <v>17</v>
+      </c>
+      <c r="J40" s="101"/>
+      <c r="K40" s="101"/>
+      <c r="L40" s="101"/>
+      <c r="M40" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="N40" s="101"/>
+      <c r="O40" s="101"/>
+      <c r="P40" s="101"/>
+      <c r="Q40" s="101" t="s">
+        <v>8</v>
+      </c>
+      <c r="R40" s="102"/>
+    </row>
+    <row r="41" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="101" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="101" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" s="101"/>
+      <c r="D41" s="101" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" s="101"/>
+      <c r="F41" s="101"/>
+      <c r="G41" s="101" t="s">
+        <v>3</v>
+      </c>
+      <c r="H41" s="101"/>
+      <c r="I41" s="101" t="s">
+        <v>17</v>
+      </c>
+      <c r="J41" s="101"/>
+      <c r="K41" s="101"/>
+      <c r="L41" s="101"/>
+      <c r="M41" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="N41" s="101"/>
+      <c r="O41" s="101"/>
+      <c r="P41" s="101"/>
+      <c r="Q41" s="101" t="s">
+        <v>8</v>
+      </c>
+      <c r="R41" s="102"/>
+    </row>
+    <row r="42" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="101" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42" s="101" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" s="101"/>
+      <c r="D42" s="101" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42" s="101"/>
+      <c r="F42" s="101"/>
+      <c r="G42" s="101" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42" s="101"/>
+      <c r="I42" s="101" t="s">
+        <v>17</v>
+      </c>
+      <c r="J42" s="101"/>
+      <c r="K42" s="101"/>
+      <c r="L42" s="101"/>
+      <c r="M42" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="N42" s="101"/>
+      <c r="O42" s="101"/>
+      <c r="P42" s="101"/>
+      <c r="Q42" s="101" t="s">
+        <v>8</v>
+      </c>
+      <c r="R42" s="102"/>
+    </row>
+    <row r="43" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="101" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" s="101" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="101"/>
+      <c r="D43" s="101" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43" s="101"/>
+      <c r="F43" s="101"/>
+      <c r="G43" s="101" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" s="101"/>
+      <c r="I43" s="101" t="s">
+        <v>17</v>
+      </c>
+      <c r="J43" s="101"/>
+      <c r="K43" s="101"/>
+      <c r="L43" s="101"/>
+      <c r="M43" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="N43" s="101"/>
+      <c r="O43" s="101"/>
+      <c r="P43" s="101"/>
+      <c r="Q43" s="101" t="s">
+        <v>8</v>
+      </c>
+      <c r="R43" s="102"/>
+    </row>
+    <row r="44" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="103"/>
+      <c r="B44" s="103"/>
+      <c r="C44" s="103"/>
+      <c r="D44" s="103"/>
+      <c r="E44" s="103"/>
+      <c r="F44" s="103"/>
+      <c r="G44" s="103"/>
+      <c r="H44" s="103"/>
+      <c r="I44" s="103"/>
+      <c r="J44" s="103"/>
+      <c r="K44" s="103"/>
+      <c r="L44" s="103"/>
+      <c r="M44" s="103"/>
+      <c r="N44" s="103"/>
+      <c r="O44" s="103"/>
+      <c r="P44" s="103"/>
+      <c r="Q44" s="103"/>
+      <c r="R44" s="104"/>
+    </row>
+    <row r="45" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="103"/>
+      <c r="B45" s="103"/>
+      <c r="C45" s="103"/>
+      <c r="D45" s="103"/>
+      <c r="E45" s="103"/>
+      <c r="F45" s="103"/>
+      <c r="G45" s="103"/>
+      <c r="H45" s="103"/>
+      <c r="I45" s="103"/>
+      <c r="J45" s="103"/>
+      <c r="K45" s="103"/>
+      <c r="L45" s="103"/>
+      <c r="M45" s="103"/>
+      <c r="N45" s="103"/>
+      <c r="O45" s="103"/>
+      <c r="P45" s="103"/>
+      <c r="Q45" s="103"/>
+      <c r="R45" s="104"/>
+    </row>
+    <row r="46" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="103"/>
+      <c r="B46" s="103"/>
+      <c r="C46" s="103"/>
+      <c r="D46" s="103"/>
+      <c r="E46" s="103"/>
+      <c r="F46" s="103"/>
+      <c r="G46" s="103"/>
+      <c r="H46" s="103"/>
+      <c r="I46" s="103"/>
+      <c r="J46" s="103"/>
+      <c r="K46" s="103"/>
+      <c r="L46" s="103"/>
+      <c r="M46" s="103"/>
+      <c r="N46" s="103"/>
+      <c r="O46" s="103"/>
+      <c r="P46" s="103"/>
+      <c r="Q46" s="103"/>
+      <c r="R46" s="104"/>
+    </row>
+    <row r="47" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="103"/>
+      <c r="B47" s="103"/>
+      <c r="C47" s="103"/>
+      <c r="D47" s="103"/>
+      <c r="E47" s="103"/>
+      <c r="F47" s="103"/>
+      <c r="G47" s="103"/>
+      <c r="H47" s="103"/>
+      <c r="I47" s="103"/>
+      <c r="J47" s="103"/>
+      <c r="K47" s="103"/>
+      <c r="L47" s="103"/>
+      <c r="M47" s="103"/>
+      <c r="N47" s="103"/>
+      <c r="O47" s="103"/>
+      <c r="P47" s="103"/>
+      <c r="Q47" s="103"/>
+      <c r="R47" s="104"/>
+    </row>
+    <row r="48" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="103"/>
+      <c r="B48" s="103"/>
+      <c r="C48" s="103"/>
+      <c r="D48" s="103"/>
+      <c r="E48" s="103"/>
+      <c r="F48" s="103"/>
+      <c r="G48" s="103"/>
+      <c r="H48" s="103"/>
+      <c r="I48" s="103"/>
+      <c r="J48" s="103"/>
+      <c r="K48" s="103"/>
+      <c r="L48" s="103"/>
+      <c r="M48" s="103"/>
+      <c r="N48" s="103"/>
+      <c r="O48" s="103"/>
+      <c r="P48" s="103"/>
+      <c r="Q48" s="103"/>
+      <c r="R48" s="104"/>
+    </row>
+    <row r="49" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="103"/>
+      <c r="B49" s="103"/>
+      <c r="C49" s="103"/>
+      <c r="D49" s="103"/>
+      <c r="E49" s="103"/>
+      <c r="F49" s="103"/>
+      <c r="G49" s="103"/>
+      <c r="H49" s="103"/>
+      <c r="I49" s="103"/>
+      <c r="J49" s="103"/>
+      <c r="K49" s="103"/>
+      <c r="L49" s="103"/>
+      <c r="M49" s="103"/>
+      <c r="N49" s="103"/>
+      <c r="O49" s="103"/>
+      <c r="P49" s="103"/>
+      <c r="Q49" s="103"/>
+      <c r="R49" s="104"/>
+    </row>
+    <row r="50" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="103"/>
+      <c r="B50" s="103"/>
+      <c r="C50" s="103"/>
+      <c r="D50" s="103"/>
+      <c r="E50" s="103"/>
+      <c r="F50" s="103"/>
+      <c r="G50" s="103"/>
+      <c r="H50" s="103"/>
+      <c r="I50" s="103"/>
+      <c r="J50" s="103"/>
+      <c r="K50" s="103"/>
+      <c r="L50" s="103"/>
+      <c r="M50" s="103"/>
+      <c r="N50" s="103"/>
+      <c r="O50" s="103"/>
+      <c r="P50" s="103"/>
+      <c r="Q50" s="103"/>
+      <c r="R50" s="104"/>
+    </row>
+    <row r="51" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="103"/>
+      <c r="B51" s="103"/>
+      <c r="C51" s="103"/>
+      <c r="D51" s="103"/>
+      <c r="E51" s="103"/>
+      <c r="F51" s="103"/>
+      <c r="G51" s="103"/>
+      <c r="H51" s="103"/>
+      <c r="I51" s="103"/>
+      <c r="J51" s="103"/>
+      <c r="K51" s="103"/>
+      <c r="L51" s="103"/>
+      <c r="M51" s="103"/>
+      <c r="N51" s="103"/>
+      <c r="O51" s="103"/>
+      <c r="P51" s="103"/>
+      <c r="Q51" s="103"/>
+      <c r="R51" s="104"/>
+    </row>
+  </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <mergeCells count="2">
+    <mergeCell ref="Q2:Q7"/>
+    <mergeCell ref="I9:L9"/>
+  </mergeCells>
+  <pageMargins left="0.62992125984252001" right="0.23622047244093999" top="0.35433070866142002" bottom="0.55118110236219997" header="0.11811023622047" footer="0.31496062992126"/>
+  <pageSetup paperSize="9" scale="89" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;K04-044M&amp;"Arial,Normal"&amp;8ETCUT RECHERCHES S.A.S.
+22 rue du Moulin de la Garde – 44477 CARQUEFOU Cedex  (Nantes) FRANCE – Tel. +33 240 252 507 – www.metcutfrance.com
+S.A.S. au capital de 206 250€ - VAT FR10388107443 000 11</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -2052,8 +3630,8 @@
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
       <c r="F6" s="73"/>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
@@ -2062,9 +3640,9 @@
       <c r="L6" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="M6" s="81"/>
-      <c r="N6" s="81"/>
-      <c r="O6" s="81"/>
+      <c r="M6" s="111"/>
+      <c r="N6" s="111"/>
+      <c r="O6" s="111"/>
     </row>
     <row r="7" spans="1:17" s="10" customFormat="1" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="11"/>
@@ -2084,8 +3662,8 @@
       <c r="B8" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="83"/>
-      <c r="D8" s="83"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="113"/>
       <c r="E8" s="14"/>
       <c r="F8" s="26" t="s">
         <v>11</v>
@@ -2157,8 +3735,8 @@
         <v>12</v>
       </c>
       <c r="B11" s="45"/>
-      <c r="C11" s="88"/>
-      <c r="D11" s="89"/>
+      <c r="C11" s="118"/>
+      <c r="D11" s="119"/>
       <c r="E11" s="78"/>
       <c r="F11" s="40"/>
       <c r="G11" s="39"/>
@@ -2184,8 +3762,8 @@
         <v>13</v>
       </c>
       <c r="B12" s="46"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="87"/>
+      <c r="C12" s="116"/>
+      <c r="D12" s="117"/>
       <c r="E12" s="79"/>
       <c r="F12" s="42"/>
       <c r="G12" s="41"/>
@@ -2211,8 +3789,8 @@
         <v>14</v>
       </c>
       <c r="B13" s="47"/>
-      <c r="C13" s="84"/>
-      <c r="D13" s="85"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="115"/>
       <c r="E13" s="80"/>
       <c r="F13" s="44"/>
       <c r="G13" s="43"/>
@@ -2341,596 +3919,596 @@
     </row>
     <row r="19" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="60"/>
-      <c r="B19" s="98"/>
-      <c r="C19" s="94"/>
-      <c r="D19" s="98"/>
-      <c r="E19" s="94"/>
+      <c r="B19" s="128"/>
+      <c r="C19" s="124"/>
+      <c r="D19" s="128"/>
+      <c r="E19" s="124"/>
       <c r="F19" s="61"/>
       <c r="G19" s="71"/>
       <c r="H19" s="57"/>
-      <c r="I19" s="93"/>
-      <c r="J19" s="94"/>
-      <c r="K19" s="98"/>
-      <c r="L19" s="93"/>
-      <c r="M19" s="94"/>
+      <c r="I19" s="123"/>
+      <c r="J19" s="124"/>
+      <c r="K19" s="128"/>
+      <c r="L19" s="123"/>
+      <c r="M19" s="124"/>
       <c r="N19" s="61"/>
       <c r="O19" s="62"/>
     </row>
     <row r="20" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="63"/>
-      <c r="B20" s="92"/>
-      <c r="C20" s="91"/>
-      <c r="D20" s="92"/>
-      <c r="E20" s="91"/>
+      <c r="B20" s="122"/>
+      <c r="C20" s="121"/>
+      <c r="D20" s="122"/>
+      <c r="E20" s="121"/>
       <c r="F20" s="64"/>
       <c r="G20" s="69"/>
       <c r="H20" s="58"/>
-      <c r="I20" s="90"/>
-      <c r="J20" s="91"/>
-      <c r="K20" s="92"/>
-      <c r="L20" s="90"/>
-      <c r="M20" s="91"/>
+      <c r="I20" s="120"/>
+      <c r="J20" s="121"/>
+      <c r="K20" s="122"/>
+      <c r="L20" s="120"/>
+      <c r="M20" s="121"/>
       <c r="N20" s="64"/>
       <c r="O20" s="65"/>
     </row>
     <row r="21" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="63"/>
-      <c r="B21" s="92"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="91"/>
+      <c r="B21" s="122"/>
+      <c r="C21" s="121"/>
+      <c r="D21" s="122"/>
+      <c r="E21" s="121"/>
       <c r="F21" s="64"/>
       <c r="G21" s="69"/>
       <c r="H21" s="58"/>
-      <c r="I21" s="90"/>
-      <c r="J21" s="91"/>
-      <c r="K21" s="92"/>
-      <c r="L21" s="90"/>
-      <c r="M21" s="91"/>
+      <c r="I21" s="120"/>
+      <c r="J21" s="121"/>
+      <c r="K21" s="122"/>
+      <c r="L21" s="120"/>
+      <c r="M21" s="121"/>
       <c r="N21" s="64"/>
       <c r="O21" s="65"/>
     </row>
     <row r="22" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="63"/>
-      <c r="B22" s="92"/>
-      <c r="C22" s="91"/>
-      <c r="D22" s="92"/>
-      <c r="E22" s="91"/>
+      <c r="B22" s="122"/>
+      <c r="C22" s="121"/>
+      <c r="D22" s="122"/>
+      <c r="E22" s="121"/>
       <c r="F22" s="64"/>
       <c r="G22" s="69"/>
       <c r="H22" s="58"/>
-      <c r="I22" s="90"/>
-      <c r="J22" s="91"/>
-      <c r="K22" s="92"/>
-      <c r="L22" s="90"/>
-      <c r="M22" s="91"/>
+      <c r="I22" s="120"/>
+      <c r="J22" s="121"/>
+      <c r="K22" s="122"/>
+      <c r="L22" s="120"/>
+      <c r="M22" s="121"/>
       <c r="N22" s="64"/>
       <c r="O22" s="65"/>
     </row>
     <row r="23" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="63"/>
-      <c r="B23" s="92"/>
-      <c r="C23" s="91"/>
-      <c r="D23" s="92"/>
-      <c r="E23" s="91"/>
+      <c r="B23" s="122"/>
+      <c r="C23" s="121"/>
+      <c r="D23" s="122"/>
+      <c r="E23" s="121"/>
       <c r="F23" s="64"/>
       <c r="G23" s="69"/>
       <c r="H23" s="58"/>
-      <c r="I23" s="90"/>
-      <c r="J23" s="91"/>
-      <c r="K23" s="92"/>
-      <c r="L23" s="90"/>
-      <c r="M23" s="91"/>
+      <c r="I23" s="120"/>
+      <c r="J23" s="121"/>
+      <c r="K23" s="122"/>
+      <c r="L23" s="120"/>
+      <c r="M23" s="121"/>
       <c r="N23" s="64"/>
       <c r="O23" s="65"/>
     </row>
     <row r="24" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="63"/>
-      <c r="B24" s="92"/>
-      <c r="C24" s="91"/>
-      <c r="D24" s="92"/>
-      <c r="E24" s="91"/>
+      <c r="B24" s="122"/>
+      <c r="C24" s="121"/>
+      <c r="D24" s="122"/>
+      <c r="E24" s="121"/>
       <c r="F24" s="64"/>
       <c r="G24" s="69"/>
       <c r="H24" s="58"/>
-      <c r="I24" s="90"/>
-      <c r="J24" s="91"/>
-      <c r="K24" s="92"/>
-      <c r="L24" s="90"/>
-      <c r="M24" s="91"/>
+      <c r="I24" s="120"/>
+      <c r="J24" s="121"/>
+      <c r="K24" s="122"/>
+      <c r="L24" s="120"/>
+      <c r="M24" s="121"/>
       <c r="N24" s="64"/>
       <c r="O24" s="65"/>
     </row>
     <row r="25" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="63"/>
-      <c r="B25" s="92"/>
-      <c r="C25" s="91"/>
-      <c r="D25" s="92"/>
-      <c r="E25" s="91"/>
+      <c r="B25" s="122"/>
+      <c r="C25" s="121"/>
+      <c r="D25" s="122"/>
+      <c r="E25" s="121"/>
       <c r="F25" s="64"/>
       <c r="G25" s="69"/>
       <c r="H25" s="58"/>
-      <c r="I25" s="90"/>
-      <c r="J25" s="91"/>
-      <c r="K25" s="92"/>
-      <c r="L25" s="90"/>
-      <c r="M25" s="91"/>
+      <c r="I25" s="120"/>
+      <c r="J25" s="121"/>
+      <c r="K25" s="122"/>
+      <c r="L25" s="120"/>
+      <c r="M25" s="121"/>
       <c r="N25" s="64"/>
       <c r="O25" s="65"/>
     </row>
     <row r="26" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="63"/>
-      <c r="B26" s="92"/>
-      <c r="C26" s="91"/>
-      <c r="D26" s="92"/>
-      <c r="E26" s="91"/>
+      <c r="B26" s="122"/>
+      <c r="C26" s="121"/>
+      <c r="D26" s="122"/>
+      <c r="E26" s="121"/>
       <c r="F26" s="64"/>
       <c r="G26" s="69"/>
       <c r="H26" s="58"/>
-      <c r="I26" s="90"/>
-      <c r="J26" s="91"/>
-      <c r="K26" s="92"/>
-      <c r="L26" s="90"/>
-      <c r="M26" s="91"/>
+      <c r="I26" s="120"/>
+      <c r="J26" s="121"/>
+      <c r="K26" s="122"/>
+      <c r="L26" s="120"/>
+      <c r="M26" s="121"/>
       <c r="N26" s="64"/>
       <c r="O26" s="65"/>
     </row>
     <row r="27" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="63"/>
-      <c r="B27" s="92"/>
-      <c r="C27" s="91"/>
-      <c r="D27" s="92"/>
-      <c r="E27" s="91"/>
+      <c r="B27" s="122"/>
+      <c r="C27" s="121"/>
+      <c r="D27" s="122"/>
+      <c r="E27" s="121"/>
       <c r="F27" s="64"/>
       <c r="G27" s="69"/>
       <c r="H27" s="58"/>
-      <c r="I27" s="90"/>
-      <c r="J27" s="91"/>
-      <c r="K27" s="92"/>
-      <c r="L27" s="90"/>
-      <c r="M27" s="91"/>
+      <c r="I27" s="120"/>
+      <c r="J27" s="121"/>
+      <c r="K27" s="122"/>
+      <c r="L27" s="120"/>
+      <c r="M27" s="121"/>
       <c r="N27" s="64"/>
       <c r="O27" s="65"/>
     </row>
     <row r="28" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="63"/>
-      <c r="B28" s="92"/>
-      <c r="C28" s="91"/>
-      <c r="D28" s="92"/>
-      <c r="E28" s="91"/>
+      <c r="B28" s="122"/>
+      <c r="C28" s="121"/>
+      <c r="D28" s="122"/>
+      <c r="E28" s="121"/>
       <c r="F28" s="64"/>
       <c r="G28" s="69"/>
       <c r="H28" s="58"/>
-      <c r="I28" s="90"/>
-      <c r="J28" s="91"/>
-      <c r="K28" s="92"/>
-      <c r="L28" s="90"/>
-      <c r="M28" s="91"/>
+      <c r="I28" s="120"/>
+      <c r="J28" s="121"/>
+      <c r="K28" s="122"/>
+      <c r="L28" s="120"/>
+      <c r="M28" s="121"/>
       <c r="N28" s="64"/>
       <c r="O28" s="65"/>
     </row>
     <row r="29" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="63"/>
-      <c r="B29" s="92"/>
-      <c r="C29" s="91"/>
-      <c r="D29" s="92"/>
-      <c r="E29" s="91"/>
+      <c r="B29" s="122"/>
+      <c r="C29" s="121"/>
+      <c r="D29" s="122"/>
+      <c r="E29" s="121"/>
       <c r="F29" s="64"/>
       <c r="G29" s="69"/>
       <c r="H29" s="58"/>
-      <c r="I29" s="90"/>
-      <c r="J29" s="91"/>
-      <c r="K29" s="92"/>
-      <c r="L29" s="90"/>
-      <c r="M29" s="91"/>
+      <c r="I29" s="120"/>
+      <c r="J29" s="121"/>
+      <c r="K29" s="122"/>
+      <c r="L29" s="120"/>
+      <c r="M29" s="121"/>
       <c r="N29" s="64"/>
       <c r="O29" s="65"/>
     </row>
     <row r="30" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="63"/>
-      <c r="B30" s="92"/>
-      <c r="C30" s="91"/>
-      <c r="D30" s="92"/>
-      <c r="E30" s="91"/>
+      <c r="B30" s="122"/>
+      <c r="C30" s="121"/>
+      <c r="D30" s="122"/>
+      <c r="E30" s="121"/>
       <c r="F30" s="64"/>
       <c r="G30" s="69"/>
       <c r="H30" s="58"/>
-      <c r="I30" s="90"/>
-      <c r="J30" s="91"/>
-      <c r="K30" s="92"/>
-      <c r="L30" s="90"/>
-      <c r="M30" s="91"/>
+      <c r="I30" s="120"/>
+      <c r="J30" s="121"/>
+      <c r="K30" s="122"/>
+      <c r="L30" s="120"/>
+      <c r="M30" s="121"/>
       <c r="N30" s="64"/>
       <c r="O30" s="65"/>
     </row>
     <row r="31" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="63"/>
-      <c r="B31" s="92"/>
-      <c r="C31" s="91"/>
-      <c r="D31" s="92"/>
-      <c r="E31" s="91"/>
+      <c r="B31" s="122"/>
+      <c r="C31" s="121"/>
+      <c r="D31" s="122"/>
+      <c r="E31" s="121"/>
       <c r="F31" s="64"/>
       <c r="G31" s="69"/>
       <c r="H31" s="58"/>
-      <c r="I31" s="90"/>
-      <c r="J31" s="91"/>
-      <c r="K31" s="92"/>
-      <c r="L31" s="90"/>
-      <c r="M31" s="91"/>
+      <c r="I31" s="120"/>
+      <c r="J31" s="121"/>
+      <c r="K31" s="122"/>
+      <c r="L31" s="120"/>
+      <c r="M31" s="121"/>
       <c r="N31" s="64"/>
       <c r="O31" s="65"/>
     </row>
     <row r="32" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="63"/>
-      <c r="B32" s="92"/>
-      <c r="C32" s="91"/>
-      <c r="D32" s="92"/>
-      <c r="E32" s="91"/>
+      <c r="B32" s="122"/>
+      <c r="C32" s="121"/>
+      <c r="D32" s="122"/>
+      <c r="E32" s="121"/>
       <c r="F32" s="64"/>
       <c r="G32" s="69"/>
       <c r="H32" s="58"/>
-      <c r="I32" s="90"/>
-      <c r="J32" s="91"/>
-      <c r="K32" s="92"/>
-      <c r="L32" s="90"/>
-      <c r="M32" s="91"/>
+      <c r="I32" s="120"/>
+      <c r="J32" s="121"/>
+      <c r="K32" s="122"/>
+      <c r="L32" s="120"/>
+      <c r="M32" s="121"/>
       <c r="N32" s="64"/>
       <c r="O32" s="65"/>
     </row>
     <row r="33" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="63"/>
-      <c r="B33" s="92"/>
-      <c r="C33" s="91"/>
-      <c r="D33" s="92"/>
-      <c r="E33" s="91"/>
+      <c r="B33" s="122"/>
+      <c r="C33" s="121"/>
+      <c r="D33" s="122"/>
+      <c r="E33" s="121"/>
       <c r="F33" s="64"/>
       <c r="G33" s="69"/>
       <c r="H33" s="58"/>
-      <c r="I33" s="90"/>
-      <c r="J33" s="91"/>
-      <c r="K33" s="92"/>
-      <c r="L33" s="90"/>
-      <c r="M33" s="91"/>
+      <c r="I33" s="120"/>
+      <c r="J33" s="121"/>
+      <c r="K33" s="122"/>
+      <c r="L33" s="120"/>
+      <c r="M33" s="121"/>
       <c r="N33" s="64"/>
       <c r="O33" s="65"/>
     </row>
     <row r="34" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="63"/>
-      <c r="B34" s="92"/>
-      <c r="C34" s="91"/>
-      <c r="D34" s="92"/>
-      <c r="E34" s="91"/>
+      <c r="B34" s="122"/>
+      <c r="C34" s="121"/>
+      <c r="D34" s="122"/>
+      <c r="E34" s="121"/>
       <c r="F34" s="64"/>
       <c r="G34" s="69"/>
       <c r="H34" s="58"/>
-      <c r="I34" s="90"/>
-      <c r="J34" s="91"/>
-      <c r="K34" s="92"/>
-      <c r="L34" s="90"/>
-      <c r="M34" s="91"/>
+      <c r="I34" s="120"/>
+      <c r="J34" s="121"/>
+      <c r="K34" s="122"/>
+      <c r="L34" s="120"/>
+      <c r="M34" s="121"/>
       <c r="N34" s="64"/>
       <c r="O34" s="65"/>
     </row>
     <row r="35" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="63"/>
-      <c r="B35" s="92"/>
-      <c r="C35" s="91"/>
-      <c r="D35" s="92"/>
-      <c r="E35" s="91"/>
+      <c r="B35" s="122"/>
+      <c r="C35" s="121"/>
+      <c r="D35" s="122"/>
+      <c r="E35" s="121"/>
       <c r="F35" s="64"/>
       <c r="G35" s="69"/>
       <c r="H35" s="58"/>
-      <c r="I35" s="90"/>
-      <c r="J35" s="91"/>
-      <c r="K35" s="92"/>
-      <c r="L35" s="90"/>
-      <c r="M35" s="91"/>
+      <c r="I35" s="120"/>
+      <c r="J35" s="121"/>
+      <c r="K35" s="122"/>
+      <c r="L35" s="120"/>
+      <c r="M35" s="121"/>
       <c r="N35" s="64"/>
       <c r="O35" s="65"/>
     </row>
     <row r="36" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="63"/>
-      <c r="B36" s="92"/>
-      <c r="C36" s="91"/>
-      <c r="D36" s="92"/>
-      <c r="E36" s="91"/>
+      <c r="B36" s="122"/>
+      <c r="C36" s="121"/>
+      <c r="D36" s="122"/>
+      <c r="E36" s="121"/>
       <c r="F36" s="64"/>
       <c r="G36" s="69"/>
       <c r="H36" s="58"/>
-      <c r="I36" s="90"/>
-      <c r="J36" s="91"/>
-      <c r="K36" s="92"/>
-      <c r="L36" s="90"/>
-      <c r="M36" s="91"/>
+      <c r="I36" s="120"/>
+      <c r="J36" s="121"/>
+      <c r="K36" s="122"/>
+      <c r="L36" s="120"/>
+      <c r="M36" s="121"/>
       <c r="N36" s="64"/>
       <c r="O36" s="65"/>
     </row>
     <row r="37" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="63"/>
-      <c r="B37" s="92"/>
-      <c r="C37" s="91"/>
-      <c r="D37" s="92"/>
-      <c r="E37" s="91"/>
+      <c r="B37" s="122"/>
+      <c r="C37" s="121"/>
+      <c r="D37" s="122"/>
+      <c r="E37" s="121"/>
       <c r="F37" s="64"/>
       <c r="G37" s="69"/>
       <c r="H37" s="58"/>
-      <c r="I37" s="90"/>
-      <c r="J37" s="91"/>
-      <c r="K37" s="92"/>
-      <c r="L37" s="90"/>
-      <c r="M37" s="91"/>
+      <c r="I37" s="120"/>
+      <c r="J37" s="121"/>
+      <c r="K37" s="122"/>
+      <c r="L37" s="120"/>
+      <c r="M37" s="121"/>
       <c r="N37" s="64"/>
       <c r="O37" s="65"/>
     </row>
     <row r="38" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="63"/>
-      <c r="B38" s="92"/>
-      <c r="C38" s="91"/>
-      <c r="D38" s="92"/>
-      <c r="E38" s="91"/>
+      <c r="B38" s="122"/>
+      <c r="C38" s="121"/>
+      <c r="D38" s="122"/>
+      <c r="E38" s="121"/>
       <c r="F38" s="64"/>
       <c r="G38" s="69"/>
       <c r="H38" s="58"/>
-      <c r="I38" s="90"/>
-      <c r="J38" s="91"/>
-      <c r="K38" s="92"/>
-      <c r="L38" s="90"/>
-      <c r="M38" s="91"/>
+      <c r="I38" s="120"/>
+      <c r="J38" s="121"/>
+      <c r="K38" s="122"/>
+      <c r="L38" s="120"/>
+      <c r="M38" s="121"/>
       <c r="N38" s="64"/>
       <c r="O38" s="65"/>
     </row>
     <row r="39" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="63"/>
-      <c r="B39" s="92"/>
-      <c r="C39" s="91"/>
-      <c r="D39" s="92"/>
-      <c r="E39" s="91"/>
+      <c r="B39" s="122"/>
+      <c r="C39" s="121"/>
+      <c r="D39" s="122"/>
+      <c r="E39" s="121"/>
       <c r="F39" s="64"/>
       <c r="G39" s="69"/>
       <c r="H39" s="58"/>
-      <c r="I39" s="90"/>
-      <c r="J39" s="91"/>
-      <c r="K39" s="92"/>
-      <c r="L39" s="90"/>
-      <c r="M39" s="91"/>
+      <c r="I39" s="120"/>
+      <c r="J39" s="121"/>
+      <c r="K39" s="122"/>
+      <c r="L39" s="120"/>
+      <c r="M39" s="121"/>
       <c r="N39" s="64"/>
       <c r="O39" s="65"/>
     </row>
     <row r="40" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="63"/>
-      <c r="B40" s="92"/>
-      <c r="C40" s="91"/>
-      <c r="D40" s="92"/>
-      <c r="E40" s="91"/>
+      <c r="B40" s="122"/>
+      <c r="C40" s="121"/>
+      <c r="D40" s="122"/>
+      <c r="E40" s="121"/>
       <c r="F40" s="64"/>
       <c r="G40" s="69"/>
       <c r="H40" s="58"/>
-      <c r="I40" s="90"/>
-      <c r="J40" s="91"/>
-      <c r="K40" s="92"/>
-      <c r="L40" s="90"/>
-      <c r="M40" s="91"/>
+      <c r="I40" s="120"/>
+      <c r="J40" s="121"/>
+      <c r="K40" s="122"/>
+      <c r="L40" s="120"/>
+      <c r="M40" s="121"/>
       <c r="N40" s="64"/>
       <c r="O40" s="65"/>
     </row>
     <row r="41" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="63"/>
-      <c r="B41" s="92"/>
-      <c r="C41" s="91"/>
-      <c r="D41" s="92"/>
-      <c r="E41" s="91"/>
+      <c r="B41" s="122"/>
+      <c r="C41" s="121"/>
+      <c r="D41" s="122"/>
+      <c r="E41" s="121"/>
       <c r="F41" s="64"/>
       <c r="G41" s="69"/>
       <c r="H41" s="58"/>
-      <c r="I41" s="90"/>
-      <c r="J41" s="91"/>
-      <c r="K41" s="92"/>
-      <c r="L41" s="90"/>
-      <c r="M41" s="91"/>
+      <c r="I41" s="120"/>
+      <c r="J41" s="121"/>
+      <c r="K41" s="122"/>
+      <c r="L41" s="120"/>
+      <c r="M41" s="121"/>
       <c r="N41" s="64"/>
       <c r="O41" s="65"/>
     </row>
     <row r="42" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="63"/>
-      <c r="B42" s="92"/>
-      <c r="C42" s="91"/>
-      <c r="D42" s="92"/>
-      <c r="E42" s="91"/>
+      <c r="B42" s="122"/>
+      <c r="C42" s="121"/>
+      <c r="D42" s="122"/>
+      <c r="E42" s="121"/>
       <c r="F42" s="64"/>
       <c r="G42" s="69"/>
       <c r="H42" s="58"/>
-      <c r="I42" s="90"/>
-      <c r="J42" s="91"/>
-      <c r="K42" s="92"/>
-      <c r="L42" s="90"/>
-      <c r="M42" s="91"/>
+      <c r="I42" s="120"/>
+      <c r="J42" s="121"/>
+      <c r="K42" s="122"/>
+      <c r="L42" s="120"/>
+      <c r="M42" s="121"/>
       <c r="N42" s="64"/>
       <c r="O42" s="65"/>
     </row>
     <row r="43" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="63"/>
-      <c r="B43" s="92"/>
-      <c r="C43" s="91"/>
-      <c r="D43" s="92"/>
-      <c r="E43" s="91"/>
+      <c r="B43" s="122"/>
+      <c r="C43" s="121"/>
+      <c r="D43" s="122"/>
+      <c r="E43" s="121"/>
       <c r="F43" s="64"/>
       <c r="G43" s="69"/>
       <c r="H43" s="58"/>
-      <c r="I43" s="90"/>
-      <c r="J43" s="91"/>
-      <c r="K43" s="92"/>
-      <c r="L43" s="90"/>
-      <c r="M43" s="91"/>
+      <c r="I43" s="120"/>
+      <c r="J43" s="121"/>
+      <c r="K43" s="122"/>
+      <c r="L43" s="120"/>
+      <c r="M43" s="121"/>
       <c r="N43" s="64"/>
       <c r="O43" s="65"/>
     </row>
     <row r="44" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="63"/>
-      <c r="B44" s="92"/>
-      <c r="C44" s="91"/>
-      <c r="D44" s="92"/>
-      <c r="E44" s="91"/>
+      <c r="B44" s="122"/>
+      <c r="C44" s="121"/>
+      <c r="D44" s="122"/>
+      <c r="E44" s="121"/>
       <c r="F44" s="64"/>
       <c r="G44" s="69"/>
       <c r="H44" s="58"/>
-      <c r="I44" s="90"/>
-      <c r="J44" s="91"/>
-      <c r="K44" s="92"/>
-      <c r="L44" s="90"/>
-      <c r="M44" s="91"/>
+      <c r="I44" s="120"/>
+      <c r="J44" s="121"/>
+      <c r="K44" s="122"/>
+      <c r="L44" s="120"/>
+      <c r="M44" s="121"/>
       <c r="N44" s="64"/>
       <c r="O44" s="65"/>
     </row>
     <row r="45" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="63"/>
-      <c r="B45" s="92"/>
-      <c r="C45" s="91"/>
-      <c r="D45" s="92"/>
-      <c r="E45" s="91"/>
+      <c r="B45" s="122"/>
+      <c r="C45" s="121"/>
+      <c r="D45" s="122"/>
+      <c r="E45" s="121"/>
       <c r="F45" s="64"/>
       <c r="G45" s="69"/>
       <c r="H45" s="58"/>
-      <c r="I45" s="90"/>
-      <c r="J45" s="91"/>
-      <c r="K45" s="92"/>
-      <c r="L45" s="90"/>
-      <c r="M45" s="91"/>
+      <c r="I45" s="120"/>
+      <c r="J45" s="121"/>
+      <c r="K45" s="122"/>
+      <c r="L45" s="120"/>
+      <c r="M45" s="121"/>
       <c r="N45" s="64"/>
       <c r="O45" s="65"/>
     </row>
     <row r="46" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="63"/>
-      <c r="B46" s="92"/>
-      <c r="C46" s="91"/>
-      <c r="D46" s="92"/>
-      <c r="E46" s="91"/>
+      <c r="B46" s="122"/>
+      <c r="C46" s="121"/>
+      <c r="D46" s="122"/>
+      <c r="E46" s="121"/>
       <c r="F46" s="64"/>
       <c r="G46" s="69"/>
       <c r="H46" s="58"/>
-      <c r="I46" s="90"/>
-      <c r="J46" s="91"/>
-      <c r="K46" s="92"/>
-      <c r="L46" s="90"/>
-      <c r="M46" s="91"/>
+      <c r="I46" s="120"/>
+      <c r="J46" s="121"/>
+      <c r="K46" s="122"/>
+      <c r="L46" s="120"/>
+      <c r="M46" s="121"/>
       <c r="N46" s="64"/>
       <c r="O46" s="65"/>
     </row>
     <row r="47" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="63"/>
-      <c r="B47" s="92"/>
-      <c r="C47" s="91"/>
-      <c r="D47" s="92"/>
-      <c r="E47" s="91"/>
+      <c r="B47" s="122"/>
+      <c r="C47" s="121"/>
+      <c r="D47" s="122"/>
+      <c r="E47" s="121"/>
       <c r="F47" s="64"/>
       <c r="G47" s="69"/>
       <c r="H47" s="58"/>
-      <c r="I47" s="90"/>
-      <c r="J47" s="91"/>
-      <c r="K47" s="92"/>
-      <c r="L47" s="90"/>
-      <c r="M47" s="91"/>
+      <c r="I47" s="120"/>
+      <c r="J47" s="121"/>
+      <c r="K47" s="122"/>
+      <c r="L47" s="120"/>
+      <c r="M47" s="121"/>
       <c r="N47" s="64"/>
       <c r="O47" s="65"/>
     </row>
     <row r="48" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="63"/>
-      <c r="B48" s="92"/>
-      <c r="C48" s="91"/>
-      <c r="D48" s="92"/>
-      <c r="E48" s="91"/>
+      <c r="B48" s="122"/>
+      <c r="C48" s="121"/>
+      <c r="D48" s="122"/>
+      <c r="E48" s="121"/>
       <c r="F48" s="64"/>
       <c r="G48" s="69"/>
       <c r="H48" s="58"/>
-      <c r="I48" s="90"/>
-      <c r="J48" s="91"/>
-      <c r="K48" s="92"/>
-      <c r="L48" s="90"/>
-      <c r="M48" s="91"/>
+      <c r="I48" s="120"/>
+      <c r="J48" s="121"/>
+      <c r="K48" s="122"/>
+      <c r="L48" s="120"/>
+      <c r="M48" s="121"/>
       <c r="N48" s="64"/>
       <c r="O48" s="65"/>
     </row>
     <row r="49" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="63"/>
-      <c r="B49" s="92"/>
-      <c r="C49" s="91"/>
-      <c r="D49" s="92"/>
-      <c r="E49" s="91"/>
+      <c r="B49" s="122"/>
+      <c r="C49" s="121"/>
+      <c r="D49" s="122"/>
+      <c r="E49" s="121"/>
       <c r="F49" s="64"/>
       <c r="G49" s="69"/>
       <c r="H49" s="58"/>
-      <c r="I49" s="90"/>
-      <c r="J49" s="91"/>
-      <c r="K49" s="92"/>
-      <c r="L49" s="90"/>
-      <c r="M49" s="91"/>
+      <c r="I49" s="120"/>
+      <c r="J49" s="121"/>
+      <c r="K49" s="122"/>
+      <c r="L49" s="120"/>
+      <c r="M49" s="121"/>
       <c r="N49" s="64"/>
       <c r="O49" s="65"/>
     </row>
     <row r="50" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="63"/>
-      <c r="B50" s="92"/>
-      <c r="C50" s="91"/>
-      <c r="D50" s="92"/>
-      <c r="E50" s="91"/>
+      <c r="B50" s="122"/>
+      <c r="C50" s="121"/>
+      <c r="D50" s="122"/>
+      <c r="E50" s="121"/>
       <c r="F50" s="64"/>
       <c r="G50" s="69"/>
       <c r="H50" s="58"/>
-      <c r="I50" s="90"/>
-      <c r="J50" s="91"/>
-      <c r="K50" s="92"/>
-      <c r="L50" s="90"/>
-      <c r="M50" s="91"/>
+      <c r="I50" s="120"/>
+      <c r="J50" s="121"/>
+      <c r="K50" s="122"/>
+      <c r="L50" s="120"/>
+      <c r="M50" s="121"/>
       <c r="N50" s="64"/>
       <c r="O50" s="65"/>
     </row>
     <row r="51" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="63"/>
-      <c r="B51" s="92"/>
-      <c r="C51" s="91"/>
-      <c r="D51" s="92"/>
-      <c r="E51" s="91"/>
+      <c r="B51" s="122"/>
+      <c r="C51" s="121"/>
+      <c r="D51" s="122"/>
+      <c r="E51" s="121"/>
       <c r="F51" s="64"/>
       <c r="G51" s="69"/>
       <c r="H51" s="58"/>
-      <c r="I51" s="90"/>
-      <c r="J51" s="91"/>
-      <c r="K51" s="92"/>
-      <c r="L51" s="90"/>
-      <c r="M51" s="91"/>
+      <c r="I51" s="120"/>
+      <c r="J51" s="121"/>
+      <c r="K51" s="122"/>
+      <c r="L51" s="120"/>
+      <c r="M51" s="121"/>
       <c r="N51" s="64"/>
       <c r="O51" s="65"/>
     </row>
     <row r="52" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="63"/>
-      <c r="B52" s="92"/>
-      <c r="C52" s="91"/>
-      <c r="D52" s="92"/>
-      <c r="E52" s="91"/>
+      <c r="B52" s="122"/>
+      <c r="C52" s="121"/>
+      <c r="D52" s="122"/>
+      <c r="E52" s="121"/>
       <c r="F52" s="64"/>
       <c r="G52" s="69"/>
       <c r="H52" s="58"/>
-      <c r="I52" s="90"/>
-      <c r="J52" s="91"/>
-      <c r="K52" s="92"/>
-      <c r="L52" s="90"/>
-      <c r="M52" s="91"/>
+      <c r="I52" s="120"/>
+      <c r="J52" s="121"/>
+      <c r="K52" s="122"/>
+      <c r="L52" s="120"/>
+      <c r="M52" s="121"/>
       <c r="N52" s="64"/>
       <c r="O52" s="65"/>
     </row>
     <row r="53" spans="1:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="66"/>
-      <c r="B53" s="97"/>
-      <c r="C53" s="96"/>
-      <c r="D53" s="97"/>
-      <c r="E53" s="96"/>
+      <c r="B53" s="127"/>
+      <c r="C53" s="126"/>
+      <c r="D53" s="127"/>
+      <c r="E53" s="126"/>
       <c r="F53" s="67"/>
       <c r="G53" s="70"/>
       <c r="H53" s="59"/>
-      <c r="I53" s="95"/>
-      <c r="J53" s="96"/>
-      <c r="K53" s="97"/>
-      <c r="L53" s="95"/>
-      <c r="M53" s="96"/>
+      <c r="I53" s="125"/>
+      <c r="J53" s="126"/>
+      <c r="K53" s="127"/>
+      <c r="L53" s="125"/>
+      <c r="M53" s="126"/>
       <c r="N53" s="67"/>
       <c r="O53" s="68"/>
     </row>
@@ -3091,1566 +4669,4 @@
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z51"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="6.7109375" style="99" customWidth="1"/>
-    <col min="3" max="16" width="5.7109375" style="99" customWidth="1"/>
-    <col min="17" max="18" width="6.7109375" style="99" customWidth="1"/>
-    <col min="19" max="19" width="1.28515625" style="99" customWidth="1"/>
-    <col min="20" max="20" width="10.85546875" style="99"/>
-    <col min="21" max="16384" width="10.85546875" style="100"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:26" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:26" ht="60.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="101" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-      <c r="N2" s="102"/>
-      <c r="O2" s="102"/>
-      <c r="P2" s="103"/>
-      <c r="Q2" s="124" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="104" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="104"/>
-      <c r="C3" s="104" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="104"/>
-      <c r="E3" s="105" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="106"/>
-      <c r="G3" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="107"/>
-      <c r="I3" s="104" t="s">
-        <v>45</v>
-      </c>
-      <c r="J3" s="107"/>
-      <c r="K3" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="L3" s="108" t="s">
-        <v>47</v>
-      </c>
-      <c r="M3" s="104"/>
-      <c r="N3" s="109"/>
-      <c r="O3" s="104" t="s">
-        <v>48</v>
-      </c>
-      <c r="P3" s="104"/>
-      <c r="Q3" s="124"/>
-    </row>
-    <row r="4" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="110"/>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="129"/>
-      <c r="F4" s="128"/>
-      <c r="G4" s="110"/>
-      <c r="H4" s="110"/>
-      <c r="I4" s="110"/>
-      <c r="J4" s="110"/>
-      <c r="K4" s="111"/>
-      <c r="L4" s="112" t="s">
-        <v>24</v>
-      </c>
-      <c r="M4" s="110"/>
-      <c r="O4" s="110"/>
-      <c r="P4" s="110"/>
-      <c r="Q4" s="124"/>
-      <c r="W4" s="105"/>
-      <c r="X4" s="102"/>
-    </row>
-    <row r="5" spans="1:26" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="104" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="113"/>
-      <c r="C5" s="113"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="115"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="117" t="s">
-        <v>58</v>
-      </c>
-      <c r="J5" s="106"/>
-      <c r="K5" s="118" t="s">
-        <v>50</v>
-      </c>
-      <c r="L5" s="119"/>
-      <c r="M5" s="112"/>
-      <c r="Q5" s="124"/>
-      <c r="W5" s="119"/>
-      <c r="X5" s="112"/>
-    </row>
-    <row r="6" spans="1:26" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="104" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="104"/>
-      <c r="C6" s="104" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="104"/>
-      <c r="E6" s="104" t="s">
-        <v>53</v>
-      </c>
-      <c r="F6" s="104"/>
-      <c r="G6" s="104" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="104"/>
-      <c r="I6" s="104" t="s">
-        <v>57</v>
-      </c>
-      <c r="J6" s="104"/>
-      <c r="K6" s="104" t="s">
-        <v>31</v>
-      </c>
-      <c r="L6" s="104"/>
-      <c r="M6" s="104" t="s">
-        <v>33</v>
-      </c>
-      <c r="N6" s="104"/>
-      <c r="O6" s="104" t="s">
-        <v>32</v>
-      </c>
-      <c r="P6" s="104"/>
-      <c r="Q6" s="124"/>
-      <c r="W6" s="119"/>
-      <c r="X6" s="99"/>
-    </row>
-    <row r="7" spans="1:26" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="112" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="112"/>
-      <c r="C7" s="112" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="112"/>
-      <c r="I7" s="110" t="s">
-        <v>46</v>
-      </c>
-      <c r="J7" s="110"/>
-      <c r="K7" s="112" t="s">
-        <v>24</v>
-      </c>
-      <c r="L7" s="112"/>
-      <c r="M7" s="110" t="s">
-        <v>46</v>
-      </c>
-      <c r="N7" s="110"/>
-      <c r="O7" s="112" t="s">
-        <v>24</v>
-      </c>
-      <c r="P7" s="110"/>
-      <c r="Q7" s="124"/>
-      <c r="W7" s="119"/>
-      <c r="X7" s="112"/>
-    </row>
-    <row r="8" spans="1:26" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="125" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="125" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="125"/>
-      <c r="D9" s="125" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="125"/>
-      <c r="F9" s="125"/>
-      <c r="G9" s="125" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="125"/>
-      <c r="I9" s="126" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="127"/>
-      <c r="K9" s="127"/>
-      <c r="L9" s="127"/>
-      <c r="M9" s="125" t="s">
-        <v>9</v>
-      </c>
-      <c r="N9" s="125"/>
-      <c r="O9" s="125"/>
-      <c r="P9" s="125"/>
-      <c r="Q9" s="125" t="s">
-        <v>8</v>
-      </c>
-      <c r="R9" s="125" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="120" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="120" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="120"/>
-      <c r="D10" s="120" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="120"/>
-      <c r="F10" s="120"/>
-      <c r="G10" s="120" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" s="120"/>
-      <c r="I10" s="120" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" s="120"/>
-      <c r="K10" s="120"/>
-      <c r="L10" s="120"/>
-      <c r="M10" s="120" t="s">
-        <v>9</v>
-      </c>
-      <c r="N10" s="120"/>
-      <c r="O10" s="120"/>
-      <c r="P10" s="120"/>
-      <c r="Q10" s="120" t="s">
-        <v>8</v>
-      </c>
-      <c r="R10" s="121"/>
-      <c r="V10" s="104"/>
-      <c r="W10" s="104"/>
-    </row>
-    <row r="11" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="120" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="120" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="120"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="120" t="s">
-        <v>3</v>
-      </c>
-      <c r="H11" s="120"/>
-      <c r="I11" s="120" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" s="120"/>
-      <c r="K11" s="120"/>
-      <c r="L11" s="120"/>
-      <c r="M11" s="120" t="s">
-        <v>9</v>
-      </c>
-      <c r="N11" s="120"/>
-      <c r="O11" s="120"/>
-      <c r="P11" s="120"/>
-      <c r="Q11" s="120" t="s">
-        <v>8</v>
-      </c>
-      <c r="R11" s="121"/>
-      <c r="V11" s="104"/>
-      <c r="W11" s="104"/>
-    </row>
-    <row r="12" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="120" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="120" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="120"/>
-      <c r="D12" s="120" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="120"/>
-      <c r="F12" s="120"/>
-      <c r="G12" s="120" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="120"/>
-      <c r="I12" s="120" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="120"/>
-      <c r="K12" s="120"/>
-      <c r="L12" s="120"/>
-      <c r="M12" s="120" t="s">
-        <v>9</v>
-      </c>
-      <c r="N12" s="120"/>
-      <c r="O12" s="120"/>
-      <c r="P12" s="120"/>
-      <c r="Q12" s="120" t="s">
-        <v>8</v>
-      </c>
-      <c r="R12" s="121"/>
-      <c r="V12" s="112"/>
-      <c r="W12" s="110"/>
-    </row>
-    <row r="13" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="120" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="120" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="120"/>
-      <c r="D13" s="120" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="120"/>
-      <c r="F13" s="120"/>
-      <c r="G13" s="120" t="s">
-        <v>3</v>
-      </c>
-      <c r="H13" s="120"/>
-      <c r="I13" s="120" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" s="120"/>
-      <c r="K13" s="120"/>
-      <c r="L13" s="120"/>
-      <c r="M13" s="120" t="s">
-        <v>9</v>
-      </c>
-      <c r="N13" s="120"/>
-      <c r="O13" s="120"/>
-      <c r="P13" s="120"/>
-      <c r="Q13" s="120" t="s">
-        <v>8</v>
-      </c>
-      <c r="R13" s="121"/>
-      <c r="V13" s="112"/>
-      <c r="W13" s="110"/>
-      <c r="X13" s="119"/>
-    </row>
-    <row r="14" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="120" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="120" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="120"/>
-      <c r="F14" s="120"/>
-      <c r="G14" s="120" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="120"/>
-      <c r="I14" s="120" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" s="120"/>
-      <c r="K14" s="120"/>
-      <c r="L14" s="120"/>
-      <c r="M14" s="120" t="s">
-        <v>9</v>
-      </c>
-      <c r="N14" s="120"/>
-      <c r="O14" s="120"/>
-      <c r="P14" s="120"/>
-      <c r="Q14" s="120" t="s">
-        <v>8</v>
-      </c>
-      <c r="R14" s="121"/>
-      <c r="V14" s="105"/>
-      <c r="W14" s="107"/>
-      <c r="X14" s="113"/>
-      <c r="Y14" s="113"/>
-      <c r="Z14" s="113"/>
-    </row>
-    <row r="15" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="120" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="120" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="120"/>
-      <c r="F15" s="120"/>
-      <c r="G15" s="120" t="s">
-        <v>3</v>
-      </c>
-      <c r="H15" s="120"/>
-      <c r="I15" s="120" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" s="120"/>
-      <c r="K15" s="120"/>
-      <c r="L15" s="120"/>
-      <c r="M15" s="120" t="s">
-        <v>9</v>
-      </c>
-      <c r="N15" s="120"/>
-      <c r="O15" s="120"/>
-      <c r="P15" s="120"/>
-      <c r="Q15" s="120" t="s">
-        <v>8</v>
-      </c>
-      <c r="R15" s="121"/>
-      <c r="V15" s="119"/>
-      <c r="W15" s="110"/>
-      <c r="X15" s="110"/>
-      <c r="Y15" s="111"/>
-      <c r="Z15" s="99"/>
-    </row>
-    <row r="16" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="120" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="120" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="120"/>
-      <c r="F16" s="120"/>
-      <c r="G16" s="120" t="s">
-        <v>3</v>
-      </c>
-      <c r="H16" s="120"/>
-      <c r="I16" s="120" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16" s="120"/>
-      <c r="K16" s="120"/>
-      <c r="L16" s="120"/>
-      <c r="M16" s="120" t="s">
-        <v>9</v>
-      </c>
-      <c r="N16" s="120"/>
-      <c r="O16" s="120"/>
-      <c r="P16" s="120"/>
-      <c r="Q16" s="120" t="s">
-        <v>8</v>
-      </c>
-      <c r="R16" s="121"/>
-    </row>
-    <row r="17" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="120" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="120" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="120"/>
-      <c r="D17" s="120" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="120"/>
-      <c r="F17" s="120"/>
-      <c r="G17" s="120" t="s">
-        <v>3</v>
-      </c>
-      <c r="H17" s="120"/>
-      <c r="I17" s="120" t="s">
-        <v>17</v>
-      </c>
-      <c r="J17" s="120"/>
-      <c r="K17" s="120"/>
-      <c r="L17" s="120"/>
-      <c r="M17" s="120" t="s">
-        <v>9</v>
-      </c>
-      <c r="N17" s="120"/>
-      <c r="O17" s="120"/>
-      <c r="P17" s="120"/>
-      <c r="Q17" s="120" t="s">
-        <v>8</v>
-      </c>
-      <c r="R17" s="121"/>
-    </row>
-    <row r="18" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="120" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="120" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="120"/>
-      <c r="D18" s="120" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="120"/>
-      <c r="F18" s="120"/>
-      <c r="G18" s="120" t="s">
-        <v>3</v>
-      </c>
-      <c r="H18" s="120"/>
-      <c r="I18" s="120" t="s">
-        <v>17</v>
-      </c>
-      <c r="J18" s="120"/>
-      <c r="K18" s="120"/>
-      <c r="L18" s="120"/>
-      <c r="M18" s="120" t="s">
-        <v>9</v>
-      </c>
-      <c r="N18" s="120"/>
-      <c r="O18" s="120"/>
-      <c r="P18" s="120"/>
-      <c r="Q18" s="120" t="s">
-        <v>8</v>
-      </c>
-      <c r="R18" s="121"/>
-    </row>
-    <row r="19" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="120" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="120" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="120"/>
-      <c r="D19" s="120" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="120"/>
-      <c r="F19" s="120"/>
-      <c r="G19" s="120" t="s">
-        <v>3</v>
-      </c>
-      <c r="H19" s="120"/>
-      <c r="I19" s="120" t="s">
-        <v>17</v>
-      </c>
-      <c r="J19" s="120"/>
-      <c r="K19" s="120"/>
-      <c r="L19" s="120"/>
-      <c r="M19" s="120" t="s">
-        <v>9</v>
-      </c>
-      <c r="N19" s="120"/>
-      <c r="O19" s="120"/>
-      <c r="P19" s="120"/>
-      <c r="Q19" s="120" t="s">
-        <v>8</v>
-      </c>
-      <c r="R19" s="121"/>
-    </row>
-    <row r="20" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="120" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="120" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="120"/>
-      <c r="D20" s="120" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="120"/>
-      <c r="F20" s="120"/>
-      <c r="G20" s="120" t="s">
-        <v>3</v>
-      </c>
-      <c r="H20" s="120"/>
-      <c r="I20" s="120" t="s">
-        <v>17</v>
-      </c>
-      <c r="J20" s="120"/>
-      <c r="K20" s="120"/>
-      <c r="L20" s="120"/>
-      <c r="M20" s="120" t="s">
-        <v>9</v>
-      </c>
-      <c r="N20" s="120"/>
-      <c r="O20" s="120"/>
-      <c r="P20" s="120"/>
-      <c r="Q20" s="120" t="s">
-        <v>8</v>
-      </c>
-      <c r="R20" s="121"/>
-    </row>
-    <row r="21" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="120" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="120" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" s="120"/>
-      <c r="D21" s="120" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="120"/>
-      <c r="F21" s="120"/>
-      <c r="G21" s="120" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="120"/>
-      <c r="I21" s="120" t="s">
-        <v>17</v>
-      </c>
-      <c r="J21" s="120"/>
-      <c r="K21" s="120"/>
-      <c r="L21" s="120"/>
-      <c r="M21" s="120" t="s">
-        <v>9</v>
-      </c>
-      <c r="N21" s="120"/>
-      <c r="O21" s="120"/>
-      <c r="P21" s="120"/>
-      <c r="Q21" s="120" t="s">
-        <v>8</v>
-      </c>
-      <c r="R21" s="121"/>
-    </row>
-    <row r="22" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="120" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="120" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" s="120"/>
-      <c r="D22" s="120" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="120"/>
-      <c r="F22" s="120"/>
-      <c r="G22" s="120" t="s">
-        <v>3</v>
-      </c>
-      <c r="H22" s="120"/>
-      <c r="I22" s="120" t="s">
-        <v>17</v>
-      </c>
-      <c r="J22" s="120"/>
-      <c r="K22" s="120"/>
-      <c r="L22" s="120"/>
-      <c r="M22" s="120" t="s">
-        <v>9</v>
-      </c>
-      <c r="N22" s="120"/>
-      <c r="O22" s="120"/>
-      <c r="P22" s="120"/>
-      <c r="Q22" s="120" t="s">
-        <v>8</v>
-      </c>
-      <c r="R22" s="121"/>
-    </row>
-    <row r="23" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="120" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="120" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23" s="120"/>
-      <c r="D23" s="120" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="120"/>
-      <c r="F23" s="120"/>
-      <c r="G23" s="120" t="s">
-        <v>3</v>
-      </c>
-      <c r="H23" s="120"/>
-      <c r="I23" s="120" t="s">
-        <v>17</v>
-      </c>
-      <c r="J23" s="120"/>
-      <c r="K23" s="120"/>
-      <c r="L23" s="120"/>
-      <c r="M23" s="120" t="s">
-        <v>9</v>
-      </c>
-      <c r="N23" s="120"/>
-      <c r="O23" s="120"/>
-      <c r="P23" s="120"/>
-      <c r="Q23" s="120" t="s">
-        <v>8</v>
-      </c>
-      <c r="R23" s="121"/>
-    </row>
-    <row r="24" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="120" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" s="120" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24" s="120"/>
-      <c r="D24" s="120" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="120"/>
-      <c r="F24" s="120"/>
-      <c r="G24" s="120" t="s">
-        <v>3</v>
-      </c>
-      <c r="H24" s="120"/>
-      <c r="I24" s="120" t="s">
-        <v>17</v>
-      </c>
-      <c r="J24" s="120"/>
-      <c r="K24" s="120"/>
-      <c r="L24" s="120"/>
-      <c r="M24" s="120" t="s">
-        <v>9</v>
-      </c>
-      <c r="N24" s="120"/>
-      <c r="O24" s="120"/>
-      <c r="P24" s="120"/>
-      <c r="Q24" s="120" t="s">
-        <v>8</v>
-      </c>
-      <c r="R24" s="121"/>
-    </row>
-    <row r="25" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="120" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" s="120" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25" s="120"/>
-      <c r="D25" s="120" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" s="120"/>
-      <c r="F25" s="120"/>
-      <c r="G25" s="120" t="s">
-        <v>3</v>
-      </c>
-      <c r="H25" s="120"/>
-      <c r="I25" s="120" t="s">
-        <v>17</v>
-      </c>
-      <c r="J25" s="120"/>
-      <c r="K25" s="120"/>
-      <c r="L25" s="120"/>
-      <c r="M25" s="120" t="s">
-        <v>9</v>
-      </c>
-      <c r="N25" s="120"/>
-      <c r="O25" s="120"/>
-      <c r="P25" s="120"/>
-      <c r="Q25" s="120" t="s">
-        <v>8</v>
-      </c>
-      <c r="R25" s="121"/>
-    </row>
-    <row r="26" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="120" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" s="120" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26" s="120"/>
-      <c r="D26" s="120" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" s="120"/>
-      <c r="F26" s="120"/>
-      <c r="G26" s="120" t="s">
-        <v>3</v>
-      </c>
-      <c r="H26" s="120"/>
-      <c r="I26" s="120" t="s">
-        <v>17</v>
-      </c>
-      <c r="J26" s="120"/>
-      <c r="K26" s="120"/>
-      <c r="L26" s="120"/>
-      <c r="M26" s="120" t="s">
-        <v>9</v>
-      </c>
-      <c r="N26" s="120"/>
-      <c r="O26" s="120"/>
-      <c r="P26" s="120"/>
-      <c r="Q26" s="120" t="s">
-        <v>8</v>
-      </c>
-      <c r="R26" s="121"/>
-    </row>
-    <row r="27" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="120" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27" s="120" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" s="120"/>
-      <c r="D27" s="120" t="s">
-        <v>18</v>
-      </c>
-      <c r="E27" s="120"/>
-      <c r="F27" s="120"/>
-      <c r="G27" s="120" t="s">
-        <v>3</v>
-      </c>
-      <c r="H27" s="120"/>
-      <c r="I27" s="120" t="s">
-        <v>17</v>
-      </c>
-      <c r="J27" s="120"/>
-      <c r="K27" s="120"/>
-      <c r="L27" s="120"/>
-      <c r="M27" s="120" t="s">
-        <v>9</v>
-      </c>
-      <c r="N27" s="120"/>
-      <c r="O27" s="120"/>
-      <c r="P27" s="120"/>
-      <c r="Q27" s="120" t="s">
-        <v>8</v>
-      </c>
-      <c r="R27" s="121"/>
-    </row>
-    <row r="28" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="120" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" s="120" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28" s="120"/>
-      <c r="D28" s="120" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" s="120"/>
-      <c r="F28" s="120"/>
-      <c r="G28" s="120" t="s">
-        <v>3</v>
-      </c>
-      <c r="H28" s="120"/>
-      <c r="I28" s="120" t="s">
-        <v>17</v>
-      </c>
-      <c r="J28" s="120"/>
-      <c r="K28" s="120"/>
-      <c r="L28" s="120"/>
-      <c r="M28" s="120" t="s">
-        <v>9</v>
-      </c>
-      <c r="N28" s="120"/>
-      <c r="O28" s="120"/>
-      <c r="P28" s="120"/>
-      <c r="Q28" s="120" t="s">
-        <v>8</v>
-      </c>
-      <c r="R28" s="121"/>
-    </row>
-    <row r="29" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="120" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" s="120" t="s">
-        <v>2</v>
-      </c>
-      <c r="C29" s="120"/>
-      <c r="D29" s="120" t="s">
-        <v>18</v>
-      </c>
-      <c r="E29" s="120"/>
-      <c r="F29" s="120"/>
-      <c r="G29" s="120" t="s">
-        <v>3</v>
-      </c>
-      <c r="H29" s="120"/>
-      <c r="I29" s="120" t="s">
-        <v>17</v>
-      </c>
-      <c r="J29" s="120"/>
-      <c r="K29" s="120"/>
-      <c r="L29" s="120"/>
-      <c r="M29" s="120" t="s">
-        <v>9</v>
-      </c>
-      <c r="N29" s="120"/>
-      <c r="O29" s="120"/>
-      <c r="P29" s="120"/>
-      <c r="Q29" s="120" t="s">
-        <v>8</v>
-      </c>
-      <c r="R29" s="121"/>
-    </row>
-    <row r="30" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="120"/>
-      <c r="B30" s="120" t="s">
-        <v>2</v>
-      </c>
-      <c r="C30" s="120"/>
-      <c r="D30" s="120" t="s">
-        <v>18</v>
-      </c>
-      <c r="E30" s="120"/>
-      <c r="F30" s="120"/>
-      <c r="G30" s="120" t="s">
-        <v>3</v>
-      </c>
-      <c r="H30" s="120"/>
-      <c r="I30" s="120" t="s">
-        <v>17</v>
-      </c>
-      <c r="J30" s="120"/>
-      <c r="K30" s="120"/>
-      <c r="L30" s="120"/>
-      <c r="M30" s="120" t="s">
-        <v>9</v>
-      </c>
-      <c r="N30" s="120"/>
-      <c r="O30" s="120"/>
-      <c r="P30" s="120"/>
-      <c r="Q30" s="120" t="s">
-        <v>8</v>
-      </c>
-      <c r="R30" s="121"/>
-    </row>
-    <row r="31" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="120"/>
-      <c r="B31" s="120" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31" s="120"/>
-      <c r="D31" s="120" t="s">
-        <v>18</v>
-      </c>
-      <c r="E31" s="120"/>
-      <c r="F31" s="120"/>
-      <c r="G31" s="120" t="s">
-        <v>3</v>
-      </c>
-      <c r="H31" s="120"/>
-      <c r="I31" s="120" t="s">
-        <v>17</v>
-      </c>
-      <c r="J31" s="120"/>
-      <c r="K31" s="120"/>
-      <c r="L31" s="120"/>
-      <c r="M31" s="120" t="s">
-        <v>9</v>
-      </c>
-      <c r="N31" s="120"/>
-      <c r="O31" s="120"/>
-      <c r="P31" s="120"/>
-      <c r="Q31" s="120" t="s">
-        <v>8</v>
-      </c>
-      <c r="R31" s="121"/>
-    </row>
-    <row r="32" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="120"/>
-      <c r="B32" s="120" t="s">
-        <v>2</v>
-      </c>
-      <c r="C32" s="120"/>
-      <c r="D32" s="120" t="s">
-        <v>18</v>
-      </c>
-      <c r="E32" s="120"/>
-      <c r="F32" s="120"/>
-      <c r="G32" s="120" t="s">
-        <v>3</v>
-      </c>
-      <c r="H32" s="120"/>
-      <c r="I32" s="120" t="s">
-        <v>17</v>
-      </c>
-      <c r="J32" s="120"/>
-      <c r="K32" s="120"/>
-      <c r="L32" s="120"/>
-      <c r="M32" s="120" t="s">
-        <v>9</v>
-      </c>
-      <c r="N32" s="120"/>
-      <c r="O32" s="120"/>
-      <c r="P32" s="120"/>
-      <c r="Q32" s="120" t="s">
-        <v>8</v>
-      </c>
-      <c r="R32" s="121"/>
-    </row>
-    <row r="33" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="120"/>
-      <c r="B33" s="120" t="s">
-        <v>2</v>
-      </c>
-      <c r="C33" s="120"/>
-      <c r="D33" s="120" t="s">
-        <v>18</v>
-      </c>
-      <c r="E33" s="120"/>
-      <c r="F33" s="120"/>
-      <c r="G33" s="120" t="s">
-        <v>3</v>
-      </c>
-      <c r="H33" s="120"/>
-      <c r="I33" s="120" t="s">
-        <v>17</v>
-      </c>
-      <c r="J33" s="120"/>
-      <c r="K33" s="120"/>
-      <c r="L33" s="120"/>
-      <c r="M33" s="120" t="s">
-        <v>9</v>
-      </c>
-      <c r="N33" s="120"/>
-      <c r="O33" s="120"/>
-      <c r="P33" s="120"/>
-      <c r="Q33" s="120" t="s">
-        <v>8</v>
-      </c>
-      <c r="R33" s="121"/>
-    </row>
-    <row r="34" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="120"/>
-      <c r="B34" s="120" t="s">
-        <v>2</v>
-      </c>
-      <c r="C34" s="120"/>
-      <c r="D34" s="120" t="s">
-        <v>18</v>
-      </c>
-      <c r="E34" s="120"/>
-      <c r="F34" s="120"/>
-      <c r="G34" s="120" t="s">
-        <v>3</v>
-      </c>
-      <c r="H34" s="120"/>
-      <c r="I34" s="120" t="s">
-        <v>17</v>
-      </c>
-      <c r="J34" s="120"/>
-      <c r="K34" s="120"/>
-      <c r="L34" s="120"/>
-      <c r="M34" s="120" t="s">
-        <v>9</v>
-      </c>
-      <c r="N34" s="120"/>
-      <c r="O34" s="120"/>
-      <c r="P34" s="120"/>
-      <c r="Q34" s="120" t="s">
-        <v>8</v>
-      </c>
-      <c r="R34" s="121"/>
-    </row>
-    <row r="35" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="120"/>
-      <c r="B35" s="120" t="s">
-        <v>2</v>
-      </c>
-      <c r="C35" s="120"/>
-      <c r="D35" s="120" t="s">
-        <v>18</v>
-      </c>
-      <c r="E35" s="120"/>
-      <c r="F35" s="120"/>
-      <c r="G35" s="120" t="s">
-        <v>3</v>
-      </c>
-      <c r="H35" s="120"/>
-      <c r="I35" s="120" t="s">
-        <v>17</v>
-      </c>
-      <c r="J35" s="120"/>
-      <c r="K35" s="120"/>
-      <c r="L35" s="120"/>
-      <c r="M35" s="120" t="s">
-        <v>9</v>
-      </c>
-      <c r="N35" s="120"/>
-      <c r="O35" s="120"/>
-      <c r="P35" s="120"/>
-      <c r="Q35" s="120" t="s">
-        <v>8</v>
-      </c>
-      <c r="R35" s="121"/>
-    </row>
-    <row r="36" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="120"/>
-      <c r="B36" s="120" t="s">
-        <v>2</v>
-      </c>
-      <c r="C36" s="120"/>
-      <c r="D36" s="120" t="s">
-        <v>18</v>
-      </c>
-      <c r="E36" s="120"/>
-      <c r="F36" s="120"/>
-      <c r="G36" s="120" t="s">
-        <v>3</v>
-      </c>
-      <c r="H36" s="120"/>
-      <c r="I36" s="120" t="s">
-        <v>17</v>
-      </c>
-      <c r="J36" s="120"/>
-      <c r="K36" s="120"/>
-      <c r="L36" s="120"/>
-      <c r="M36" s="120" t="s">
-        <v>9</v>
-      </c>
-      <c r="N36" s="120"/>
-      <c r="O36" s="120"/>
-      <c r="P36" s="120"/>
-      <c r="Q36" s="120" t="s">
-        <v>8</v>
-      </c>
-      <c r="R36" s="121"/>
-    </row>
-    <row r="37" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="120"/>
-      <c r="B37" s="120" t="s">
-        <v>2</v>
-      </c>
-      <c r="C37" s="120"/>
-      <c r="D37" s="120" t="s">
-        <v>18</v>
-      </c>
-      <c r="E37" s="120"/>
-      <c r="F37" s="120"/>
-      <c r="G37" s="120" t="s">
-        <v>3</v>
-      </c>
-      <c r="H37" s="120"/>
-      <c r="I37" s="120" t="s">
-        <v>17</v>
-      </c>
-      <c r="J37" s="120"/>
-      <c r="K37" s="120"/>
-      <c r="L37" s="120"/>
-      <c r="M37" s="120" t="s">
-        <v>9</v>
-      </c>
-      <c r="N37" s="120"/>
-      <c r="O37" s="120"/>
-      <c r="P37" s="120"/>
-      <c r="Q37" s="120" t="s">
-        <v>8</v>
-      </c>
-      <c r="R37" s="121"/>
-    </row>
-    <row r="38" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="120"/>
-      <c r="B38" s="120" t="s">
-        <v>2</v>
-      </c>
-      <c r="C38" s="120"/>
-      <c r="D38" s="120" t="s">
-        <v>18</v>
-      </c>
-      <c r="E38" s="120"/>
-      <c r="F38" s="120"/>
-      <c r="G38" s="120" t="s">
-        <v>3</v>
-      </c>
-      <c r="H38" s="120"/>
-      <c r="I38" s="120" t="s">
-        <v>17</v>
-      </c>
-      <c r="J38" s="120"/>
-      <c r="K38" s="120"/>
-      <c r="L38" s="120"/>
-      <c r="M38" s="120" t="s">
-        <v>9</v>
-      </c>
-      <c r="N38" s="120"/>
-      <c r="O38" s="120"/>
-      <c r="P38" s="120"/>
-      <c r="Q38" s="120" t="s">
-        <v>8</v>
-      </c>
-      <c r="R38" s="121"/>
-    </row>
-    <row r="39" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="120"/>
-      <c r="B39" s="120" t="s">
-        <v>2</v>
-      </c>
-      <c r="C39" s="120"/>
-      <c r="D39" s="120" t="s">
-        <v>18</v>
-      </c>
-      <c r="E39" s="120"/>
-      <c r="F39" s="120"/>
-      <c r="G39" s="120" t="s">
-        <v>3</v>
-      </c>
-      <c r="H39" s="120"/>
-      <c r="I39" s="120" t="s">
-        <v>17</v>
-      </c>
-      <c r="J39" s="120"/>
-      <c r="K39" s="120"/>
-      <c r="L39" s="120"/>
-      <c r="M39" s="120" t="s">
-        <v>9</v>
-      </c>
-      <c r="N39" s="120"/>
-      <c r="O39" s="120"/>
-      <c r="P39" s="120"/>
-      <c r="Q39" s="120" t="s">
-        <v>8</v>
-      </c>
-      <c r="R39" s="121"/>
-    </row>
-    <row r="40" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="120"/>
-      <c r="B40" s="120" t="s">
-        <v>2</v>
-      </c>
-      <c r="C40" s="120"/>
-      <c r="D40" s="120" t="s">
-        <v>18</v>
-      </c>
-      <c r="E40" s="120"/>
-      <c r="F40" s="120"/>
-      <c r="G40" s="120" t="s">
-        <v>3</v>
-      </c>
-      <c r="H40" s="120"/>
-      <c r="I40" s="120" t="s">
-        <v>17</v>
-      </c>
-      <c r="J40" s="120"/>
-      <c r="K40" s="120"/>
-      <c r="L40" s="120"/>
-      <c r="M40" s="120" t="s">
-        <v>9</v>
-      </c>
-      <c r="N40" s="120"/>
-      <c r="O40" s="120"/>
-      <c r="P40" s="120"/>
-      <c r="Q40" s="120" t="s">
-        <v>8</v>
-      </c>
-      <c r="R40" s="121"/>
-    </row>
-    <row r="41" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="120" t="s">
-        <v>16</v>
-      </c>
-      <c r="B41" s="120" t="s">
-        <v>2</v>
-      </c>
-      <c r="C41" s="120"/>
-      <c r="D41" s="120" t="s">
-        <v>18</v>
-      </c>
-      <c r="E41" s="120"/>
-      <c r="F41" s="120"/>
-      <c r="G41" s="120" t="s">
-        <v>3</v>
-      </c>
-      <c r="H41" s="120"/>
-      <c r="I41" s="120" t="s">
-        <v>17</v>
-      </c>
-      <c r="J41" s="120"/>
-      <c r="K41" s="120"/>
-      <c r="L41" s="120"/>
-      <c r="M41" s="120" t="s">
-        <v>9</v>
-      </c>
-      <c r="N41" s="120"/>
-      <c r="O41" s="120"/>
-      <c r="P41" s="120"/>
-      <c r="Q41" s="120" t="s">
-        <v>8</v>
-      </c>
-      <c r="R41" s="121"/>
-    </row>
-    <row r="42" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="120" t="s">
-        <v>16</v>
-      </c>
-      <c r="B42" s="120" t="s">
-        <v>2</v>
-      </c>
-      <c r="C42" s="120"/>
-      <c r="D42" s="120" t="s">
-        <v>18</v>
-      </c>
-      <c r="E42" s="120"/>
-      <c r="F42" s="120"/>
-      <c r="G42" s="120" t="s">
-        <v>3</v>
-      </c>
-      <c r="H42" s="120"/>
-      <c r="I42" s="120" t="s">
-        <v>17</v>
-      </c>
-      <c r="J42" s="120"/>
-      <c r="K42" s="120"/>
-      <c r="L42" s="120"/>
-      <c r="M42" s="120" t="s">
-        <v>9</v>
-      </c>
-      <c r="N42" s="120"/>
-      <c r="O42" s="120"/>
-      <c r="P42" s="120"/>
-      <c r="Q42" s="120" t="s">
-        <v>8</v>
-      </c>
-      <c r="R42" s="121"/>
-    </row>
-    <row r="43" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="120" t="s">
-        <v>16</v>
-      </c>
-      <c r="B43" s="120" t="s">
-        <v>2</v>
-      </c>
-      <c r="C43" s="120"/>
-      <c r="D43" s="120" t="s">
-        <v>18</v>
-      </c>
-      <c r="E43" s="120"/>
-      <c r="F43" s="120"/>
-      <c r="G43" s="120" t="s">
-        <v>3</v>
-      </c>
-      <c r="H43" s="120"/>
-      <c r="I43" s="120" t="s">
-        <v>17</v>
-      </c>
-      <c r="J43" s="120"/>
-      <c r="K43" s="120"/>
-      <c r="L43" s="120"/>
-      <c r="M43" s="120" t="s">
-        <v>9</v>
-      </c>
-      <c r="N43" s="120"/>
-      <c r="O43" s="120"/>
-      <c r="P43" s="120"/>
-      <c r="Q43" s="120" t="s">
-        <v>8</v>
-      </c>
-      <c r="R43" s="121"/>
-    </row>
-    <row r="44" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="122"/>
-      <c r="B44" s="122"/>
-      <c r="C44" s="122"/>
-      <c r="D44" s="122"/>
-      <c r="E44" s="122"/>
-      <c r="F44" s="122"/>
-      <c r="G44" s="122"/>
-      <c r="H44" s="122"/>
-      <c r="I44" s="122"/>
-      <c r="J44" s="122"/>
-      <c r="K44" s="122"/>
-      <c r="L44" s="122"/>
-      <c r="M44" s="122"/>
-      <c r="N44" s="122"/>
-      <c r="O44" s="122"/>
-      <c r="P44" s="122"/>
-      <c r="Q44" s="122"/>
-      <c r="R44" s="123"/>
-    </row>
-    <row r="45" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="122"/>
-      <c r="B45" s="122"/>
-      <c r="C45" s="122"/>
-      <c r="D45" s="122"/>
-      <c r="E45" s="122"/>
-      <c r="F45" s="122"/>
-      <c r="G45" s="122"/>
-      <c r="H45" s="122"/>
-      <c r="I45" s="122"/>
-      <c r="J45" s="122"/>
-      <c r="K45" s="122"/>
-      <c r="L45" s="122"/>
-      <c r="M45" s="122"/>
-      <c r="N45" s="122"/>
-      <c r="O45" s="122"/>
-      <c r="P45" s="122"/>
-      <c r="Q45" s="122"/>
-      <c r="R45" s="123"/>
-    </row>
-    <row r="46" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="122"/>
-      <c r="B46" s="122"/>
-      <c r="C46" s="122"/>
-      <c r="D46" s="122"/>
-      <c r="E46" s="122"/>
-      <c r="F46" s="122"/>
-      <c r="G46" s="122"/>
-      <c r="H46" s="122"/>
-      <c r="I46" s="122"/>
-      <c r="J46" s="122"/>
-      <c r="K46" s="122"/>
-      <c r="L46" s="122"/>
-      <c r="M46" s="122"/>
-      <c r="N46" s="122"/>
-      <c r="O46" s="122"/>
-      <c r="P46" s="122"/>
-      <c r="Q46" s="122"/>
-      <c r="R46" s="123"/>
-    </row>
-    <row r="47" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="122"/>
-      <c r="B47" s="122"/>
-      <c r="C47" s="122"/>
-      <c r="D47" s="122"/>
-      <c r="E47" s="122"/>
-      <c r="F47" s="122"/>
-      <c r="G47" s="122"/>
-      <c r="H47" s="122"/>
-      <c r="I47" s="122"/>
-      <c r="J47" s="122"/>
-      <c r="K47" s="122"/>
-      <c r="L47" s="122"/>
-      <c r="M47" s="122"/>
-      <c r="N47" s="122"/>
-      <c r="O47" s="122"/>
-      <c r="P47" s="122"/>
-      <c r="Q47" s="122"/>
-      <c r="R47" s="123"/>
-    </row>
-    <row r="48" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="122"/>
-      <c r="B48" s="122"/>
-      <c r="C48" s="122"/>
-      <c r="D48" s="122"/>
-      <c r="E48" s="122"/>
-      <c r="F48" s="122"/>
-      <c r="G48" s="122"/>
-      <c r="H48" s="122"/>
-      <c r="I48" s="122"/>
-      <c r="J48" s="122"/>
-      <c r="K48" s="122"/>
-      <c r="L48" s="122"/>
-      <c r="M48" s="122"/>
-      <c r="N48" s="122"/>
-      <c r="O48" s="122"/>
-      <c r="P48" s="122"/>
-      <c r="Q48" s="122"/>
-      <c r="R48" s="123"/>
-    </row>
-    <row r="49" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="122"/>
-      <c r="B49" s="122"/>
-      <c r="C49" s="122"/>
-      <c r="D49" s="122"/>
-      <c r="E49" s="122"/>
-      <c r="F49" s="122"/>
-      <c r="G49" s="122"/>
-      <c r="H49" s="122"/>
-      <c r="I49" s="122"/>
-      <c r="J49" s="122"/>
-      <c r="K49" s="122"/>
-      <c r="L49" s="122"/>
-      <c r="M49" s="122"/>
-      <c r="N49" s="122"/>
-      <c r="O49" s="122"/>
-      <c r="P49" s="122"/>
-      <c r="Q49" s="122"/>
-      <c r="R49" s="123"/>
-    </row>
-    <row r="50" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="122"/>
-      <c r="B50" s="122"/>
-      <c r="C50" s="122"/>
-      <c r="D50" s="122"/>
-      <c r="E50" s="122"/>
-      <c r="F50" s="122"/>
-      <c r="G50" s="122"/>
-      <c r="H50" s="122"/>
-      <c r="I50" s="122"/>
-      <c r="J50" s="122"/>
-      <c r="K50" s="122"/>
-      <c r="L50" s="122"/>
-      <c r="M50" s="122"/>
-      <c r="N50" s="122"/>
-      <c r="O50" s="122"/>
-      <c r="P50" s="122"/>
-      <c r="Q50" s="122"/>
-      <c r="R50" s="123"/>
-    </row>
-    <row r="51" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="122"/>
-      <c r="B51" s="122"/>
-      <c r="C51" s="122"/>
-      <c r="D51" s="122"/>
-      <c r="E51" s="122"/>
-      <c r="F51" s="122"/>
-      <c r="G51" s="122"/>
-      <c r="H51" s="122"/>
-      <c r="I51" s="122"/>
-      <c r="J51" s="122"/>
-      <c r="K51" s="122"/>
-      <c r="L51" s="122"/>
-      <c r="M51" s="122"/>
-      <c r="N51" s="122"/>
-      <c r="O51" s="122"/>
-      <c r="P51" s="122"/>
-      <c r="Q51" s="122"/>
-      <c r="R51" s="123"/>
-    </row>
-  </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="2">
-    <mergeCell ref="Q2:Q7"/>
-    <mergeCell ref="I9:L9"/>
-  </mergeCells>
-  <pageMargins left="0.62992125984252001" right="0.23622047244093999" top="0.35433070866142002" bottom="0.55118110236219997" header="0.11811023622047" footer="0.31496062992126"/>
-  <pageSetup paperSize="9" scale="89" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;K04-044M&amp;"Arial,Normal"&amp;8ETCUT RECHERCHES S.A.S.
-22 rue du Moulin de la Garde – 44477 CARQUEFOU Cedex  (Nantes) FRANCE – Tel. +33 240 252 507 – www.metcutfrance.com
-S.A.S. au capital de 206 250€ - VAT FR10388107443 000 11</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>